--- a/data/uptakes.xlsx
+++ b/data/uptakes.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -532,19 +532,19 @@
         <v>0.01607648886942726</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008032456021088518</v>
+        <v>0.01070994136145136</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0009422597687780848</v>
+        <v>0.00125634635837078</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0350605825833413</v>
+        <v>0.04767028392108718</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05244628261461955</v>
+        <v>0.05159361221166886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0004917568279094734</v>
+        <v>0.0006573295889452173</v>
       </c>
     </row>
     <row r="3">
@@ -573,19 +573,19 @@
         <v>0.01777043355779608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01260420797787489</v>
+        <v>0.01680561063716652</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001787602630257797</v>
+        <v>0.002383470173677063</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0624883413982834</v>
+        <v>0.07995123907786726</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1018034365197389</v>
+        <v>0.09843164894235569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001241524372573459</v>
+        <v>0.001612252480658237</v>
       </c>
     </row>
     <row r="4">
@@ -614,19 +614,19 @@
         <v>0.01961868744189619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01970099060204267</v>
+        <v>0.02626798746939023</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003388644635955871</v>
+        <v>0.00451819284794116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1102052189248408</v>
+        <v>0.1325691515369397</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1849122178472435</v>
+        <v>0.175759711862756</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0031328637513956</v>
+        <v>0.003952061796184617</v>
       </c>
     </row>
     <row r="5">
@@ -655,19 +655,19 @@
         <v>0.02162974321419574</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0306064612899892</v>
+        <v>0.04080861505331893</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006413965706287313</v>
+        <v>0.008551954275049751</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1907875178514682</v>
+        <v>0.2157001959693617</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2981718483882593</v>
+        <v>0.2792605061759645</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007895438845829628</v>
+        <v>0.009673400559349494</v>
       </c>
     </row>
     <row r="6">
@@ -696,19 +696,19 @@
         <v>0.02381122622004908</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04710084484914945</v>
+        <v>0.06280112646553261</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01210567337503009</v>
+        <v>0.01614089783337345</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3198889291920097</v>
+        <v>0.3403618543356844</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3981561004054755</v>
+        <v>0.3697265156458711</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01983452670088339</v>
+        <v>0.02359286053139645</v>
       </c>
     </row>
     <row r="7">
@@ -737,19 +737,19 @@
         <v>0.02616950505936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07143781451972411</v>
+        <v>0.09525041935963213</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02272561321950829</v>
+        <v>0.03030081762601106</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5084751109544652</v>
+        <v>0.5118099892822444</v>
       </c>
       <c r="L7" t="n">
-        <v>0.414859599582836</v>
+        <v>0.3857847696200987</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04942899094553002</v>
+        <v>0.05704226244127971</v>
       </c>
     </row>
     <row r="8">
@@ -778,19 +778,19 @@
         <v>0.02870923775656554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1059902421284425</v>
+        <v>0.1413203228379233</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0422340535356946</v>
+        <v>0.05631207138092614</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7429866458341857</v>
+        <v>0.7161481702118361</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3340177263834304</v>
+        <v>0.3141803754628556</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1207482938914639</v>
+        <v>0.1350482696155207</v>
       </c>
     </row>
     <row r="9">
@@ -819,19 +819,19 @@
         <v>0.03143285451648246</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1522140102377068</v>
+        <v>0.2029520136502758</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07703506200633756</v>
+        <v>0.1027134160084501</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9611180534671688</v>
+        <v>0.9066615944594648</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2179598589087917</v>
+        <v>0.2086303895871706</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2810436232402618</v>
+        <v>0.3043221726535026</v>
       </c>
     </row>
     <row r="10">
@@ -860,19 +860,19 @@
         <v>0.03433998246418293</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2086388982215503</v>
+        <v>0.2781851976287338</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1358179245415229</v>
+        <v>0.1810905660553639</v>
       </c>
       <c r="K10" t="n">
-        <v>1.063443837457486</v>
+        <v>1.012123262312487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1236963198605862</v>
+        <v>0.1207037208524175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.58551213689154</v>
+        <v>0.6145740304934383</v>
       </c>
     </row>
     <row r="11">
@@ -901,19 +901,19 @@
         <v>0.03742682349572461</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2683491988864919</v>
+        <v>0.3577989318486559</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2256183480814807</v>
+        <v>0.3008244641086409</v>
       </c>
       <c r="K11" t="n">
-        <v>0.990541360736172</v>
+        <v>0.9822629890699006</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06477577801807999</v>
+        <v>0.06440702801798656</v>
       </c>
       <c r="M11" t="n">
-        <v>0.974696599828309</v>
+        <v>1.00051682365437</v>
       </c>
     </row>
     <row r="12">
@@ -942,19 +942,19 @@
         <v>0.04068550346475081</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3181411418785925</v>
+        <v>0.4241881891714566</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3398294383170178</v>
+        <v>0.4531059177560237</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7855552943940204</v>
+        <v>0.8320747022901553</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03250908140404622</v>
+        <v>0.03290210905026766</v>
       </c>
       <c r="M12" t="n">
-        <v>1.131301134240697</v>
+        <v>1.159526521161041</v>
       </c>
     </row>
     <row r="13">
@@ -983,19 +983,19 @@
         <v>0.04410341925560204</v>
       </c>
       <c r="I13" t="n">
-        <v>0.34256563013546</v>
+        <v>0.4567541735139466</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4424415447899502</v>
+        <v>0.5899220597199336</v>
       </c>
       <c r="K13" t="n">
-        <v>0.54780885916456</v>
+        <v>0.6277855122161934</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01596912996251047</v>
+        <v>0.0164360108619216</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8688317322366123</v>
+        <v>0.9108241701490067</v>
       </c>
     </row>
     <row r="14">
@@ -1024,19 +1024,19 @@
         <v>0.04766261947414185</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3326174442419625</v>
+        <v>0.44348992565595</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4774419710458974</v>
+        <v>0.6365892947278632</v>
       </c>
       <c r="K14" t="n">
-        <v>0.348945157264605</v>
+        <v>0.4337642137339527</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007761923547238412</v>
+        <v>0.008118972245859071</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4823646125960123</v>
+        <v>0.5239003640057052</v>
       </c>
     </row>
     <row r="15">
@@ -1065,19 +1065,19 @@
         <v>0.0513392638568848</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2920760019602999</v>
+        <v>0.3894346692803998</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4210373200615875</v>
+        <v>0.56138309341545</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2097159595682633</v>
+        <v>0.2819156403302239</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003753394252340348</v>
+        <v>0.00398838976752208</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2222164906554784</v>
+        <v>0.2504161971499638</v>
       </c>
     </row>
     <row r="16">
@@ -1106,19 +1106,19 @@
         <v>0.05510321505412266</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2347474093001983</v>
+        <v>0.3129965457335977</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3104297539252941</v>
+        <v>0.4139063385670589</v>
       </c>
       <c r="K16" t="n">
-        <v>0.121685936670591</v>
+        <v>0.1760432051107017</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001810499273083358</v>
+        <v>0.001953935991325996</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09373521170586747</v>
+        <v>0.1093242666070963</v>
       </c>
     </row>
     <row r="17">
@@ -1147,19 +1147,19 @@
         <v>0.0589178228418961</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1756600291388333</v>
+        <v>0.234213372185111</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2002679018438895</v>
+        <v>0.2670238691251861</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06917657171407926</v>
+        <v>0.1072098938116198</v>
       </c>
       <c r="L17" t="n">
-        <v>0.00087227030826258</v>
+        <v>0.0009559670445448767</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03807836168883218</v>
+        <v>0.04585300019625549</v>
       </c>
     </row>
     <row r="18">
@@ -1188,19 +1188,19 @@
         <v>0.06273996344614864</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1245717748721084</v>
+        <v>0.1660956998294779</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1184144809089909</v>
+        <v>0.1578859745453212</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03886982176773938</v>
+        <v>0.06429920560531165</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004200031675184132</v>
+        <v>0.0004674031347621447</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01523260790436214</v>
+        <v>0.01890937846201263</v>
       </c>
     </row>
     <row r="19">
@@ -1229,19 +1229,19 @@
         <v>0.06652039378832657</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08502770097204268</v>
+        <v>0.1133702679627236</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0664686460008786</v>
+        <v>0.0886248613345048</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02169783324362202</v>
+        <v>0.03821069992760401</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002021776063142033</v>
+        <v>0.0002284554415043049</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006056086789663855</v>
+        <v>0.00774375457972369</v>
       </c>
     </row>
     <row r="20">
@@ -1270,19 +1270,19 @@
         <v>0.07020447049438656</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05653694966732573</v>
+        <v>0.0753825995564343</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03623107196146734</v>
+        <v>0.04830809594862312</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01206780491315569</v>
+        <v>0.02258344795598204</v>
       </c>
       <c r="L20" t="n">
-        <v>9.73095112169249e-05</v>
+        <v>0.0001116460959573984</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002401840443899701</v>
+        <v>0.003162144148255606</v>
       </c>
     </row>
     <row r="21">
@@ -1311,19 +1311,19 @@
         <v>0.07373326535084225</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0369426749634801</v>
+        <v>0.0492568999513068</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01943451856790502</v>
+        <v>0.02591269142387336</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006698143631883272</v>
+        <v>0.01330428541360699</v>
       </c>
       <c r="L21" t="n">
-        <v>4.683273252750246e-05</v>
+        <v>5.455724305267145e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009516415128791977</v>
+        <v>0.001289743795956567</v>
       </c>
     </row>
     <row r="22">
@@ -1352,19 +1352,19 @@
         <v>0.07704508234067124</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0238652779828891</v>
+        <v>0.03182037064385212</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01033522069004923</v>
+        <v>0.01378029425339898</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003713546766294639</v>
+        <v>0.007822858791267446</v>
       </c>
       <c r="L22" t="n">
-        <v>2.253877006469825e-05</v>
+        <v>2.665907562098284e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0003769077307025522</v>
+        <v>0.0005257967233833913</v>
       </c>
     </row>
     <row r="23">
@@ -1393,19 +1393,19 @@
         <v>0.08007734752081971</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01530377729748145</v>
+        <v>0.02040503639664193</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005471057270777406</v>
+        <v>0.007294743027703209</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002057551338821917</v>
+        <v>0.004594654353035759</v>
       </c>
       <c r="L23" t="n">
-        <v>1.084686998825086e-05</v>
+        <v>1.302656284873353e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0001492555003191037</v>
+        <v>0.0002143126287747129</v>
       </c>
     </row>
     <row r="24">
@@ -1434,19 +1434,19 @@
         <v>0.08276880439991086</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009767277667438153</v>
+        <v>0.01302303688991754</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002889125501892421</v>
+        <v>0.003852167335856561</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001139623461319549</v>
+        <v>0.002696835022085025</v>
       </c>
       <c r="L24" t="n">
-        <v>5.220060439919638e-06</v>
+        <v>6.365180485672044e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>5.910161681458724e-05</v>
+        <v>8.734603439927653e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1475,19 +1475,19 @@
         <v>0.08506190823299661</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006214910541826849</v>
+        <v>0.008286547389102464</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001523714351048155</v>
+        <v>0.002031619134730874</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006310857868844371</v>
+        <v>0.001582297488565749</v>
       </c>
       <c r="L25" t="n">
-        <v>2.512147436912226e-06</v>
+        <v>3.110210016001996e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>2.340226926013444e-05</v>
+        <v>3.559791623855959e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1516,19 +1516,19 @@
         <v>0.08690527801218863</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003946936952139119</v>
+        <v>0.005262582602852158</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0008030570111930046</v>
+        <v>0.001070742681590673</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003494371502935713</v>
+        <v>0.000928161301156449</v>
       </c>
       <c r="L26" t="n">
-        <v>1.208965739119866e-06</v>
+        <v>1.519734717572345e-06</v>
       </c>
       <c r="M26" t="n">
-        <v>9.266430250293166e-06</v>
+        <v>1.450775582376418e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1557,19 +1557,19 @@
         <v>0.08825604056413626</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002503539538392756</v>
+        <v>0.003338052717857007</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0004230912681978613</v>
+        <v>0.0005641216909304817</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001934746592436361</v>
+        <v>0.0005443785808586649</v>
       </c>
       <c r="L27" t="n">
-        <v>5.818117856943448e-07</v>
+        <v>7.42583683883736e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>3.669148748441677e-06</v>
+        <v>5.912532832208355e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1598,19 +1598,19 @@
         <v>0.08908189214402838</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001586762188481748</v>
+        <v>0.002115682917975664</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002228640455397971</v>
+        <v>0.0002971520607197296</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001071186025575503</v>
+        <v>0.0003192601637047957</v>
       </c>
       <c r="L28" t="n">
-        <v>2.799953814848496e-07</v>
+        <v>3.628463844047954e-07</v>
       </c>
       <c r="M28" t="n">
-        <v>1.452839135043323e-06</v>
+        <v>2.409605482205227e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1639,19 +1639,19 @@
         <v>0.08936271261597425</v>
       </c>
       <c r="I29" t="n">
-        <v>0.001005207455186286</v>
+        <v>0.001340276606915048</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0001173823773750032</v>
+        <v>0.0001565098365000042</v>
       </c>
       <c r="K29" t="n">
-        <v>5.930589169247222e-05</v>
+        <v>0.0001872270401012179</v>
       </c>
       <c r="L29" t="n">
-        <v>1.347470110079745e-07</v>
+        <v>1.772964702325013e-07</v>
       </c>
       <c r="M29" t="n">
-        <v>5.752670315780688e-07</v>
+        <v>9.820145722292925e-07</v>
       </c>
     </row>
     <row r="30">
@@ -1680,19 +1680,19 @@
         <v>0.08909159646609517</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0006365965520891469</v>
+        <v>0.000848795402785529</v>
       </c>
       <c r="J30" t="n">
-        <v>6.182200909063266e-05</v>
+        <v>8.242934545417688e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.283419906101565e-05</v>
+        <v>0.000109794544757488</v>
       </c>
       <c r="L30" t="n">
-        <v>6.484662445624613e-08</v>
+        <v>8.663179763250323e-08</v>
       </c>
       <c r="M30" t="n">
-        <v>2.277830163358354e-07</v>
+        <v>4.002116846821377e-07</v>
       </c>
     </row>
     <row r="31">
@@ -1721,19 +1721,19 @@
         <v>0.0882752111152683</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0004030762321301477</v>
+        <v>0.0005374349761735302</v>
       </c>
       <c r="J31" t="n">
-        <v>3.255902448286694e-05</v>
+        <v>4.341203264382259e-05</v>
       </c>
       <c r="K31" t="n">
-        <v>1.817827220587223e-05</v>
+        <v>6.438521081111061e-05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.120725640609787e-08</v>
+        <v>4.233061101860551e-08</v>
       </c>
       <c r="M31" t="n">
-        <v>9.019306668198823e-08</v>
+        <v>1.631028432293692e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1762,19 +1762,19 @@
         <v>0.08693345092287054</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0002551854165184589</v>
+        <v>0.0003402472220246119</v>
       </c>
       <c r="J32" t="n">
-        <v>1.714720593165293e-05</v>
+        <v>2.28629412422039e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>1.006415792459208e-05</v>
+        <v>3.775613026421203e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.501840443355564e-08</v>
+        <v>2.068386696689717e-08</v>
       </c>
       <c r="M32" t="n">
-        <v>3.571288637261327e-08</v>
+        <v>6.647116234047633e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1803,19 +1803,19 @@
         <v>0.08509841740782818</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001615437532345266</v>
+        <v>0.0002153916709793687</v>
       </c>
       <c r="J33" t="n">
-        <v>9.030504847562707e-06</v>
+        <v>1.204067313008361e-05</v>
       </c>
       <c r="K33" t="n">
-        <v>5.571877306062267e-06</v>
+        <v>2.214045188246683e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>7.227564850548195e-09</v>
+        <v>1.010668961202642e-08</v>
       </c>
       <c r="M33" t="n">
-        <v>1.414088999869465e-08</v>
+        <v>2.708975040945588e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1844,19 +1844,19 @@
         <v>0.08281281428120228</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001022592833871771</v>
+        <v>0.0001363457111829028</v>
       </c>
       <c r="J34" t="n">
-        <v>4.755858798130287e-06</v>
+        <v>6.341145064173716e-06</v>
       </c>
       <c r="K34" t="n">
-        <v>3.084787390750092e-06</v>
+        <v>1.298327056518353e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>3.478245219026929e-09</v>
+        <v>4.938398335828383e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>5.59923291336115e-09</v>
+        <v>1.104019463549301e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1885,19 +1885,19 @@
         <v>0.08012789236559119</v>
       </c>
       <c r="I35" t="n">
-        <v>6.472939657628319e-05</v>
+        <v>8.63058621017109e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>2.504637939611338e-06</v>
+        <v>3.339517252815117e-06</v>
       </c>
       <c r="K35" t="n">
-        <v>1.707845984378828e-06</v>
+        <v>7.613439957440709e-06</v>
       </c>
       <c r="L35" t="n">
-        <v>1.673895707051548e-09</v>
+        <v>2.413033246012233e-09</v>
       </c>
       <c r="M35" t="n">
-        <v>2.217074678452652e-09</v>
+        <v>4.499336289522084e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1926,19 +1926,19 @@
         <v>0.07710110896381345</v>
       </c>
       <c r="I36" t="n">
-        <v>4.09724241821087e-05</v>
+        <v>5.462989890947827e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>1.319047617933202e-06</v>
+        <v>1.758730157244269e-06</v>
       </c>
       <c r="K36" t="n">
-        <v>9.455228820039463e-07</v>
+        <v>4.464545699183376e-06</v>
       </c>
       <c r="L36" t="n">
-        <v>8.055575896854737e-10</v>
+        <v>1.179072452399597e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>8.778738447703884e-10</v>
+        <v>1.833665771380981e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1967,19 +1967,19 @@
         <v>0.07379367628475685</v>
       </c>
       <c r="I37" t="n">
-        <v>2.593440255938339e-05</v>
+        <v>3.457920341251119e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>6.946655122944177e-07</v>
+        <v>9.262206830592236e-07</v>
       </c>
       <c r="K37" t="n">
-        <v>5.234742392686632e-07</v>
+        <v>2.618022295175406e-06</v>
       </c>
       <c r="L37" t="n">
-        <v>3.876723186632328e-10</v>
+        <v>5.761262714403269e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>3.476033056295124e-10</v>
+        <v>7.47294699149656e-10</v>
       </c>
     </row>
     <row r="38">
@@ -2008,511 +2008,19 @@
         <v>0.07026816482019864</v>
       </c>
       <c r="I38" t="n">
-        <v>1.641562206649957e-05</v>
+        <v>2.18874960886661e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>3.658397303377281e-07</v>
+        <v>4.877863071169708e-07</v>
       </c>
       <c r="K38" t="n">
-        <v>2.898134568062422e-07</v>
+        <v>1.535215143750322e-06</v>
       </c>
       <c r="L38" t="n">
-        <v>1.865662102168979e-10</v>
+        <v>2.815106737821253e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>1.376371545721781e-10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.2106543555084416</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.07619778664934311</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.02529086579372906</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.01029605131302285</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0805772909889871</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.09752675938100824</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.06658630342838365</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.03904948791932e-05</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.926663756053897e-07</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.604507525477834e-07</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8.97844625853319e-11</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5.449886698678201e-11</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1878128932981226</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.06320199431372259</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.02051275178380969</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.00807698834796162</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.07621890680653735</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.08472270366486953</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.06280708337417881</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.576786171200748e-06</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.014660957493716e-07</v>
-      </c>
-      <c r="K40" t="n">
-        <v>8.883108320227109e-08</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.320851944135509e-11</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2.157939483716777e-11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1671439092113429</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.05221825644896787</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.01662593358667154</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.006334398106773768</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.07180137969175882</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.07325051594748393</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.05898523436709627</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4.162845820863634e-06</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.343624744878104e-08</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.917995770704825e-08</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.079397813943646e-11</v>
-      </c>
-      <c r="M41" t="n">
-        <v>8.544586470893997e-12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.1485090033939317</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.04300428801522361</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.01346810599661348</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.00496666534686664</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.06737921539984539</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0630718816593575</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.05517010198455412</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.634913546148398e-06</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.814173988307016e-08</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.722772404392026e-08</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.000704334348369e-11</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.38331813793876e-12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.1317620760522379</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03532207603354759</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.01090514053877813</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.003893578109233193</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.06300070092935842</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.05411566903834057</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.05140492188627508</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.667792665238169e-06</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.482060495529602e-08</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.507420883960078e-08</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.815861390552088e-12</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.339660106604556e-12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.1167545733843978</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.02894889210170799</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.008826682623168096</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.003051923596223401</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.05870745638928819</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.04629036772306219</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.04772645953244816</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.055644099090752e-06</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7.805143914535248e-09</v>
-      </c>
-      <c r="K44" t="n">
-        <v>8.345602856638775e-09</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.317619714122515e-12</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5.304523926089148e-13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.1033394872161296</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.02368318160486571</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.007142256861000243</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.002391949450503478</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.05453430704754837</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.03949383295774058</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.04416496581059336</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.681790384451666e-07</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.110511784022137e-09</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.620414091615873e-09</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.115347952044213e-12</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.100381577664762e-13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.09137429551605873</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.0193469233198598</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.005777894515047183</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.001874536718397359</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.05050942158456494</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.03362053800466684</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.0407443888719211</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.229295984835139e-07</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.164765605951606e-09</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.558020879742916e-09</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.367580567890073e-13</v>
-      </c>
-      <c r="M46" t="n">
-        <v>8.316679938223352e-14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.08072302642257699</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.01578570559157661</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.004673258153580379</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.001468951276319607</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.04665465811533018</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02856669107886291</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.03748277949181016</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.676968470100729e-07</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.140055148950989e-09</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.416208739871197e-09</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.583133012435825e-13</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.293076169128543e-14</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.07125761432823215</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.01286743441359645</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.003779218575570198</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.001151061383985949</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.04298606036987811</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.02423362319079162</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.03439282981557983</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.6944095710293e-07</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.004002181192963e-10</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.840620888946217e-10</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.243125478143967e-13</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.303927857779123e-14</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.06285869741682118</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.01048031159688215</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.00305583089796348</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0009019284117090449</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.03951445108701866</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.02052983990496601</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.03148249169805331</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.072490645932973e-07</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.16195599969975e-10</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.340838619709446e-10</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5.982506309085921e-14</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5.16303835979105e-15</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.05541598498350268</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.008530506595203045</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.002470655586315136</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.0007066948577871842</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.03624607676034793</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.01737208337900581</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.02875562937508652</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.788418615256002e-08</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.665216873829373e-10</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.403238236852242e-10</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.879064291376911e-14</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.044358891915731e-15</v>
+        <v>3.045535211152917e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2075,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -2622,19 +2130,19 @@
         <v>0.000894681991523102</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01648797918443302</v>
+        <v>0.0219839722459107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000153442857471919</v>
+        <v>0.0002045904766292253</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07472511509560005</v>
+        <v>0.1087437065006414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006412136908377023</v>
+        <v>0.005882054895873327</v>
       </c>
       <c r="M2" t="n">
-        <v>5.47012209572709e-05</v>
+        <v>8.468768259260699e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2663,19 +2171,19 @@
         <v>0.001073539516354294</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02401774304819405</v>
+        <v>0.03202365739759207</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003362081153347944</v>
+        <v>0.0004482774871130592</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1191944662292787</v>
+        <v>0.1601248642790413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.019018871566744</v>
+        <v>0.01727131074173271</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001702673446235011</v>
+        <v>0.0002527519208173551</v>
       </c>
     </row>
     <row r="4">
@@ -2704,19 +2212,19 @@
         <v>0.001287955110118293</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03476940710254432</v>
+        <v>0.04635920947005909</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007365261006183976</v>
+        <v>0.0009820348008245301</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1870432434887893</v>
+        <v>0.2315872754349708</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05529466166703764</v>
+        <v>0.04974490539728069</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005299401240322479</v>
+        <v>0.0007542532140802791</v>
       </c>
     </row>
     <row r="5">
@@ -2745,19 +2253,19 @@
         <v>0.001544910977341359</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04988349731702474</v>
+        <v>0.06651132975603298</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001612833063298706</v>
+        <v>0.002150444084398274</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2860926081857653</v>
+        <v>0.3263727212641113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1517653160430339</v>
+        <v>0.135603679730536</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001648926003137425</v>
+        <v>0.002250018898140651</v>
       </c>
     </row>
     <row r="6">
@@ -2786,19 +2294,19 @@
         <v>0.001852722096808698</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07065107728950046</v>
+        <v>0.09420143638600061</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003528576081384539</v>
+        <v>0.004704768108512719</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4208407295894377</v>
+        <v>0.4434970781266198</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1957313386117395</v>
+        <v>0.172670768974483</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005126239034778072</v>
+        <v>0.006704968064361631</v>
       </c>
     </row>
     <row r="7">
@@ -2827,19 +2335,19 @@
         <v>0.00222127375325523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09825691218614904</v>
+        <v>0.1310092162481987</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007704667345079517</v>
+        <v>0.01027288979343936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5846603023656385</v>
+        <v>0.585149939553124</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2009155734436861</v>
+        <v>0.1772322377556019</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01589373793096294</v>
+        <v>0.0199178205962091</v>
       </c>
     </row>
     <row r="8">
@@ -2868,19 +2376,19 @@
         <v>0.00266229386970788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1332341937580528</v>
+        <v>0.1776455916774038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01675101181950896</v>
+        <v>0.02233468242601195</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8877354049028107</v>
+        <v>0.8805370008833585</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1808477395030252</v>
+        <v>0.1610011272920217</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04886853202918332</v>
+        <v>0.05861880830596534</v>
       </c>
     </row>
     <row r="9">
@@ -2909,19 +2417,19 @@
         <v>0.003189661723475273</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1745810346053681</v>
+        <v>0.2327747128071575</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03608059083979875</v>
+        <v>0.048107454453065</v>
       </c>
       <c r="K9" t="n">
-        <v>1.175278205058737</v>
+        <v>1.142475162006894</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07638844350321154</v>
+        <v>0.07027827857901407</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1464663483672969</v>
+        <v>0.167867510412803</v>
       </c>
     </row>
     <row r="10">
@@ -2950,19 +2458,19 @@
         <v>0.003819752767881535</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2347462440145709</v>
+        <v>0.3129949920194278</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07617217998912564</v>
+        <v>0.1015629066521675</v>
       </c>
       <c r="K10" t="n">
-        <v>1.251269157444572</v>
+        <v>1.225458932379318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0265917322267221</v>
+        <v>0.02470974312477874</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4070139532930901</v>
+        <v>0.4449798620389108</v>
       </c>
     </row>
     <row r="11">
@@ -2991,19 +2499,19 @@
         <v>0.004571816231248335</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3144109735567165</v>
+        <v>0.4192146314089554</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1541815911678266</v>
+        <v>0.2055754548904355</v>
       </c>
       <c r="K11" t="n">
-        <v>1.208729830755156</v>
+        <v>1.219671210636517</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00900219789586172</v>
+        <v>0.008452031227589554</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7325317254392003</v>
+        <v>0.7691505482389439</v>
       </c>
     </row>
     <row r="12">
@@ -3032,19 +2540,19 @@
         <v>0.005468377425012519</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3779869198867093</v>
+        <v>0.5039825598489458</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2718676886837049</v>
+        <v>0.3624902515782732</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9461556607357408</v>
+        <v>1.045138536612274</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003018766358964371</v>
+        <v>0.002863824711341644</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8414714964031592</v>
+        <v>0.8845407423743781</v>
       </c>
     </row>
     <row r="13">
@@ -3073,19 +2581,19 @@
         <v>0.006535649615325715</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3993455176408461</v>
+        <v>0.5324606901877948</v>
       </c>
       <c r="J13" t="n">
-        <v>0.333695443680094</v>
+        <v>0.4449272582401253</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6203103604853475</v>
+        <v>0.7519702299661443</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001009081749524483</v>
+        <v>0.0009672479798648304</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6705919092640029</v>
+        <v>0.7146996057674614</v>
       </c>
     </row>
     <row r="14">
@@ -3114,19 +2622,19 @@
         <v>0.0078039300872974</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3936038181294451</v>
+        <v>0.5248050908392602</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3619532117697999</v>
+        <v>0.4826042823597333</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4482688339550073</v>
+        <v>0.5180028504796346</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003369459920532918</v>
+        <v>0.0003263308869167818</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3075122543036292</v>
+        <v>0.3534210547088106</v>
       </c>
     </row>
     <row r="15">
@@ -3155,19 +2663,19 @@
         <v>0.009307940704752313</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3455772069324448</v>
+        <v>0.4607696092432597</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3201762357902778</v>
+        <v>0.4269016477203704</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3073996656056281</v>
+        <v>0.391537890379228</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001124707626377016</v>
+        <v>0.000110057483865974</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1073566485591248</v>
+        <v>0.1297792689955607</v>
       </c>
     </row>
     <row r="16">
@@ -3196,19 +2704,19 @@
         <v>0.01108705381780939</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2695225331009116</v>
+        <v>0.3593633774678822</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2484553067028656</v>
+        <v>0.3312737422704874</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2021460521990505</v>
+        <v>0.2833141559499166</v>
       </c>
       <c r="L16" t="n">
-        <v>3.753767570645864e-05</v>
+        <v>3.711311158521396e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03544914800032824</v>
+        <v>0.04488105323693255</v>
       </c>
     </row>
     <row r="17">
@@ -3237,19 +2745,19 @@
         <v>0.01318531887926516</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1936857581449566</v>
+        <v>0.2582476775266088</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1300599790217266</v>
+        <v>0.1734133053623022</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1293046101915935</v>
+        <v>0.1986147570536259</v>
       </c>
       <c r="L17" t="n">
-        <v>1.252788885199097e-05</v>
+        <v>1.25146029761277e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01149001261344372</v>
+        <v>0.01519922746461532</v>
       </c>
     </row>
     <row r="18">
@@ -3278,19 +2786,19 @@
         <v>0.01565117313410821</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1505031800420261</v>
+        <v>0.2006709067227015</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06339343981031513</v>
+        <v>0.08452458641375352</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08125672629037307</v>
+        <v>0.1361732516293326</v>
       </c>
       <c r="L18" t="n">
-        <v>4.181023963191625e-06</v>
+        <v>4.219885710235141e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003701807623064411</v>
+        <v>0.005110787118535922</v>
       </c>
     </row>
     <row r="19">
@@ -3319,19 +2827,19 @@
         <v>0.01853668183353439</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1125157797843634</v>
+        <v>0.1500210397124845</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02983316865823695</v>
+        <v>0.0397775582109826</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05049585419190813</v>
+        <v>0.09194655750313718</v>
       </c>
       <c r="L19" t="n">
-        <v>1.395357539056556e-06</v>
+        <v>1.422925773519243e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001190314654596085</v>
+        <v>0.001714403634255814</v>
       </c>
     </row>
     <row r="20">
@@ -3360,19 +2868,19 @@
         <v>0.02189611219323025</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0817157645976781</v>
+        <v>0.1089543527969041</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01380849942218392</v>
+        <v>0.0184113325629119</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03116274136181418</v>
+        <v>0.06144583027364178</v>
       </c>
       <c r="L20" t="n">
-        <v>4.656801320593711e-07</v>
+        <v>4.79803166352366e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003825055897802095</v>
+        <v>0.0005746309699166063</v>
       </c>
     </row>
     <row r="21">
@@ -3401,19 +2909,19 @@
         <v>0.02319957290307266</v>
       </c>
       <c r="I21" t="n">
-        <v>0.05810951217265313</v>
+        <v>0.0774793495635375</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006342345456919403</v>
+        <v>0.008456460609225872</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01914929466312618</v>
+        <v>0.04078011217049934</v>
       </c>
       <c r="L21" t="n">
-        <v>1.554138438541011e-07</v>
+        <v>1.617870438724059e-07</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001228927884417983</v>
+        <v>0.0001925519286086693</v>
       </c>
     </row>
     <row r="22">
@@ -3442,19 +2950,19 @@
         <v>0.02345992645445519</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04070720292659673</v>
+        <v>0.05427627056879564</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002902792008830772</v>
+        <v>0.003870389345107697</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01173612575219582</v>
+        <v>0.02694086926709144</v>
       </c>
       <c r="L22" t="n">
-        <v>5.186705902302216e-08</v>
+        <v>5.455371004316187e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>3.94808897848667e-05</v>
+        <v>6.451600613364492e-05</v>
       </c>
     </row>
     <row r="23">
@@ -3483,19 +2991,19 @@
         <v>0.02370608459289682</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02821789419870585</v>
+        <v>0.03762385893160779</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001326410559270258</v>
+        <v>0.001768547412360344</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007181161782168868</v>
+        <v>0.01774425439014622</v>
       </c>
       <c r="L23" t="n">
-        <v>1.730985861721192e-08</v>
+        <v>1.83952127817484e-08</v>
       </c>
       <c r="M23" t="n">
-        <v>1.268348046545132e-05</v>
+        <v>2.161593010813046e-05</v>
       </c>
     </row>
     <row r="24">
@@ -3524,19 +3032,19 @@
         <v>0.02393736002151766</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01941811266009203</v>
+        <v>0.02589081688012271</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000605645194550672</v>
+        <v>0.0008075269260675627</v>
       </c>
       <c r="K24" t="n">
-        <v>0.004389702085650814</v>
+        <v>0.01166369706558192</v>
       </c>
       <c r="L24" t="n">
-        <v>5.776907453628471e-09</v>
+        <v>6.202765055504645e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>4.074619496191803e-06</v>
+        <v>7.242291064123006e-06</v>
       </c>
     </row>
     <row r="25">
@@ -3565,19 +3073,19 @@
         <v>0.02415309681696269</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01329554436380088</v>
+        <v>0.01772739248506785</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002764468559770241</v>
+        <v>0.0003685958079693654</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002681715731385415</v>
+        <v>0.007656746494064465</v>
       </c>
       <c r="L25" t="n">
-        <v>1.927956793991804e-09</v>
+        <v>2.091538408529968e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>1.308985218458841e-06</v>
+        <v>2.426479051883883e-06</v>
       </c>
     </row>
     <row r="26">
@@ -3606,19 +3114,19 @@
         <v>0.02435267423403446</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009072139739454522</v>
+        <v>0.01209618631927269</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001261647313034522</v>
+        <v>0.0001682196417379363</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001637683490396306</v>
+        <v>0.005022012536875311</v>
       </c>
       <c r="L26" t="n">
-        <v>6.434268545522322e-10</v>
+        <v>7.052552958154143e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>4.20515614708361e-07</v>
+        <v>8.129739377551924e-07</v>
       </c>
     </row>
     <row r="27">
@@ -3647,19 +3155,19 @@
         <v>0.02453551038153311</v>
       </c>
       <c r="I27" t="n">
-        <v>0.006175791339062642</v>
+        <v>0.00823438845208352</v>
       </c>
       <c r="J27" t="n">
-        <v>5.757496336508572e-05</v>
+        <v>7.67666178201143e-05</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0009998830523994019</v>
+        <v>0.003292044203053359</v>
       </c>
       <c r="L27" t="n">
-        <v>2.147341258723721e-10</v>
+        <v>2.378082228151912e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>1.350919327411935e-07</v>
+        <v>2.723808271919313e-07</v>
       </c>
     </row>
     <row r="28">
@@ -3688,19 +3196,19 @@
         <v>0.02470106573328424</v>
       </c>
       <c r="I28" t="n">
-        <v>0.004197401526592638</v>
+        <v>0.005596535368790185</v>
       </c>
       <c r="J28" t="n">
-        <v>2.627334720399726e-05</v>
+        <v>3.503112960532968e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0006103916894236663</v>
+        <v>0.002157210276750241</v>
       </c>
       <c r="L28" t="n">
-        <v>7.166431503049279e-11</v>
+        <v>8.018763015178613e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>4.339869521213733e-08</v>
+        <v>9.125914385794052e-08</v>
       </c>
     </row>
     <row r="29">
@@ -3729,19 +3237,19 @@
         <v>0.0248488464390574</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002849679452961418</v>
+        <v>0.003799572603948557</v>
       </c>
       <c r="J29" t="n">
-        <v>1.198921547600773e-05</v>
+        <v>1.598562063467698e-05</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0003725902543504444</v>
+        <v>0.001413233005596329</v>
       </c>
       <c r="L29" t="n">
-        <v>2.391689736103383e-11</v>
+        <v>2.703882966140446e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>1.394196281668686e-08</v>
+        <v>3.057568723494666e-08</v>
       </c>
     </row>
     <row r="30">
@@ -3770,19 +3278,19 @@
         <v>0.02470382462455943</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001933262173325077</v>
+        <v>0.002577682897766768</v>
       </c>
       <c r="J30" t="n">
-        <v>5.470955942126627e-06</v>
+        <v>7.294607922835504e-06</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0002274217904670575</v>
+        <v>0.0009256907531300616</v>
       </c>
       <c r="L30" t="n">
-        <v>7.981908138246792e-12</v>
+        <v>9.117345257022674e-12</v>
       </c>
       <c r="M30" t="n">
-        <v>4.478897920915958e-09</v>
+        <v>1.024415304542418e-08</v>
       </c>
     </row>
     <row r="31">
@@ -3811,19 +3319,19 @@
         <v>0.02453857830208448</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001310894919228891</v>
+        <v>0.001747859892305188</v>
       </c>
       <c r="J31" t="n">
-        <v>2.496515931482697e-06</v>
+        <v>3.328687908643596e-06</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001388094548576898</v>
+        <v>0.0006062793727989837</v>
       </c>
       <c r="L31" t="n">
-        <v>2.663842912612594e-12</v>
+        <v>3.074318880508294e-12</v>
       </c>
       <c r="M31" t="n">
-        <v>1.438859563927729e-09</v>
+        <v>3.432226079079811e-09</v>
       </c>
     </row>
     <row r="32">
@@ -3852,19 +3360,19 @@
         <v>0.02435604207823821</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0008885818565182924</v>
+        <v>0.001184775808691057</v>
       </c>
       <c r="J32" t="n">
-        <v>1.139212812126095e-06</v>
+        <v>1.518950416168127e-06</v>
       </c>
       <c r="K32" t="n">
-        <v>8.472229594031371e-05</v>
+        <v>0.0003970543872412719</v>
       </c>
       <c r="L32" t="n">
-        <v>8.890178814579837e-13</v>
+        <v>1.036643486955504e-12</v>
       </c>
       <c r="M32" t="n">
-        <v>4.622380057984618e-10</v>
+        <v>1.149941414063834e-09</v>
       </c>
     </row>
     <row r="33">
@@ -3893,19 +3401,19 @@
         <v>0.02415675470246327</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0006021808957742263</v>
+        <v>0.0008029078610323016</v>
       </c>
       <c r="J33" t="n">
-        <v>5.198464744446317e-07</v>
+        <v>6.931286325928424e-07</v>
       </c>
       <c r="K33" t="n">
-        <v>5.170961621268823e-05</v>
+        <v>0.0002600206146461032</v>
       </c>
       <c r="L33" t="n">
-        <v>2.9669647178112e-13</v>
+        <v>3.495505055963286e-13</v>
       </c>
       <c r="M33" t="n">
-        <v>1.484953634872662e-10</v>
+        <v>3.852791816732683e-10</v>
       </c>
     </row>
     <row r="34">
@@ -3934,19 +3442,19 @@
         <v>0.02394129734939533</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0004080268246982847</v>
+        <v>0.0005440357662643795</v>
       </c>
       <c r="J34" t="n">
-        <v>2.372166777236947e-07</v>
+        <v>3.16288903631593e-07</v>
       </c>
       <c r="K34" t="n">
-        <v>3.156035052962266e-05</v>
+        <v>0.0001702757653552064</v>
       </c>
       <c r="L34" t="n">
-        <v>9.901802674988987e-14</v>
+        <v>1.178665158273898e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>4.770458659582155e-11</v>
+        <v>1.290848785760355e-10</v>
       </c>
     </row>
     <row r="35">
@@ -3975,19 +3483,19 @@
         <v>0.02371029011105829</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0002764423169012188</v>
+        <v>0.0003685897558682916</v>
       </c>
       <c r="J35" t="n">
-        <v>1.082468526757311e-07</v>
+        <v>1.443291369009748e-07</v>
       </c>
       <c r="K35" t="n">
-        <v>1.926240159984368e-05</v>
+        <v>0.0001115037750644261</v>
       </c>
       <c r="L35" t="n">
-        <v>3.304579108265897e-14</v>
+        <v>3.974394352422979e-14</v>
       </c>
       <c r="M35" t="n">
-        <v>1.532524335290965e-11</v>
+        <v>4.324891317411283e-11</v>
       </c>
     </row>
     <row r="36">
@@ -4016,19 +3524,19 @@
         <v>0.02346438832361774</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001872790561597414</v>
+        <v>0.0002497054082129886</v>
       </c>
       <c r="J36" t="n">
-        <v>4.939526393370872e-08</v>
+        <v>6.586035191161164e-08</v>
       </c>
       <c r="K36" t="n">
-        <v>1.17564958682952e-05</v>
+        <v>7.301647218073853e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>1.102854039938657e-14</v>
+        <v>1.340144005928135e-14</v>
       </c>
       <c r="M36" t="n">
-        <v>4.923280979539576e-12</v>
+        <v>1.449022156070912e-11</v>
       </c>
     </row>
     <row r="37">
@@ -4057,19 +3565,19 @@
         <v>0.02320427876470365</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001268682111847707</v>
+        <v>0.0001691576149130276</v>
       </c>
       <c r="J37" t="n">
-        <v>2.254007365057511e-08</v>
+        <v>3.005343153410014e-08</v>
       </c>
       <c r="K37" t="n">
-        <v>7.175375847542684e-06</v>
+        <v>4.781328124927959e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.680611035658541e-15</v>
+        <v>4.518892181723649e-15</v>
       </c>
       <c r="M37" t="n">
-        <v>1.581618969778481e-12</v>
+        <v>4.854839242589099e-12</v>
       </c>
     </row>
     <row r="38">
@@ -4098,511 +3606,19 @@
         <v>0.02195987845206915</v>
       </c>
       <c r="I38" t="n">
-        <v>8.594134347032516e-05</v>
+        <v>0.0001145884579604335</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02854985137415e-08</v>
+        <v>1.3713998018322e-08</v>
       </c>
       <c r="K38" t="n">
-        <v>4.379363394234668e-06</v>
+        <v>3.130933996419707e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>1.228349092919386e-15</v>
+        <v>1.523745691486376e-15</v>
       </c>
       <c r="M38" t="n">
-        <v>5.080998984126626e-13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.3119617702260059</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.03172174083301747</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.008351337135543962</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.001915862098435445</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0364555132740358</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.04787665768155906</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.01859160812751683</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.821592272399924e-05</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4.693484178815599e-09</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.672865167380515e-06</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.099432076516367e-16</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.632286357839065e-13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.287128311429603</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.02458599960434892</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.006462014838186045</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.001409566120643795</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0317940313558559</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.0389914986850244</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.01569822284936983</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.943436742185966e-05</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.141733203266991e-09</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.631334266815826e-06</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.368124374971498e-16</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.243769507356573e-14</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.263680227823397</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.01901646289757483</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.004998740054984597</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.001036998638628846</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.02764342122247038</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.03165970099125744</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.01322543444412069</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.671182324495024e-05</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9.773168362198773e-10</v>
-      </c>
-      <c r="K41" t="n">
-        <v>9.956547469626335e-07</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.56591125417971e-17</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.684576882862921e-14</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.2416492474417949</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.01468533737140665</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.003865991040604553</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.000762869008471901</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.02397044604177211</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02564368873054394</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.01112112424151318</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.809377472331939e-05</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4.459697390787861e-10</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.076794065534965e-07</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.523804850087497e-17</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.411754407387498e-15</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.2210417419357509</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01132679420399763</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.002989439295607661</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0005611853792118843</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.02073733091743077</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.0207296953940824</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.009336782854386506</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.225611390188947e-05</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.035051487434964e-10</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.708858229782121e-07</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.085471643857761e-18</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.738542542273572e-15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.2018431073826884</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.008728114223450208</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.002311337828830553</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.0004128111196374911</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.01790432088418635</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.01673050518089508</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.007828279886969092</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8.301852600895892e-06</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.286357779779309e-11</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.263632520258222e-07</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.697200388815942e-18</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5.585120727520574e-16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.1840218457046915</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.006720756095427099</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.00178687606188308</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.0003036603495272943</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.01543157098957702</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.01348537987241251</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.006556160078472249</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.623365517049796e-06</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4.237555724857317e-11</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.381565891574036e-07</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.664153418839812e-19</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.794236999238825e-16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1675332664494814</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.005172169472732743</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.00138131406762774</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.0002233668162235562</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.01328047595120595</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.01085836136455452</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.005485621140038916</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.809052649220251e-06</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.933683683816952e-11</v>
-      </c>
-      <c r="K46" t="n">
-        <v>8.43212959410823e-08</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.89032680899499e-19</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5.764040862312199e-17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1523227664876998</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.003978691502243403</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.001067738564909957</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0001643027030317044</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.01141454903836186</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.008735758226742441</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.004586290541516439</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.580103981271206e-06</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8.823795677979924e-12</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.146392879223723e-08</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.308684070808733e-20</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.851715636033565e-17</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1383286746780604</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.00305959443031206</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0008253111345425287</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0001208557850041015</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.009799951539234764</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.007023335704989041</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.003831886394259595</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.747660826706539e-06</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.026479140200668e-12</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.141004794093694e-08</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.105429310735725e-20</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5.948692729002851e-18</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.1254846703740938</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.002352213714094172</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0006379038715564617</v>
-      </c>
-      <c r="E49" t="n">
-        <v>8.889712946141485e-05</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.008405760706268252</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.00564352274736846</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.003199821972213353</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.183796080963588e-06</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.837365104327337e-12</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.917053615096049e-08</v>
-      </c>
-      <c r="L49" t="n">
-        <v>7.026556620605796e-21</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.911035609111755e-18</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1137217997882942</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.001808025712295011</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.0004930386786666392</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6.538923187982142e-05</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.007204048918582024</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.004532810014623606</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.002670793863761007</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.018562354081387e-07</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8.384274223330724e-13</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.170037868250233e-08</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.345008578099731e-21</v>
-      </c>
-      <c r="M50" t="n">
-        <v>6.139259944437044e-19</v>
+        <v>1.626577203984172e-12</v>
       </c>
     </row>
   </sheetData>
@@ -4616,7 +3632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,7 +3673,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -4712,19 +3728,19 @@
         <v>0.03272472903816884</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003628557874335836</v>
+        <v>0.004838077165781115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004894714909588107</v>
+        <v>0.006526286546117475</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01481628950974702</v>
+        <v>0.01758368030740824</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1330012380891998</v>
+        <v>0.1277206362255108</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003732063233284928</v>
+        <v>0.004350210495728315</v>
       </c>
     </row>
     <row r="3">
@@ -4753,19 +3769,19 @@
         <v>0.03319857576597429</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006115059403778348</v>
+        <v>0.008153412538371131</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008019258223875539</v>
+        <v>0.01069234429850072</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02932541723370974</v>
+        <v>0.03326775872282692</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1624440561683351</v>
+        <v>0.1527950557820937</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007630413193247598</v>
+        <v>0.008754226544311922</v>
       </c>
     </row>
     <row r="4">
@@ -4794,19 +3810,19 @@
         <v>0.03365633520855559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01028261768865385</v>
+        <v>0.01371015691820514</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01310286983644423</v>
+        <v>0.01747049311525897</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05770064631232569</v>
+        <v>0.06257720333185127</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2556457396283934</v>
+        <v>0.2545201374423601</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01556536910056299</v>
+        <v>0.0175736587385673</v>
       </c>
     </row>
     <row r="5">
@@ -4835,19 +3851,19 @@
         <v>0.03409683702242104</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0172261000010393</v>
+        <v>0.02296813333471907</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02131475379855104</v>
+        <v>0.02841967173140138</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1122202021224747</v>
+        <v>0.1164320291791726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5091219348570261</v>
+        <v>0.4955661493418175</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03160510011968266</v>
+        <v>0.03510538883945627</v>
       </c>
     </row>
     <row r="6">
@@ -4876,19 +3892,19 @@
         <v>0.034999689766463</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02867863416252449</v>
+        <v>0.03823817888336599</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03442514428417946</v>
+        <v>0.04590019237890594</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2133900572508663</v>
+        <v>0.2122936233883548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6320576132358489</v>
+        <v>0.6018469384617805</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06357277691148785</v>
+        <v>0.06944325427851344</v>
       </c>
     </row>
     <row r="7">
@@ -4917,19 +3933,19 @@
         <v>0.04115702578538913</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04725197618366685</v>
+        <v>0.0630026349115558</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05495917555248079</v>
+        <v>0.07327890073664103</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3888303328547594</v>
+        <v>0.3731103134889957</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5997984834352763</v>
+        <v>0.5645132134376956</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1254845663632575</v>
+        <v>0.1347375992401202</v>
       </c>
     </row>
     <row r="8">
@@ -4958,19 +3974,19 @@
         <v>0.04820813369493215</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07653553309966279</v>
+        <v>0.1020473774662171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08613636560374947</v>
+        <v>0.114848487471666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6265266654041561</v>
+        <v>0.5877084687520161</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5783945053107011</v>
+        <v>0.5629057840928421</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2386752728408719</v>
+        <v>0.2518416526421299</v>
       </c>
     </row>
     <row r="9">
@@ -4999,19 +4015,19 @@
         <v>0.05620846150176149</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1205929898152348</v>
+        <v>0.1607906530869798</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1311592597763961</v>
+        <v>0.1748790130351948</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7776575416748619</v>
+        <v>0.7078474519321423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.328603099609597</v>
+        <v>0.3309310402409434</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4233014419042474</v>
+        <v>0.43922900980694</v>
       </c>
     </row>
     <row r="10">
@@ -5040,19 +4056,19 @@
         <v>0.06518647448123242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1819585308790092</v>
+        <v>0.2426113745053456</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1911601355567599</v>
+        <v>0.2548801807423465</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8668497746868519</v>
+        <v>0.7884237136598341</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1711455867539832</v>
+        <v>0.1606175731103808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6986222711555498</v>
+        <v>0.7225724156589195</v>
       </c>
     </row>
     <row r="11">
@@ -5081,19 +4097,19 @@
         <v>0.07513059385642532</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2281926210070005</v>
+        <v>0.304256828009334</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2614690181687662</v>
+        <v>0.3486253575583548</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7994356779928323</v>
+        <v>0.7609968220098786</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1422374359178834</v>
+        <v>0.1362897013486298</v>
       </c>
       <c r="M11" t="n">
-        <v>1.282653704117396</v>
+        <v>1.286473368896692</v>
       </c>
     </row>
     <row r="12">
@@ -5122,19 +4138,19 @@
         <v>0.08597438440613049</v>
       </c>
       <c r="I12" t="n">
-        <v>0.264097841768187</v>
+        <v>0.3521304556909159</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4283228846016235</v>
+        <v>0.5710971794688313</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6556084375443505</v>
+        <v>0.6600585839847563</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1130232241242576</v>
+        <v>0.1108737286208036</v>
       </c>
       <c r="M12" t="n">
-        <v>1.416865319221984</v>
+        <v>1.418344709692299</v>
       </c>
     </row>
     <row r="13">
@@ -5163,19 +4179,19 @@
         <v>0.09758132649190274</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2852213487852882</v>
+        <v>0.3802951317137176</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5699536370506185</v>
+        <v>0.7599381827341579</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4296115380983189</v>
+        <v>0.5027845087726865</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08665536590538551</v>
+        <v>0.0871513774369447</v>
       </c>
       <c r="M13" t="n">
-        <v>1.130590959635656</v>
+        <v>1.161805184850521</v>
       </c>
     </row>
     <row r="14">
@@ -5204,19 +4220,19 @@
         <v>0.1097314133850049</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2754962422367986</v>
+        <v>0.3673283229823981</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5844361745613649</v>
+        <v>0.7792482327484864</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2383023966654783</v>
+        <v>0.2956183374557889</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06463900064373795</v>
+        <v>0.06667616722718166</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5932429066801854</v>
+        <v>0.6187879577141261</v>
       </c>
     </row>
     <row r="15">
@@ -5245,19 +4261,19 @@
         <v>0.122112730867463</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2450487063896215</v>
+        <v>0.3267316085194953</v>
       </c>
       <c r="J15" t="n">
-        <v>0.544384907015343</v>
+        <v>0.725846542687124</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1260455214479846</v>
+        <v>0.165169589204591</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04723679228211278</v>
+        <v>0.04996476680346228</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3626330491730149</v>
+        <v>0.3858769002268741</v>
       </c>
     </row>
     <row r="16">
@@ -5286,19 +4302,19 @@
         <v>0.1343217976516243</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2043976168615225</v>
+        <v>0.2725301558153633</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3839478375668579</v>
+        <v>0.5119304500891438</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06500414021299085</v>
+        <v>0.08967740622466153</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03400505271206037</v>
+        <v>0.03686393767829002</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1995085038380899</v>
+        <v>0.2166149651350917</v>
       </c>
     </row>
     <row r="17">
@@ -5327,19 +4343,19 @@
         <v>0.1458763488355858</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1450491381341929</v>
+        <v>0.1933988508455905</v>
       </c>
       <c r="J17" t="n">
-        <v>0.243553633245421</v>
+        <v>0.3247381776605613</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03308810378056361</v>
+        <v>0.04793542118383423</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02421619875792725</v>
+        <v>0.02688749831688018</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1035125216018105</v>
+        <v>0.1145506427982277</v>
       </c>
     </row>
     <row r="18">
@@ -5368,19 +4384,19 @@
         <v>0.1562430066313856</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09358697961334836</v>
+        <v>0.1247826394844645</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1749006549985297</v>
+        <v>0.233200873331373</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01673036798818967</v>
+        <v>0.02540970651487639</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01711269740272983</v>
+        <v>0.01944720869001992</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05208591523008255</v>
+        <v>0.05868100721921393</v>
       </c>
     </row>
     <row r="19">
@@ -5409,19 +4425,19 @@
         <v>0.164879700081454</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05838266676147914</v>
+        <v>0.0778435556819722</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1185016801936258</v>
+        <v>0.1580022402581678</v>
       </c>
       <c r="K19" t="n">
-        <v>0.008430881059435437</v>
+        <v>0.01340961924015777</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01202713799210973</v>
+        <v>0.01398068936735707</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02580642466230898</v>
+        <v>0.02957305489131765</v>
       </c>
     </row>
     <row r="20">
@@ -5450,19 +4466,19 @@
         <v>0.1712890465638796</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03566118372250522</v>
+        <v>0.0475482449633403</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07717212481434808</v>
+        <v>0.1028961664191308</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004241322458311428</v>
+        <v>0.007060185820083207</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008420554497041972</v>
+        <v>0.01000701081307795</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01268818381670876</v>
+        <v>0.01478116687498121</v>
       </c>
     </row>
     <row r="21">
@@ -5491,19 +4507,19 @@
         <v>0.1750750954475946</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02150319817169001</v>
+        <v>0.02867093089558669</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04897320160464202</v>
+        <v>0.06529760213952268</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002131855206762709</v>
+        <v>0.003712617068694206</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005879667121323724</v>
+        <v>0.007140406903044611</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006214830952406342</v>
+        <v>0.007357444598352474</v>
       </c>
     </row>
     <row r="22">
@@ -5532,19 +4548,19 @@
         <v>0.1759932285365889</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01286549745355142</v>
+        <v>0.01715399660473522</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0305708949305688</v>
+        <v>0.04076119324075839</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001071092940219337</v>
+        <v>0.001951023332372593</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00409779489536882</v>
+        <v>0.005083618204451218</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003038467770930221</v>
+        <v>0.003654699848675552</v>
       </c>
     </row>
     <row r="23">
@@ -5573,19 +4589,19 @@
         <v>0.1739829256343203</v>
       </c>
       <c r="I23" t="n">
-        <v>0.007661679673464576</v>
+        <v>0.01021557289795277</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01888811534694817</v>
+        <v>0.02518415379593088</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0005380252660771048</v>
+        <v>0.001024935914092148</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002852199538079674</v>
+        <v>0.003613542490247898</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001484179773522545</v>
+        <v>0.00181356217690455</v>
       </c>
     </row>
     <row r="24">
@@ -5614,19 +4630,19 @@
         <v>0.1691760895400582</v>
       </c>
       <c r="I24" t="n">
-        <v>0.004550029705842994</v>
+        <v>0.006066706274457326</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01159591755226488</v>
+        <v>0.01546122340301984</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000270228404699505</v>
+        <v>0.0005383356939949581</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001983418472300616</v>
+        <v>0.002565683478962862</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0007246464688469062</v>
+        <v>0.000899482753389505</v>
       </c>
     </row>
     <row r="25">
@@ -5655,19 +4671,19 @@
         <v>0.1618790121557302</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002697660999569858</v>
+        <v>0.003596881332759812</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007091264547976938</v>
+        <v>0.009455019397302582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001357174287234492</v>
+        <v>0.0002827279772746682</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001378395775945556</v>
+        <v>0.001820223928089461</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0003537300894726335</v>
+        <v>0.0004460093256888349</v>
       </c>
     </row>
     <row r="26">
@@ -5696,19 +4712,19 @@
         <v>0.1525321062374895</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001597847334939183</v>
+        <v>0.002130463113252244</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00432616947615616</v>
+        <v>0.005768225968208212</v>
       </c>
       <c r="K26" t="n">
-        <v>6.81598059321235e-05</v>
+        <v>0.0001484782837039413</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009575081554282986</v>
+        <v>0.001290623405587207</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000172652159700238</v>
+        <v>0.0002211265266074442</v>
       </c>
     </row>
     <row r="27">
@@ -5737,19 +4753,19 @@
         <v>0.1416561730928355</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0009458696669592678</v>
+        <v>0.001261159555945691</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002635418107224586</v>
+        <v>0.003513890809632781</v>
       </c>
       <c r="K27" t="n">
-        <v>3.423064553548144e-05</v>
+        <v>7.797328349035315e-05</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0006649336694968827</v>
+        <v>0.0009147430022407753</v>
       </c>
       <c r="M27" t="n">
-        <v>8.426547356188695e-05</v>
+        <v>0.0001096253213655506</v>
       </c>
     </row>
     <row r="28">
@@ -5778,19 +4794,19 @@
         <v>0.1297958198800978</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000559729495377582</v>
+        <v>0.000746305993836776</v>
       </c>
       <c r="J28" t="n">
-        <v>0.001604018384067601</v>
+        <v>0.002138691178756802</v>
       </c>
       <c r="K28" t="n">
-        <v>1.719090859388405e-05</v>
+        <v>4.09470660871086e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0004616597464686417</v>
+        <v>0.0006481484781694</v>
       </c>
       <c r="M28" t="n">
-        <v>4.112599351599037e-05</v>
+        <v>5.434600119594123e-05</v>
       </c>
     </row>
     <row r="29">
@@ -5819,19 +4835,19 @@
         <v>0.1174694894147442</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0003311592119537988</v>
+        <v>0.0004415456159383984</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0009757399626156246</v>
+        <v>0.001300986616820833</v>
       </c>
       <c r="K29" t="n">
-        <v>8.633384140323316e-06</v>
+        <v>2.15028808413771e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0003204805719406321</v>
+        <v>0.0004591577792896623</v>
       </c>
       <c r="M29" t="n">
-        <v>2.007140680110875e-05</v>
+        <v>2.694124769608746e-05</v>
       </c>
     </row>
     <row r="30">
@@ -5860,19 +4876,19 @@
         <v>0.1295812342924316</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0001959039876074825</v>
+        <v>0.0002612053168099766</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0005933566899668484</v>
+        <v>0.000791142253289131</v>
       </c>
       <c r="K30" t="n">
-        <v>4.335733120288946e-06</v>
+        <v>1.129194814713461e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0002224523439219636</v>
+        <v>0.0003252273561049774</v>
       </c>
       <c r="M30" t="n">
-        <v>9.795725893427459e-06</v>
+        <v>1.335563500837488e-05</v>
       </c>
     </row>
     <row r="31">
@@ -5901,19 +4917,19 @@
         <v>0.1414541435323586</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001158827584290567</v>
+        <v>0.0001545103445720756</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0003607535651865846</v>
+        <v>0.0004810047535821127</v>
       </c>
       <c r="K31" t="n">
-        <v>2.177427173909858e-06</v>
+        <v>5.929802722149307e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0001543979155366949</v>
+        <v>0.000230339303075796</v>
       </c>
       <c r="M31" t="n">
-        <v>4.780729443382238e-06</v>
+        <v>6.620789131286261e-06</v>
       </c>
     </row>
     <row r="32">
@@ -5942,19 +4958,19 @@
         <v>0.1523521235375994</v>
       </c>
       <c r="I32" t="n">
-        <v>6.854505068446264e-05</v>
+        <v>9.139340091261686e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0002193070267813564</v>
+        <v>0.0002924093690418085</v>
       </c>
       <c r="K32" t="n">
-        <v>1.093514494837804e-06</v>
+        <v>3.113946630680356e-06</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0001071579704024839</v>
+        <v>0.0001631239634285663</v>
       </c>
       <c r="M32" t="n">
-        <v>2.333195280711874e-06</v>
+        <v>3.282117809551309e-06</v>
       </c>
     </row>
     <row r="33">
@@ -5983,19 +4999,19 @@
         <v>0.1617306265981348</v>
       </c>
       <c r="I33" t="n">
-        <v>4.054362460126295e-05</v>
+        <v>5.405816613501727e-05</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0001333098745351564</v>
+        <v>0.0001777464993802085</v>
       </c>
       <c r="K33" t="n">
-        <v>5.491681653803251e-07</v>
+        <v>1.635241305058324e-06</v>
       </c>
       <c r="L33" t="n">
-        <v>7.436912528274377e-05</v>
+        <v>0.0001155168508505868</v>
       </c>
       <c r="M33" t="n">
-        <v>1.138695777407343e-06</v>
+        <v>1.627039799906823e-06</v>
       </c>
     </row>
     <row r="34">
@@ -6024,19 +5040,19 @@
         <v>0.1690679494101487</v>
       </c>
       <c r="I34" t="n">
-        <v>2.398074382489581e-05</v>
+        <v>3.197432509986108e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>8.103125283393742e-05</v>
+        <v>0.0001080416704452499</v>
       </c>
       <c r="K34" t="n">
-        <v>2.757948265367537e-07</v>
+        <v>8.587216413061678e-07</v>
       </c>
       <c r="L34" t="n">
-        <v>5.161198466689117e-05</v>
+        <v>8.180074102289337e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>5.557304370930263e-07</v>
+        <v>8.065698609749874e-07</v>
       </c>
     </row>
     <row r="35">
@@ -6065,19 +5081,19 @@
         <v>0.1739217739314455</v>
       </c>
       <c r="I35" t="n">
-        <v>1.418400731111584e-05</v>
+        <v>1.891200974815445e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>4.925279842800306e-05</v>
+        <v>6.567039790400408e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>1.385054467882587e-07</v>
+        <v>4.509443005808033e-07</v>
       </c>
       <c r="L35" t="n">
-        <v>3.581799669788091e-05</v>
+        <v>5.792393161774177e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>2.712192963701789e-07</v>
+        <v>3.998395084480819e-07</v>
       </c>
     </row>
     <row r="36">
@@ -6106,19 +5122,19 @@
         <v>0.1759830424637729</v>
       </c>
       <c r="I36" t="n">
-        <v>8.389440664579759e-06</v>
+        <v>1.118592088610635e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>2.993657072157098e-05</v>
+        <v>3.991542762876131e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>6.955807871491808e-08</v>
+        <v>2.368063600822433e-07</v>
       </c>
       <c r="L36" t="n">
-        <v>2.485690543163716e-05</v>
+        <v>4.10157790041045e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>1.323661542789771e-07</v>
+        <v>1.982117388287631e-07</v>
       </c>
     </row>
     <row r="37">
@@ -6147,19 +5163,19 @@
         <v>0.1751165490029279</v>
       </c>
       <c r="I37" t="n">
-        <v>4.962102652191281e-06</v>
+        <v>6.616136869588374e-06</v>
       </c>
       <c r="J37" t="n">
-        <v>1.819570137827412e-05</v>
+        <v>2.426093517103216e-05</v>
       </c>
       <c r="K37" t="n">
-        <v>3.493238972717515e-08</v>
+        <v>1.243551582369776e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>1.725001125260972e-05</v>
+        <v>2.904278966894773e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>6.460011636882685e-08</v>
+        <v>9.825915248636866e-08</v>
       </c>
     </row>
     <row r="38">
@@ -6188,511 +5204,19 @@
         <v>0.1713794173581693</v>
       </c>
       <c r="I38" t="n">
-        <v>2.93492967634278e-06</v>
+        <v>3.913239568457041e-06</v>
       </c>
       <c r="J38" t="n">
-        <v>1.105943358146459e-05</v>
+        <v>1.474591144195278e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>1.754320800670447e-08</v>
+        <v>6.530316600751454e-08</v>
       </c>
       <c r="L38" t="n">
-        <v>1.197096922841568e-05</v>
+        <v>2.056467038312246e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>3.152750774698773e-08</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1198953088438991</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.1324997238393257</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.06435742684809065</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.04333989631723634</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.1641890578912547</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.1363796109364824</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.1650132419873702</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.735917942600985e-06</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6.721951085566059e-06</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8.810280329510136e-09</v>
-      </c>
-      <c r="L39" t="n">
-        <v>8.307447147254494e-06</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.538671741263985e-08</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1037319650214189</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.1182234754038719</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.05488816170349555</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.03636467381058245</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1544367349088298</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.1263653110974371</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.1564117029140763</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.026739832519158e-06</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4.085609227671899e-06</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.4245635870463e-09</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.765071633748603e-06</v>
-      </c>
-      <c r="M40" t="n">
-        <v>7.509349408460352e-09</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.08963981534054044</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1049596559312415</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.04674737763018383</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.03048468820700037</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1437561048431298</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.1165276211505528</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.1460708824166186</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.072834808931043e-07</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.483234336742562e-06</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.222036324173522e-09</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.000746462952065e-06</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.664870608836772e-09</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.07738167757416038</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.09277141879623188</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.03976706621709051</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.02553624656544538</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1325207380681227</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.1069828165353887</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.1345325490709472</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.591885044067051e-07</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.509309202066156e-06</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.115916932053178e-09</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.776366512099374e-06</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.78860721938226e-09</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.06673994572333665</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.08167754170385827</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.03379512487199452</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.02137758516960599</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.121074363207544</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.09782279808355274</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.1223306409621702</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.124483357990307e-07</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9.173572841631056e-07</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5.60418650863195e-10</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1.926691493903939e-06</v>
-      </c>
-      <c r="M43" t="n">
-        <v>8.729137055497084e-10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.05751718602644663</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.07166239058662539</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.02869552622992955</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01788673510591214</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.1097151446208273</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.08911637622417752</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.1099486083961983</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.256562817264901e-07</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.575690687623613e-07</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.814448416173057e-10</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.33704891407376e-06</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.260177018637636e-10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.04953588181334492</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0626850340509662</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.02434780659357528</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.01495931710002736</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.09868697134924173</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.08091133901414156</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.09779147261426187</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.432160086188582e-08</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.388899977232182e-07</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.413429027504375e-10</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9.278595153589175e-07</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.079141169675315e-10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.04263760691841658</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.05468713083066151</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0206461294735055</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.01250639385907328</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.08817696671987145</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.07323699636084148</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.08617279558022817</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.395880675234107e-08</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.059770239349605e-07</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.098306027763076e-11</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.438979279200979e-07</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.014706192784738e-10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.03668184052099373</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.0475994481302867</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.01749811100862868</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.01045245648329492</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.07831784794055902</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.06610694040342718</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.07531415044225669</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.600020233473994e-08</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.251926339664873e-07</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.564802157206238e-11</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.468396880298598e-07</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4.952182529314869e-11</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.03154458119229429</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.04134703044578755</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0148235391427804</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.008733585660615143</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.06919357488506962</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.05952181820748722</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.06535342131044257</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.537827263772084e-08</v>
-      </c>
-      <c r="J48" t="n">
-        <v>7.609195743218004e-08</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.790260150834247e-11</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.100890213600461e-07</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.416868249910436e-11</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.02711687388485529</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03585313699263537</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.01255307631580216</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.00729580428605384</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.06084682705654307</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.05347196919986114</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.05635814794509106</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.095747215926719e-09</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.624861426531519e-08</v>
-      </c>
-      <c r="K49" t="n">
-        <v>8.990769378812535e-12</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.151894610704538e-07</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.179530863978704e-11</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.0233033292741522</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03104211584937034</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.01062700401108408</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.006093622606409204</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.05454290472843384</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.04793983056986606</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.04834074377300535</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.379838106128368e-09</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.810986023041224e-08</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.515206015459747e-12</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.493329263076327e-07</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5.756594548027257e-12</v>
+        <v>4.870983342841127e-08</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +5230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6747,7 +5271,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -6802,19 +5326,19 @@
         <v>0.1516567779690224</v>
       </c>
       <c r="I2" t="n">
-        <v>5.202333069973369</v>
+        <v>6.936444093297824</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001470168841929107</v>
+        <v>0.001960225122572143</v>
       </c>
       <c r="K2" t="n">
-        <v>7.570204329195163</v>
+        <v>7.539617207689653</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07409062368397347</v>
+        <v>0.07458808396181245</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000530859542719956</v>
+        <v>0.000732412127009931</v>
       </c>
     </row>
     <row r="3">
@@ -6843,19 +5367,19 @@
         <v>0.1685677504320967</v>
       </c>
       <c r="I3" t="n">
-        <v>5.192183201011706</v>
+        <v>6.922910934682274</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002790357779747275</v>
+        <v>0.003720477039663033</v>
       </c>
       <c r="K3" t="n">
-        <v>7.5227127571855</v>
+        <v>7.47714605655284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1488000288905947</v>
+        <v>0.147383976717571</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001340467102941722</v>
+        <v>0.001796778742537915</v>
       </c>
     </row>
     <row r="4">
@@ -6884,19 +5408,19 @@
         <v>0.1872490874088443</v>
       </c>
       <c r="I4" t="n">
-        <v>5.176287477902326</v>
+        <v>6.901716637203101</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005293951068138733</v>
+        <v>0.007058601424184977</v>
       </c>
       <c r="K4" t="n">
-        <v>7.438513538410422</v>
+        <v>7.372967849755816</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2890816342289438</v>
+        <v>0.2817435373323971</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003383945776165179</v>
+        <v>0.004406604521313042</v>
       </c>
     </row>
     <row r="5">
@@ -6925,19 +5449,19 @@
         <v>0.2078594021663276</v>
       </c>
       <c r="I5" t="n">
-        <v>5.151517303265097</v>
+        <v>6.868689737686794</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01003627922677099</v>
+        <v>0.01338170563569465</v>
       </c>
       <c r="K5" t="n">
-        <v>7.291389532241435</v>
+        <v>7.20185227192705</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5291598897429542</v>
+        <v>0.5080546892093486</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008537188773082339</v>
+        <v>0.01079930822106122</v>
       </c>
     </row>
     <row r="6">
@@ -6966,19 +5490,19 @@
         <v>0.2305653967930645</v>
       </c>
       <c r="I6" t="n">
-        <v>5.113217249364552</v>
+        <v>6.817622999152735</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01899968516372479</v>
+        <v>0.02533291355163305</v>
       </c>
       <c r="K6" t="n">
-        <v>7.040731245781036</v>
+        <v>6.927670391692344</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8814469649906975</v>
+        <v>0.8362909738268464</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02150362978551081</v>
+        <v>0.0264186602180378</v>
       </c>
     </row>
     <row r="7">
@@ -7007,19 +5531,19 @@
         <v>0.2555408054725407</v>
       </c>
       <c r="I7" t="n">
-        <v>5.054703637671973</v>
+        <v>6.739604850229297</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0358717235175491</v>
+        <v>0.04782896469006546</v>
       </c>
       <c r="K7" t="n">
-        <v>6.631525298135251</v>
+        <v>6.505324903103986</v>
       </c>
       <c r="L7" t="n">
-        <v>1.296988044014592</v>
+        <v>1.222083994615706</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05394681784836161</v>
+        <v>0.06434769559100743</v>
       </c>
     </row>
     <row r="8">
@@ -7048,19 +5572,19 @@
         <v>0.2829649162067326</v>
       </c>
       <c r="I8" t="n">
-        <v>4.966927695686732</v>
+        <v>6.622570260915642</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06738579102817287</v>
+        <v>0.08984772137089715</v>
       </c>
       <c r="K8" t="n">
-        <v>6.007886915874492</v>
+        <v>5.892694053593015</v>
       </c>
       <c r="L8" t="n">
-        <v>1.677590892087243</v>
+        <v>1.577718257005246</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1339953006191549</v>
+        <v>0.1550933860555758</v>
       </c>
     </row>
     <row r="9">
@@ -7089,19 +5613,19 @@
         <v>0.3130206067551059</v>
       </c>
       <c r="I9" t="n">
-        <v>4.83880126348091</v>
+        <v>6.451735017974547</v>
       </c>
       <c r="J9" t="n">
-        <v>0.125407547757104</v>
+        <v>0.1672100636761387</v>
       </c>
       <c r="K9" t="n">
-        <v>5.150481240395054</v>
+        <v>5.077300838945035</v>
       </c>
       <c r="L9" t="n">
-        <v>1.953464224482632</v>
+        <v>1.839247249292606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3248703226880634</v>
+        <v>0.3646949101066467</v>
       </c>
     </row>
     <row r="10">
@@ -7130,19 +5654,19 @@
         <v>0.3458918336541087</v>
       </c>
       <c r="I10" t="n">
-        <v>4.659036970422159</v>
+        <v>6.212049293896211</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2294565777002768</v>
+        <v>0.3059421036003691</v>
       </c>
       <c r="K10" t="n">
-        <v>4.124703833380282</v>
+        <v>4.107946958592922</v>
       </c>
       <c r="L10" t="n">
-        <v>2.121345922302137</v>
+        <v>2.001350096227184</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7451869297109611</v>
+        <v>0.811828222102748</v>
       </c>
     </row>
     <row r="11">
@@ -7171,19 +5695,19 @@
         <v>0.3817605213294316</v>
       </c>
       <c r="I11" t="n">
-        <v>4.420351342900192</v>
+        <v>5.893801790533589</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4075225866898607</v>
+        <v>0.5433634489198143</v>
       </c>
       <c r="K11" t="n">
-        <v>3.083343408250386</v>
+        <v>3.098987691695338</v>
       </c>
       <c r="L11" t="n">
-        <v>2.212867060507913</v>
+        <v>2.091417674890456</v>
       </c>
       <c r="M11" t="n">
-        <v>1.52793932862367</v>
+        <v>1.622569763837895</v>
       </c>
     </row>
     <row r="12">
@@ -7212,19 +5736,19 @@
         <v>0.4208028128780218</v>
       </c>
       <c r="I12" t="n">
-        <v>4.125611704650836</v>
+        <v>5.500815606201114</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6891876479839322</v>
+        <v>0.9189168639785762</v>
       </c>
       <c r="K12" t="n">
-        <v>2.18832458384363</v>
+        <v>2.184162554798488</v>
       </c>
       <c r="L12" t="n">
-        <v>2.259785695873643</v>
+        <v>2.138441724536833</v>
       </c>
       <c r="M12" t="n">
-        <v>2.615981096995917</v>
+        <v>2.736186290175676</v>
       </c>
     </row>
     <row r="13">
@@ -7253,19 +5777,19 @@
         <v>0.4631846663938666</v>
       </c>
       <c r="I13" t="n">
-        <v>3.792599394114453</v>
+        <v>5.056799192152603</v>
       </c>
       <c r="J13" t="n">
-        <v>1.083621082665427</v>
+        <v>1.444828110220569</v>
       </c>
       <c r="K13" t="n">
-        <v>1.522729066954909</v>
+        <v>1.452804845650707</v>
       </c>
       <c r="L13" t="n">
-        <v>2.283081605927161</v>
+        <v>2.162196537058602</v>
       </c>
       <c r="M13" t="n">
-        <v>3.64323707958635</v>
+        <v>3.7987151694498</v>
       </c>
     </row>
     <row r="14">
@@ -7294,19 +5818,19 @@
         <v>0.5090568118040794</v>
       </c>
       <c r="I14" t="n">
-        <v>3.452094873713878</v>
+        <v>4.602793164951837</v>
       </c>
       <c r="J14" t="n">
-        <v>1.551144662575838</v>
+        <v>2.068192883434451</v>
       </c>
       <c r="K14" t="n">
-        <v>1.079119814388211</v>
+        <v>0.9247542412764709</v>
       </c>
       <c r="L14" t="n">
-        <v>2.294464744222519</v>
+        <v>2.173996761477989</v>
       </c>
       <c r="M14" t="n">
-        <v>4.314012727838922</v>
+        <v>4.512923234018645</v>
       </c>
     </row>
     <row r="15">
@@ -7335,19 +5859,19 @@
         <v>0.5585491236184492</v>
       </c>
       <c r="I15" t="n">
-        <v>3.137683009551593</v>
+        <v>4.18357734606879</v>
       </c>
       <c r="J15" t="n">
-        <v>2.007219241759171</v>
+        <v>2.676292322345561</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8046454354137356</v>
+        <v>0.5708958613429046</v>
       </c>
       <c r="L15" t="n">
-        <v>2.299983402169651</v>
+        <v>2.179809634735202</v>
       </c>
       <c r="M15" t="n">
-        <v>4.653245337168821</v>
+        <v>4.887411905360474</v>
       </c>
     </row>
     <row r="16">
@@ -7376,19 +5900,19 @@
         <v>0.6117645144925913</v>
       </c>
       <c r="I16" t="n">
-        <v>2.873547482888056</v>
+        <v>3.831396643850741</v>
       </c>
       <c r="J16" t="n">
-        <v>2.374973101224436</v>
+        <v>3.166630801632581</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6425602141924299</v>
+        <v>0.3454655770491606</v>
       </c>
       <c r="L16" t="n">
-        <v>2.302648713673894</v>
+        <v>2.182661279947155</v>
       </c>
       <c r="M16" t="n">
-        <v>4.802786672888337</v>
+        <v>5.058481418973509</v>
       </c>
     </row>
     <row r="17">
@@ -7417,19 +5941,19 @@
         <v>0.6687725116037505</v>
       </c>
       <c r="I17" t="n">
-        <v>2.668707205115718</v>
+        <v>3.558276273487623</v>
       </c>
       <c r="J17" t="n">
-        <v>2.628604266367642</v>
+        <v>3.504805688490189</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5494693215487443</v>
+        <v>0.2064478746972285</v>
       </c>
       <c r="L17" t="n">
-        <v>2.303933590292864</v>
+        <v>2.184057385181816</v>
       </c>
       <c r="M17" t="n">
-        <v>4.86468975039631</v>
+        <v>5.131683814114278</v>
       </c>
     </row>
     <row r="18">
@@ -7458,19 +5982,19 @@
         <v>0.7296027395936465</v>
       </c>
       <c r="I18" t="n">
-        <v>2.519487980763382</v>
+        <v>3.359317307684509</v>
       </c>
       <c r="J18" t="n">
-        <v>2.785251725261135</v>
+        <v>3.713668967014846</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4968562962735841</v>
+        <v>0.1224316279200861</v>
       </c>
       <c r="L18" t="n">
-        <v>2.304552444762211</v>
+        <v>2.184740209216697</v>
       </c>
       <c r="M18" t="n">
-        <v>4.889644199673388</v>
+        <v>5.162128088812764</v>
       </c>
     </row>
     <row r="19">
@@ -7499,19 +6023,19 @@
         <v>0.7942385956084613</v>
       </c>
       <c r="I19" t="n">
-        <v>2.415670969695582</v>
+        <v>3.220894626260776</v>
       </c>
       <c r="J19" t="n">
-        <v>2.875497337653781</v>
+        <v>3.833996450205041</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4673902449732339</v>
+        <v>0.07227384400334709</v>
       </c>
       <c r="L19" t="n">
-        <v>2.304850385241585</v>
+        <v>2.185074010569562</v>
       </c>
       <c r="M19" t="n">
-        <v>4.899596074563502</v>
+        <v>5.174639247818685</v>
       </c>
     </row>
     <row r="20">
@@ -7540,19 +6064,19 @@
         <v>0.8626114574390719</v>
       </c>
       <c r="I20" t="n">
-        <v>2.345731089866153</v>
+        <v>3.12764145315487</v>
       </c>
       <c r="J20" t="n">
-        <v>2.925416154160521</v>
+        <v>3.900554872214028</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4509718837507567</v>
+        <v>0.04254824184416686</v>
       </c>
       <c r="L20" t="n">
-        <v>2.304993795716794</v>
+        <v>2.18523715191992</v>
       </c>
       <c r="M20" t="n">
-        <v>4.903547828119645</v>
+        <v>5.179755474148301</v>
       </c>
     </row>
     <row r="21">
@@ -7581,19 +6105,19 @@
         <v>0.9345958072352246</v>
       </c>
       <c r="I21" t="n">
-        <v>2.299630250479575</v>
+        <v>3.0661736673061</v>
       </c>
       <c r="J21" t="n">
-        <v>2.952408632263132</v>
+        <v>3.936544843017509</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4418496992695971</v>
+        <v>0.02500806607616199</v>
       </c>
       <c r="L21" t="n">
-        <v>2.305062817964624</v>
+        <v>2.185316875998273</v>
       </c>
       <c r="M21" t="n">
-        <v>4.905114328472172</v>
+        <v>5.181843451010908</v>
       </c>
     </row>
     <row r="22">
@@ -7622,19 +6146,19 @@
         <v>1.010005672352197</v>
       </c>
       <c r="I22" t="n">
-        <v>2.269678245796546</v>
+        <v>3.026237661062062</v>
       </c>
       <c r="J22" t="n">
-        <v>2.966825205523058</v>
+        <v>3.95576694069741</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4367893655434991</v>
+        <v>0.01468469444021232</v>
       </c>
       <c r="L22" t="n">
-        <v>2.305096036200123</v>
+        <v>2.185355833426566</v>
       </c>
       <c r="M22" t="n">
-        <v>4.905734877276058</v>
+        <v>5.182694870893471</v>
       </c>
     </row>
     <row r="23">
@@ -7663,19 +6187,19 @@
         <v>1.088592773612004</v>
       </c>
       <c r="I23" t="n">
-        <v>2.250400287159398</v>
+        <v>3.00053371621253</v>
       </c>
       <c r="J23" t="n">
-        <v>2.974474313302157</v>
+        <v>3.965965751069542</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4339847245899589</v>
+        <v>0.008617998786718347</v>
       </c>
       <c r="L23" t="n">
-        <v>2.305112022723534</v>
+        <v>2.185374869571012</v>
       </c>
       <c r="M23" t="n">
-        <v>4.905980633443595</v>
+        <v>5.183041939990335</v>
       </c>
     </row>
     <row r="24">
@@ -7704,19 +6228,19 @@
         <v>1.170046723466636</v>
       </c>
       <c r="I24" t="n">
-        <v>2.238067405549297</v>
+        <v>2.98408987406573</v>
       </c>
       <c r="J24" t="n">
-        <v>2.97851852710329</v>
+        <v>3.97135803613772</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4324310376566401</v>
+        <v>0.00505597633451777</v>
       </c>
       <c r="L24" t="n">
-        <v>2.30511971627188</v>
+        <v>2.185384171259899</v>
       </c>
       <c r="M24" t="n">
-        <v>4.906077949966663</v>
+        <v>5.183183398345576</v>
       </c>
     </row>
     <row r="25">
@@ -7745,19 +6269,19 @@
         <v>1.253997529436429</v>
       </c>
       <c r="I25" t="n">
-        <v>2.230208126937875</v>
+        <v>2.973610835917166</v>
       </c>
       <c r="J25" t="n">
-        <v>2.980652801504385</v>
+        <v>3.97420373533918</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4315705743150446</v>
+        <v>0.002965649003160957</v>
       </c>
       <c r="L25" t="n">
-        <v>2.305123418788631</v>
+        <v>2.185388716342159</v>
       </c>
       <c r="M25" t="n">
-        <v>4.906116484526066</v>
+        <v>5.183241050695093</v>
       </c>
     </row>
     <row r="26">
@@ -7786,19 +6310,19 @@
         <v>1.340020533674216</v>
       </c>
       <c r="I26" t="n">
-        <v>2.225212085725126</v>
+        <v>2.966949447633501</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98177802875311</v>
+        <v>3.97570403833748</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4310941035929237</v>
+        <v>0.001739343046506423</v>
       </c>
       <c r="L26" t="n">
-        <v>2.305125200618617</v>
+        <v>2.185390937197541</v>
       </c>
       <c r="M26" t="n">
-        <v>4.906131742854097</v>
+        <v>5.183264546781652</v>
       </c>
     </row>
     <row r="27">
@@ -7827,19 +6351,19 @@
         <v>1.427643765015814</v>
       </c>
       <c r="I27" t="n">
-        <v>2.22204116197628</v>
+        <v>2.962721549301707</v>
       </c>
       <c r="J27" t="n">
-        <v>2.982370961576855</v>
+        <v>3.976494615435807</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4308302858107027</v>
+        <v>0.0010200509589071</v>
       </c>
       <c r="L27" t="n">
-        <v>2.305126058120254</v>
+        <v>2.185392022368398</v>
       </c>
       <c r="M27" t="n">
-        <v>4.906137784574463</v>
+        <v>5.183274122470544</v>
       </c>
     </row>
     <row r="28">
@@ -7868,19 +6392,19 @@
         <v>1.516357508324084</v>
       </c>
       <c r="I28" t="n">
-        <v>2.220030627032822</v>
+        <v>2.960040836043763</v>
       </c>
       <c r="J28" t="n">
-        <v>2.982683319343268</v>
+        <v>3.97691109245769</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4306842188553593</v>
+        <v>0.0005981933172068385</v>
       </c>
       <c r="L28" t="n">
-        <v>2.305126470790726</v>
+        <v>2.185392552612237</v>
       </c>
       <c r="M28" t="n">
-        <v>4.906140176860774</v>
+        <v>5.183278024970261</v>
       </c>
     </row>
     <row r="29">
@@ -7909,19 +6433,19 @@
         <v>1.605625724536919</v>
       </c>
       <c r="I29" t="n">
-        <v>2.218756648092861</v>
+        <v>2.958342197457148</v>
       </c>
       <c r="J29" t="n">
-        <v>2.982847846172487</v>
+        <v>3.977130461563316</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4306033485930733</v>
+        <v>0.0003507933192440532</v>
       </c>
       <c r="L29" t="n">
-        <v>2.30512666938728</v>
+        <v>2.185392811703622</v>
       </c>
       <c r="M29" t="n">
-        <v>4.906141124112136</v>
+        <v>5.183279615402109</v>
       </c>
     </row>
     <row r="30">
@@ -7950,19 +6474,19 @@
         <v>1.694898802927175</v>
       </c>
       <c r="I30" t="n">
-        <v>2.217949713250115</v>
+        <v>2.957266284333487</v>
       </c>
       <c r="J30" t="n">
-        <v>2.982934500105773</v>
+        <v>3.97724600014103</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4305585752404114</v>
+        <v>0.0002057099251728877</v>
       </c>
       <c r="L30" t="n">
-        <v>2.305126764961324</v>
+        <v>2.18539293830261</v>
       </c>
       <c r="M30" t="n">
-        <v>4.906141499186294</v>
+        <v>5.183280263569197</v>
       </c>
     </row>
     <row r="31">
@@ -7991,19 +6515,19 @@
         <v>1.783627013199512</v>
       </c>
       <c r="I31" t="n">
-        <v>2.217438732884188</v>
+        <v>2.956584977178918</v>
       </c>
       <c r="J31" t="n">
-        <v>2.982980137676816</v>
+        <v>3.977306850235755</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4305337869259441</v>
+        <v>0.000120630120902259</v>
       </c>
       <c r="L31" t="n">
-        <v>2.305126810956066</v>
+        <v>2.185393000162261</v>
       </c>
       <c r="M31" t="n">
-        <v>4.906141647700835</v>
+        <v>5.18328052772416</v>
       </c>
     </row>
     <row r="32">
@@ -8032,19 +6556,19 @@
         <v>1.871273963791733</v>
       </c>
       <c r="I32" t="n">
-        <v>2.21711521373061</v>
+        <v>2.95615361830748</v>
       </c>
       <c r="J32" t="n">
-        <v>2.983004172871625</v>
+        <v>3.977338897162167</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4305200631852021</v>
+        <v>7.07382443776369e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>2.305126833090906</v>
+        <v>2.185393030388538</v>
       </c>
       <c r="M32" t="n">
-        <v>4.906141706506719</v>
+        <v>5.183280635378249</v>
       </c>
     </row>
     <row r="33">
@@ -8073,19 +6597,19 @@
         <v>1.957329372200782</v>
       </c>
       <c r="I33" t="n">
-        <v>2.216910403575258</v>
+        <v>2.955880538100343</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98301683095551</v>
+        <v>3.977355774607346</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4305124652256678</v>
+        <v>4.148122912600752e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>2.305126843743236</v>
+        <v>2.185393045157905</v>
       </c>
       <c r="M33" t="n">
-        <v>4.906141729791522</v>
+        <v>5.183280679251746</v>
       </c>
     </row>
     <row r="34">
@@ -8114,19 +6638,19 @@
         <v>2.041320513389233</v>
       </c>
       <c r="I34" t="n">
-        <v>2.21678075285501</v>
+        <v>2.955707670473346</v>
       </c>
       <c r="J34" t="n">
-        <v>2.983023497269469</v>
+        <v>3.977364663025959</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4305082587258616</v>
+        <v>2.432474336961691e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>2.30512684886964</v>
+        <v>2.185393052374611</v>
       </c>
       <c r="M34" t="n">
-        <v>4.906141739011384</v>
+        <v>5.183280697132013</v>
       </c>
     </row>
     <row r="35">
@@ -8155,19 +6679,19 @@
         <v>2.122821825394441</v>
       </c>
       <c r="I35" t="n">
-        <v>2.21669868357403</v>
+        <v>2.955598244765373</v>
       </c>
       <c r="J35" t="n">
-        <v>2.983027008038235</v>
+        <v>3.97736934405098</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4305059298601196</v>
+        <v>1.426410456465312e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>2.305126851336707</v>
+        <v>2.185393055900887</v>
       </c>
       <c r="M35" t="n">
-        <v>4.906141742662084</v>
+        <v>5.183280704418962</v>
       </c>
     </row>
     <row r="36">
@@ -8196,19 +6720,19 @@
         <v>2.201462302648282</v>
       </c>
       <c r="I36" t="n">
-        <v>2.216646734825916</v>
+        <v>2.955528979767887</v>
       </c>
       <c r="J36" t="n">
-        <v>2.983028856957667</v>
+        <v>3.97737180927689</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4305046405189341</v>
+        <v>8.364510366221481e-06</v>
       </c>
       <c r="L36" t="n">
-        <v>2.305126852523976</v>
+        <v>2.185393057623919</v>
       </c>
       <c r="M36" t="n">
-        <v>4.906141744107617</v>
+        <v>5.183280707388696</v>
       </c>
     </row>
     <row r="37">
@@ -8237,19 +6761,19 @@
         <v>2.276930478738342</v>
       </c>
       <c r="I37" t="n">
-        <v>2.216613852507474</v>
+        <v>2.955485136676632</v>
       </c>
       <c r="J37" t="n">
-        <v>2.983029830676071</v>
+        <v>3.977373107568095</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4305039266949082</v>
+        <v>4.904970443452586e-06</v>
       </c>
       <c r="L37" t="n">
-        <v>2.305126853095346</v>
+        <v>2.185393058465839</v>
       </c>
       <c r="M37" t="n">
-        <v>4.90614174467999</v>
+        <v>5.183280708598985</v>
       </c>
     </row>
     <row r="38">
@@ -8278,511 +6802,19 @@
         <v>2.34897697205098</v>
       </c>
       <c r="I38" t="n">
-        <v>2.216593039000007</v>
+        <v>2.955457385333342</v>
       </c>
       <c r="J38" t="n">
-        <v>2.983030343476732</v>
+        <v>3.97737379130231</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4305035314972038</v>
+        <v>2.876286774244713e-06</v>
       </c>
       <c r="L38" t="n">
-        <v>2.305126853370317</v>
+        <v>2.185393058877223</v>
       </c>
       <c r="M38" t="n">
-        <v>4.906141744906628</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.249341709194106</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.381443239494151</v>
-      </c>
-      <c r="D39" t="n">
-        <v>12.65643227904384</v>
-      </c>
-      <c r="E39" t="n">
-        <v>13.96185769108763</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.990891807818581</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5.555119947278205</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.417414722654072</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.216579864769267</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.983030613538851</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.4305033127020819</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.305126853502645</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.906141744996368</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2.05029456990184</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.450965551389199</v>
-      </c>
-      <c r="D40" t="n">
-        <v>12.67925221784554</v>
-      </c>
-      <c r="E40" t="n">
-        <v>13.97099960924159</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3.069297256980756</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5.64613323077103</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2.482117173908816</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.216571525971256</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.983030755764757</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.4305031915695373</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.305126853566328</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.9061417450319</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.872991605657678</v>
-      </c>
-      <c r="C41" t="n">
-        <v>6.508518053693372</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12.69775451482747</v>
-      </c>
-      <c r="E41" t="n">
-        <v>13.97817019537519</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3.143309967722036</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5.725009839478106</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.543014740105467</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.216566247836172</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.983030830666811</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.4305031245063736</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.305126853596975</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4.906141745045971</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.715328641722657</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6.555991930729474</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12.71274676939877</v>
-      </c>
-      <c r="E42" t="n">
-        <v>13.98379312150283</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.21289854021994</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5.793065808248007</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.600089949893004</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.216562906987339</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.983030870113333</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.4305030873778887</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.305126853611724</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4.906141745051542</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1.575344247094987</v>
-      </c>
-      <c r="C43" t="n">
-        <v>6.595037038664225</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.72488875072931</v>
-      </c>
-      <c r="E43" t="n">
-        <v>13.98820155350461</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.278083022964474</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5.851561299490719</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2.653371667146979</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.216560792365605</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.983030890887505</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.4305030668222765</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.305126853618821</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4.906141745053747</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.451224699967024</v>
-      </c>
-      <c r="C44" t="n">
-        <v>6.627072185620088</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.73471833280858</v>
-      </c>
-      <c r="E44" t="n">
-        <v>13.99165727333949</v>
-      </c>
-      <c r="F44" t="n">
-        <v>3.338928441240012</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.901674231594371</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2.702928772303962</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.216559453896753</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.983030901828043</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.4305030554419793</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.305126853622237</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.906141745054621</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.34130434582873</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6.653303716245036</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.74267327728104</v>
-      </c>
-      <c r="E45" t="n">
-        <v>13.99436584343142</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3.395538041712517</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5.944484991864309</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2.748863646041675</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.216558606701209</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.983030907589783</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4305030491414535</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.305126853623882</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4.906141745054967</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.244062501090802</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.674748102152011</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.74910938347678</v>
-      </c>
-      <c r="E46" t="n">
-        <v>13.99648860015953</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3.448046546943047</v>
-      </c>
-      <c r="G46" t="n">
-        <v>5.980969622553294</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.791305741887698</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.216558070461538</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.983030910624154</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.4305030456532648</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.305126853624672</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4.906141745055104</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.15811786917616</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.692255660840927</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.75431551763151</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13.99815211976189</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.496613656944282</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.011999158538972</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.830405472615543</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.216557731044105</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.983030912222179</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.430503043722083</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.305126853625053</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4.906141745055158</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.082221259852849</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.70653360296911</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.75852599711941</v>
-      </c>
-      <c r="E48" t="n">
-        <v>13.99945567725116</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.541417976492197</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.038343183376346</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2.866328573485984</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.216557516206994</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.983030913063766</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.430503042652914</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.305126853625236</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4.906141745055179</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.015247243338505</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.718167379450533</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.76193075574399</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14.000477116467</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.582651491368527</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.060676074019547</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.899251048180302</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.216557380224053</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.98303091350698</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4305030420609852</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.305126853625325</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4.906141745055188</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.9561852317852015</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.727639825608133</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.76468366203013</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14.00127746518019</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3.620514667160133</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.079584775979544</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2.929354753624648</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.216557294152519</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.983030913740395</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.4305030417332729</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.305126853625367</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4.906141745055192</v>
+        <v>5.183280709092228</v>
       </c>
     </row>
   </sheetData>
@@ -8796,7 +6828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8837,7 +6869,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -8892,19 +6924,19 @@
         <v>0.004897937800238229</v>
       </c>
       <c r="I2" t="n">
-        <v>5.094602010305949</v>
+        <v>6.792802680407933</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001955912251479616</v>
+        <v>0.0002607883001972822</v>
       </c>
       <c r="K2" t="n">
-        <v>7.261153522429155</v>
+        <v>7.363882253413946</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005857941746779126</v>
+        <v>0.005424569833019715</v>
       </c>
       <c r="M2" t="n">
-        <v>4.817305885296011e-05</v>
+        <v>7.744774414585056e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8933,19 +6965,19 @@
         <v>0.005879345122301336</v>
       </c>
       <c r="I3" t="n">
-        <v>5.075126433679371</v>
+        <v>6.766835244905828</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000428593044931744</v>
+        <v>0.0005714573932423255</v>
       </c>
       <c r="K3" t="n">
-        <v>7.1686690004539</v>
+        <v>7.230937705070998</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01746365267678729</v>
+        <v>0.01600748712381185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001499504501129087</v>
+        <v>0.0002311511010363574</v>
       </c>
     </row>
     <row r="4">
@@ -8974,19 +7006,19 @@
         <v>0.007056857034191458</v>
       </c>
       <c r="I4" t="n">
-        <v>5.0468447505386</v>
+        <v>6.729126334051468</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0009390745888080772</v>
+        <v>0.001252099451744103</v>
       </c>
       <c r="K4" t="n">
-        <v>7.022347962809206</v>
+        <v>7.036926946493316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0515446235702866</v>
+        <v>0.04678369947929498</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004667366151158685</v>
+        <v>0.0006898543465007535</v>
       </c>
     </row>
     <row r="5">
@@ -9015,19 +7047,19 @@
         <v>0.008469420667740413</v>
       </c>
       <c r="I5" t="n">
-        <v>5.006086305953401</v>
+        <v>6.674781741271202</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002057148870934057</v>
+        <v>0.00274286516124541</v>
       </c>
       <c r="K5" t="n">
-        <v>6.795658128913121</v>
+        <v>6.759943794746225</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1478179218636689</v>
+        <v>0.1330196308619941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001452564522440767</v>
+        <v>0.002058457900497745</v>
       </c>
     </row>
     <row r="6">
@@ -9056,19 +7088,19 @@
         <v>0.01016361333801331</v>
       </c>
       <c r="I6" t="n">
-        <v>4.947986008763255</v>
+        <v>6.597314678351006</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004504387560815169</v>
+        <v>0.006005850081086892</v>
       </c>
       <c r="K6" t="n">
-        <v>6.455626031579532</v>
+        <v>6.376641528060376</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3924429606093005</v>
+        <v>0.3514828747699265</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004518670299030435</v>
+        <v>0.006138995984508637</v>
       </c>
     </row>
     <row r="7">
@@ -9097,19 +7129,19 @@
         <v>0.01219509128174976</v>
       </c>
       <c r="I7" t="n">
-        <v>4.866443989336959</v>
+        <v>6.488591985782612</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009853214755521568</v>
+        <v>0.01313761967402876</v>
       </c>
       <c r="K7" t="n">
-        <v>5.969534114953266</v>
+        <v>5.868478683071602</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8765773809667529</v>
+        <v>0.7877028928491706</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01403785106152409</v>
+        <v>0.01827973884075625</v>
       </c>
     </row>
     <row r="8">
@@ -9138,19 +7170,19 @@
         <v>0.01463029314228295</v>
       </c>
       <c r="I8" t="n">
-        <v>4.754466708386937</v>
+        <v>6.339288944515916</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02150733103283024</v>
+        <v>0.02867644137710699</v>
       </c>
       <c r="K8" t="n">
-        <v>5.320370617404458</v>
+        <v>5.231772810968498</v>
       </c>
       <c r="L8" t="n">
-        <v>1.264494901598566</v>
+        <v>1.161359935473802</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04342888023623652</v>
+        <v>0.05417733739586762</v>
       </c>
     </row>
     <row r="9">
@@ -9179,19 +7211,19 @@
         <v>0.01754843390927612</v>
       </c>
       <c r="I9" t="n">
-        <v>4.605205520650353</v>
+        <v>6.140274027533804</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0467269906677199</v>
+        <v>0.06230265422362655</v>
       </c>
       <c r="K9" t="n">
-        <v>4.527971954483815</v>
+        <v>4.488139633190884</v>
       </c>
       <c r="L9" t="n">
-        <v>1.465858775882607</v>
+        <v>1.33994338589372</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1326506219706171</v>
+        <v>0.1583917567595826</v>
       </c>
     </row>
     <row r="10">
@@ -9220,19 +7252,19 @@
         <v>0.02104382575603747</v>
       </c>
       <c r="I10" t="n">
-        <v>4.413951406976663</v>
+        <v>5.885268542635551</v>
       </c>
       <c r="J10" t="n">
-        <v>0.100506506864223</v>
+        <v>0.134008675818964</v>
       </c>
       <c r="K10" t="n">
-        <v>3.580327390635419</v>
+        <v>3.62140015356372</v>
       </c>
       <c r="L10" t="n">
-        <v>1.647975456214991</v>
+        <v>1.503662167844612</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3901408188719823</v>
+        <v>0.4455223704024848</v>
       </c>
     </row>
     <row r="11">
@@ -9261,19 +7293,19 @@
         <v>0.02522856053179259</v>
       </c>
       <c r="I11" t="n">
-        <v>4.180919483318519</v>
+        <v>5.574559311091358</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2116787407059942</v>
+        <v>0.2822383209413256</v>
       </c>
       <c r="K11" t="n">
-        <v>2.442442582834834</v>
+        <v>2.455050187645497</v>
       </c>
       <c r="L11" t="n">
-        <v>1.803464464369498</v>
+        <v>1.646070122745192</v>
       </c>
       <c r="M11" t="n">
-        <v>1.036476418711305</v>
+        <v>1.134686396039275</v>
       </c>
     </row>
     <row r="12">
@@ -9302,19 +7334,19 @@
         <v>0.03023558313335144</v>
       </c>
       <c r="I12" t="n">
-        <v>3.91378570935742</v>
+        <v>5.218380945809892</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4274137751586343</v>
+        <v>0.5698850335448458</v>
       </c>
       <c r="K12" t="n">
-        <v>1.571300098735459</v>
+        <v>1.52174480447048</v>
       </c>
       <c r="L12" t="n">
-        <v>1.929821866066118</v>
+        <v>1.764388456859284</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2156926362192</v>
+        <v>2.355422158100922</v>
       </c>
     </row>
     <row r="13">
@@ -9343,19 +7375,19 @@
         <v>0.03622217359983757</v>
       </c>
       <c r="I13" t="n">
-        <v>3.618363710568574</v>
+        <v>4.824484947424765</v>
       </c>
       <c r="J13" t="n">
-        <v>0.799000990265595</v>
+        <v>1.06533465368746</v>
       </c>
       <c r="K13" t="n">
-        <v>1.007458441115269</v>
+        <v>0.8827215155099633</v>
       </c>
       <c r="L13" t="n">
-        <v>2.028447875152734</v>
+        <v>1.859002947167723</v>
       </c>
       <c r="M13" t="n">
-        <v>3.121545672158324</v>
+        <v>3.313319740315942</v>
       </c>
     </row>
     <row r="14">
@@ -9384,19 +7416,19 @@
         <v>0.04337383581606374</v>
       </c>
       <c r="I14" t="n">
-        <v>3.241160055796646</v>
+        <v>4.321546741062194</v>
       </c>
       <c r="J14" t="n">
-        <v>1.324424426744006</v>
+        <v>1.765899235658676</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6811317753913939</v>
+        <v>0.4904939606102235</v>
       </c>
       <c r="L14" t="n">
-        <v>2.103033465310814</v>
+        <v>1.93237465724313</v>
       </c>
       <c r="M14" t="n">
-        <v>3.802514242463308</v>
+        <v>4.037860983354689</v>
       </c>
     </row>
     <row r="15">
@@ -9425,19 +7457,19 @@
         <v>0.05190855856041499</v>
       </c>
       <c r="I15" t="n">
-        <v>2.914625818253126</v>
+        <v>3.886167757670834</v>
       </c>
       <c r="J15" t="n">
-        <v>1.745134488455687</v>
+        <v>2.326845984607582</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5043740904532727</v>
+        <v>0.2656857334335662</v>
       </c>
       <c r="L15" t="n">
-        <v>2.158101223834299</v>
+        <v>1.987929694849857</v>
       </c>
       <c r="M15" t="n">
-        <v>4.255593107328509</v>
+        <v>4.528798701908944</v>
       </c>
     </row>
     <row r="16">
@@ -9466,19 +7498,19 @@
         <v>0.06208136567950737</v>
       </c>
       <c r="I16" t="n">
-        <v>2.662524124319278</v>
+        <v>3.550032165759037</v>
       </c>
       <c r="J16" t="n">
-        <v>2.079145718964707</v>
+        <v>2.772194291952943</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4120564684715229</v>
+        <v>0.1418665216705092</v>
       </c>
       <c r="L16" t="n">
-        <v>2.198042488220588</v>
+        <v>2.029238153839269</v>
       </c>
       <c r="M16" t="n">
-        <v>4.518340389593391</v>
+        <v>4.819267643332864</v>
       </c>
     </row>
     <row r="17">
@@ -9507,19 +7539,19 @@
         <v>0.07418900081182579</v>
       </c>
       <c r="I17" t="n">
-        <v>2.48454989160378</v>
+        <v>3.31273318880504</v>
       </c>
       <c r="J17" t="n">
-        <v>2.352853401569155</v>
+        <v>3.137137868758874</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3647569369911989</v>
+        <v>0.07516261587274706</v>
       </c>
       <c r="L17" t="n">
-        <v>2.226640418035333</v>
+        <v>2.05954091896375</v>
       </c>
       <c r="M17" t="n">
-        <v>4.658719015128483</v>
+        <v>4.977528705696469</v>
       </c>
     </row>
     <row r="18">
@@ -9548,19 +7580,19 @@
         <v>0.08857449198489627</v>
       </c>
       <c r="I18" t="n">
-        <v>2.366695899191732</v>
+        <v>3.155594532255642</v>
       </c>
       <c r="J18" t="n">
-        <v>2.557486233744206</v>
+        <v>3.409981644992274</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3407609246599905</v>
+        <v>0.03965597646222073</v>
       </c>
       <c r="L18" t="n">
-        <v>2.246927617781667</v>
+        <v>2.081550411807368</v>
       </c>
       <c r="M18" t="n">
-        <v>4.730445645695585</v>
+        <v>5.059900519273241</v>
       </c>
     </row>
     <row r="19">
@@ -9589,19 +7621,19 @@
         <v>0.1056312062430096</v>
       </c>
       <c r="I19" t="n">
-        <v>2.291925674254236</v>
+        <v>3.055900899005647</v>
       </c>
       <c r="J19" t="n">
-        <v>2.700224449194823</v>
+        <v>3.600299265593098</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3286482621161113</v>
+        <v>0.02087623889361215</v>
       </c>
       <c r="L19" t="n">
-        <v>2.261224793863838</v>
+        <v>2.097421223196581</v>
       </c>
       <c r="M19" t="n">
-        <v>4.766259239663428</v>
+        <v>5.101753650713426</v>
       </c>
     </row>
     <row r="20">
@@ -9630,19 +7662,19 @@
         <v>0.1258058293895073</v>
       </c>
       <c r="I20" t="n">
-        <v>2.245770664299226</v>
+        <v>2.994360885732302</v>
       </c>
       <c r="J20" t="n">
-        <v>2.795038952405153</v>
+        <v>3.726718603206872</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3225495586503656</v>
+        <v>0.01097709219167975</v>
       </c>
       <c r="L20" t="n">
-        <v>2.271253880336664</v>
+        <v>2.108805951683935</v>
       </c>
       <c r="M20" t="n">
-        <v>4.783935381856512</v>
+        <v>5.122759175571459</v>
       </c>
     </row>
     <row r="21">
@@ -9671,19 +7703,19 @@
         <v>0.1495994902715326</v>
       </c>
       <c r="I21" t="n">
-        <v>2.217759677206555</v>
+        <v>2.957012902942073</v>
       </c>
       <c r="J21" t="n">
-        <v>2.855991486798995</v>
+        <v>3.807988649065328</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3194827979557863</v>
+        <v>0.005768388939962099</v>
       </c>
       <c r="L21" t="n">
-        <v>2.278266117539366</v>
+        <v>2.116942118887792</v>
       </c>
       <c r="M21" t="n">
-        <v>4.792609757528161</v>
+        <v>5.133236465047511</v>
       </c>
     </row>
     <row r="22">
@@ -9712,19 +7744,19 @@
         <v>0.1775660005164396</v>
       </c>
       <c r="I22" t="n">
-        <v>2.200935112856479</v>
+        <v>2.934580150475306</v>
       </c>
       <c r="J22" t="n">
-        <v>2.894354756536091</v>
+        <v>3.859139675381455</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3179416553718883</v>
+        <v>0.003030267023330117</v>
       </c>
       <c r="L22" t="n">
-        <v>2.283157834964402</v>
+        <v>2.122741132706489</v>
       </c>
       <c r="M22" t="n">
-        <v>4.796854641392897</v>
+        <v>5.138446257721967</v>
       </c>
     </row>
     <row r="23">
@@ -9753,19 +7785,19 @@
         <v>0.2103059214448659</v>
       </c>
       <c r="I23" t="n">
-        <v>2.190892324874339</v>
+        <v>2.921189766499119</v>
       </c>
       <c r="J23" t="n">
-        <v>2.918179634245672</v>
+        <v>3.89090617899423</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3171674337354654</v>
+        <v>0.001591597450515995</v>
       </c>
       <c r="L23" t="n">
-        <v>2.286564857017477</v>
+        <v>2.126866467939416</v>
       </c>
       <c r="M23" t="n">
-        <v>4.798929050484981</v>
+        <v>5.141032821344282</v>
       </c>
     </row>
     <row r="24">
@@ -9794,19 +7826,19 @@
         <v>0.2484549443608074</v>
       </c>
       <c r="I24" t="n">
-        <v>2.184919935437926</v>
+        <v>2.913226580583902</v>
       </c>
       <c r="J24" t="n">
-        <v>2.932852980412443</v>
+        <v>3.910470640549925</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3167785522882883</v>
+        <v>0.0008358852822159315</v>
       </c>
       <c r="L24" t="n">
-        <v>2.288935177192111</v>
+        <v>2.129797187896207</v>
       </c>
       <c r="M24" t="n">
-        <v>4.799942098850834</v>
+        <v>5.142316019503745</v>
       </c>
     </row>
     <row r="25">
@@ -9835,19 +7867,19 @@
         <v>0.2926649528251685</v>
       </c>
       <c r="I25" t="n">
-        <v>2.181376048891507</v>
+        <v>2.908501398522009</v>
       </c>
       <c r="J25" t="n">
-        <v>2.941843746400501</v>
+        <v>3.922458328534002</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3165832381417333</v>
+        <v>0.0004389749059584124</v>
       </c>
       <c r="L25" t="n">
-        <v>2.290582975403595</v>
+        <v>2.131877220528391</v>
       </c>
       <c r="M25" t="n">
-        <v>4.800436663337849</v>
+        <v>5.142952374521504</v>
       </c>
     </row>
     <row r="26">
@@ -9876,19 +7908,19 @@
         <v>0.343576234692984</v>
       </c>
       <c r="I26" t="n">
-        <v>2.179275947148999</v>
+        <v>2.905701262865332</v>
       </c>
       <c r="J26" t="n">
-        <v>2.947335308498876</v>
+        <v>3.929780411331835</v>
       </c>
       <c r="K26" t="n">
-        <v>0.316485146416221</v>
+        <v>0.0002305270973291</v>
       </c>
       <c r="L26" t="n">
-        <v>2.291727876816052</v>
+        <v>2.13335247988556</v>
       </c>
       <c r="M26" t="n">
-        <v>4.800678068106871</v>
+        <v>5.143267892037905</v>
       </c>
     </row>
     <row r="27">
@@ -9917,19 +7949,19 @@
         <v>0.4017797664167891</v>
       </c>
       <c r="I27" t="n">
-        <v>2.17803239988085</v>
+        <v>2.904043199841133</v>
       </c>
       <c r="J27" t="n">
-        <v>2.950683103202409</v>
+        <v>3.934244137603213</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3164358832742558</v>
+        <v>0.0001210594328878126</v>
       </c>
       <c r="L27" t="n">
-        <v>2.292523065674733</v>
+        <v>2.134398296450066</v>
       </c>
       <c r="M27" t="n">
-        <v>4.800795892354814</v>
+        <v>5.143424317319226</v>
       </c>
     </row>
     <row r="28">
@@ -9958,19 +7990,19 @@
         <v>0.4677694487080596</v>
       </c>
       <c r="I28" t="n">
-        <v>2.177296389816597</v>
+        <v>2.903061853088796</v>
       </c>
       <c r="J28" t="n">
-        <v>2.952721607936314</v>
+        <v>3.936962143915085</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3164111428381766</v>
+        <v>6.35729448488626e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>2.293075219455285</v>
+        <v>2.135139424073532</v>
       </c>
       <c r="M28" t="n">
-        <v>4.800853397521958</v>
+        <v>5.143501865268867</v>
       </c>
     </row>
     <row r="29">
@@ -9999,19 +8031,19 @@
         <v>0.5418857361259728</v>
       </c>
       <c r="I29" t="n">
-        <v>2.176860891456464</v>
+        <v>2.902481188608619</v>
       </c>
       <c r="J29" t="n">
-        <v>2.953961985802112</v>
+        <v>3.938615981069484</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3163987180115259</v>
+        <v>3.338446877437443e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>2.293458548512842</v>
+        <v>2.135664502803528</v>
       </c>
       <c r="M29" t="n">
-        <v>4.800881462903052</v>
+        <v>5.143540308840755</v>
       </c>
     </row>
     <row r="30">
@@ -10040,19 +8072,19 @@
         <v>0.6242542593335203</v>
       </c>
       <c r="I30" t="n">
-        <v>2.17660324803044</v>
+        <v>2.902137664040587</v>
       </c>
       <c r="J30" t="n">
-        <v>2.954716395493155</v>
+        <v>3.939621860657541</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3163924781896309</v>
+        <v>1.753136753368964e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>2.293724638927387</v>
+        <v>2.136036449501582</v>
       </c>
       <c r="M30" t="n">
-        <v>4.800895160079627</v>
+        <v>5.143559366616231</v>
       </c>
     </row>
     <row r="31">
@@ -10081,19 +8113,19 @@
         <v>0.7147255604023981</v>
       </c>
       <c r="I31" t="n">
-        <v>2.176450839225558</v>
+        <v>2.901934452300744</v>
       </c>
       <c r="J31" t="n">
-        <v>2.955175113225112</v>
+        <v>3.94023348430015</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3163893445180405</v>
+        <v>9.20633323340505e-06</v>
       </c>
       <c r="L31" t="n">
-        <v>2.293909331356392</v>
+        <v>2.13629989073951</v>
       </c>
       <c r="M31" t="n">
-        <v>4.800901844892138</v>
+        <v>5.143568814145191</v>
       </c>
     </row>
     <row r="32">
@@ -10122,19 +8154,19 @@
         <v>0.8128244373961913</v>
       </c>
       <c r="I32" t="n">
-        <v>2.176360686996267</v>
+        <v>2.901814249328356</v>
       </c>
       <c r="J32" t="n">
-        <v>2.955453990984314</v>
+        <v>3.940605321312419</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3163877707726125</v>
+        <v>4.834564532819899e-06</v>
       </c>
       <c r="L32" t="n">
-        <v>2.294037518018696</v>
+        <v>2.136486463873476</v>
       </c>
       <c r="M32" t="n">
-        <v>4.800905107361663</v>
+        <v>5.143573497564518</v>
       </c>
     </row>
     <row r="33">
@@ -10163,19 +8195,19 @@
         <v>0.9177188447473834</v>
       </c>
       <c r="I33" t="n">
-        <v>2.176307362305669</v>
+        <v>2.901743149740891</v>
       </c>
       <c r="J33" t="n">
-        <v>2.95562351831513</v>
+        <v>3.940831357753507</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3163869804301077</v>
+        <v>2.538796638140426e-06</v>
       </c>
       <c r="L33" t="n">
-        <v>2.294126482870557</v>
+        <v>2.136618589710889</v>
       </c>
       <c r="M33" t="n">
-        <v>4.800906699582253</v>
+        <v>5.143575819270678</v>
       </c>
     </row>
     <row r="34">
@@ -10204,19 +8236,19 @@
         <v>1.028217939513085</v>
       </c>
       <c r="I34" t="n">
-        <v>2.176275821584567</v>
+        <v>2.90170109544609</v>
       </c>
       <c r="J34" t="n">
-        <v>2.95572656635315</v>
+        <v>3.940968755137533</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3163865835163755</v>
+        <v>1.333209517659748e-06</v>
       </c>
       <c r="L34" t="n">
-        <v>2.294188224985231</v>
+        <v>2.136712153432776</v>
       </c>
       <c r="M34" t="n">
-        <v>4.800907476651608</v>
+        <v>5.143576970206657</v>
       </c>
     </row>
     <row r="35">
@@ -10245,19 +8277,19 @@
         <v>1.142806051497284</v>
       </c>
       <c r="I35" t="n">
-        <v>2.17625716595948</v>
+        <v>2.901676221279306</v>
       </c>
       <c r="J35" t="n">
-        <v>2.955789202354266</v>
+        <v>3.941052269805688</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3163863841844445</v>
+        <v>7.001141635020897e-07</v>
       </c>
       <c r="L35" t="n">
-        <v>2.294231073503603</v>
+        <v>2.136778407696941</v>
       </c>
       <c r="M35" t="n">
-        <v>4.800907855893427</v>
+        <v>5.14357754075826</v>
       </c>
     </row>
     <row r="36">
@@ -10286,19 +8318,19 @@
         <v>1.259714078725178</v>
       </c>
       <c r="I36" t="n">
-        <v>2.176246131654486</v>
+        <v>2.901661508872647</v>
       </c>
       <c r="J36" t="n">
-        <v>2.955827273747588</v>
+        <v>3.941103031663451</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3163862840790215</v>
+        <v>3.676540079637924e-07</v>
       </c>
       <c r="L36" t="n">
-        <v>2.294260809607095</v>
+        <v>2.136825322586493</v>
       </c>
       <c r="M36" t="n">
-        <v>4.800908040979015</v>
+        <v>5.143577823596821</v>
       </c>
     </row>
     <row r="37">
@@ -10327,19 +8359,19 @@
         <v>1.303948986332555</v>
       </c>
       <c r="I37" t="n">
-        <v>2.176239605183932</v>
+        <v>2.90165280691191</v>
       </c>
       <c r="J37" t="n">
-        <v>2.955850413979974</v>
+        <v>3.941133885306633</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3163862338056134</v>
+        <v>1.930677506920874e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>2.294281445729959</v>
+        <v>2.136858542679726</v>
       </c>
       <c r="M37" t="n">
-        <v>4.800908131308381</v>
+        <v>5.143577963807883</v>
       </c>
     </row>
     <row r="38">
@@ -10368,511 +8400,19 @@
         <v>1.329287018880599</v>
       </c>
       <c r="I38" t="n">
-        <v>2.176235744975729</v>
+        <v>2.901647659967639</v>
       </c>
       <c r="J38" t="n">
-        <v>2.955864478766133</v>
+        <v>3.941152638354844</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3163862085580748</v>
+        <v>1.013865078167559e-07</v>
       </c>
       <c r="L38" t="n">
-        <v>2.294295766594344</v>
+        <v>2.136882065329432</v>
       </c>
       <c r="M38" t="n">
-        <v>4.800908175392819</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.7472723755748495</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.493458074105928</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11.82781119913652</v>
-      </c>
-      <c r="E39" t="n">
-        <v>13.08991700739159</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.855846950278461</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4.551376513577889</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.354589612593706</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.176233461783629</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.955873027393902</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3163861958786439</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.294305704808115</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4.800908196907834</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.6356417101254427</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5.603199848228435</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11.88205826577745</v>
-      </c>
-      <c r="E40" t="n">
-        <v>13.12590774947057</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.90073027284252</v>
-      </c>
-      <c r="G40" t="n">
-        <v>4.664923847525948</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.379837155918579</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.176232111348245</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.955878223265111</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.316386189510975</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.294312601582689</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.800908207408044</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5391182471120692</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.700873109639581</v>
-      </c>
-      <c r="D41" t="n">
-        <v>11.92829163568862</v>
-      </c>
-      <c r="E41" t="n">
-        <v>13.15609251078494</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.945229030311344</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.769882116224224</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.40501020816666</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.176231312609141</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.955881381319142</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.3163861863131022</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.294317387693534</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4.800908212532577</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.4557509612345223</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.787395981824465</v>
-      </c>
-      <c r="D42" t="n">
-        <v>11.96764464816843</v>
-      </c>
-      <c r="E42" t="n">
-        <v>13.18138703002293</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.989280221657321</v>
-      </c>
-      <c r="G42" t="n">
-        <v>4.866456008765558</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1.430089558964552</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.176230840180787</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.955883300784388</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.3163861847071157</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.2943207090753</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4.80090821503356</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.3838163152378142</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.863721727790855</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12.00110468265987</v>
-      </c>
-      <c r="E43" t="n">
-        <v>13.20256892806818</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2.03282347600085</v>
-      </c>
-      <c r="G43" t="n">
-        <v>4.954940128911782</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.455056286197102</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.176230560754739</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.955884467434582</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.3163861839005818</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.294323013987424</v>
-      </c>
-      <c r="M43" t="n">
-        <v>4.800908216254141</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.3217983011131909</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.930804284142405</v>
-      </c>
-      <c r="D44" t="n">
-        <v>12.02952779979145</v>
-      </c>
-      <c r="E44" t="n">
-        <v>13.2202966070783</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2.075801358308936</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.035698412915</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1.479891812076759</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.176230395483312</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.955885176523804</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3163861834955367</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.294324613507227</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4.800908216849835</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.2683683372702</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.989572189036514</v>
-      </c>
-      <c r="D45" t="n">
-        <v>12.05365320401327</v>
-      </c>
-      <c r="E45" t="n">
-        <v>13.23512617306793</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2.118159640005153</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5.109145019639685</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.504577956993629</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.17623029773064</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.955885607507661</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.3163861832921213</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.294325723511484</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4.800908217140559</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.22236572691877</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.040909974603554</v>
-      </c>
-      <c r="D46" t="n">
-        <v>12.07411702958021</v>
-      </c>
-      <c r="E46" t="n">
-        <v>13.24752638061145</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.159847532274977</v>
-      </c>
-      <c r="G46" t="n">
-        <v>5.175727234673069</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1.529096990824976</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.176230239913117</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.955885869459261</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.316386183189965</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.294326493810797</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4.800908217282443</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1827791375912461</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6.085645872379462</v>
-      </c>
-      <c r="D47" t="n">
-        <v>12.09146515236475</v>
-      </c>
-      <c r="E47" t="n">
-        <v>13.25789168962663</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.200817880565744</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5.235910683779727</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.553431681410416</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.176230205715935</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.955886028673193</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.3163861831386617</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.2943270283681</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4.800908217351688</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1487293773740888</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.124544631724386</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.10616487418873</v>
-      </c>
-      <c r="E48" t="n">
-        <v>13.26655357625836</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2.241027319493036</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5.290166950300524</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1.577565339929286</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.176230185489416</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.955886125443263</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.316386183112897</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.294327399329694</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4.800908217385484</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.1194536085322564</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6.158304315616012</v>
-      </c>
-      <c r="D49" t="n">
-        <v>12.11861542649467</v>
-      </c>
-      <c r="E49" t="n">
-        <v>13.2737902650895</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.280436388056429</v>
-      </c>
-      <c r="G49" t="n">
-        <v>5.338963539448867</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1.601481862949075</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.176230173526088</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.955886184260014</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3163861830999578</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.294327656762314</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4.800908217401977</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.09429104338290301</v>
-      </c>
-      <c r="C50" t="n">
-        <v>6.187556066568442</v>
-      </c>
-      <c r="D50" t="n">
-        <v>12.12915730695305</v>
-      </c>
-      <c r="E50" t="n">
-        <v>13.27983505739809</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2.319009605720352</v>
-      </c>
-      <c r="G50" t="n">
-        <v>5.382756027384732</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1.625165770948025</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.17623016645017</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.955886220008776</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.3163861830934597</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.294327835410319</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4.800908217410027</v>
+        <v>5.143578033314462</v>
       </c>
     </row>
   </sheetData>
@@ -10886,7 +8426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10927,7 +8467,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>n-butanol</t>
+          <t>Butanol</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -10982,19 +8522,19 @@
         <v>1.207234846535477</v>
       </c>
       <c r="I2" t="n">
-        <v>5.296525380498693</v>
+        <v>7.062033840664924</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009862793094888715</v>
+        <v>0.01315039079318495</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8266206323619</v>
+        <v>7.602602055609188</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4524888236044016</v>
+        <v>0.468232759305293</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005207929456215918</v>
+        <v>0.006206659835575347</v>
       </c>
     </row>
     <row r="3">
@@ -11023,19 +8563,19 @@
         <v>1.240197790367944</v>
       </c>
       <c r="I3" t="n">
-        <v>5.291625918069276</v>
+        <v>7.055501224092366</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01619285195110778</v>
+        <v>0.02159046926814371</v>
       </c>
       <c r="K3" t="n">
-        <v>7.804705850806056</v>
+        <v>7.577995652611975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6002949257863943</v>
+        <v>0.6086238660607807</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01065949076681307</v>
+        <v>0.01250517832557893</v>
       </c>
     </row>
     <row r="4">
@@ -11064,19 +8604,19 @@
         <v>1.273626635484009</v>
       </c>
       <c r="I4" t="n">
-        <v>5.283378210599013</v>
+        <v>7.044504280798684</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0265496917996358</v>
+        <v>0.03539958906618106</v>
       </c>
       <c r="K4" t="n">
-        <v>7.761458674464206</v>
+        <v>7.531576060724023</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7762598682640833</v>
+        <v>0.7726602727987711</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02179284726536606</v>
+        <v>0.0251646146010669</v>
       </c>
     </row>
     <row r="5">
@@ -11105,19 +8645,19 @@
         <v>1.307504708022549</v>
       </c>
       <c r="I5" t="n">
-        <v>5.269535332615352</v>
+        <v>7.026047110153804</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04343466290765414</v>
+        <v>0.05791288387687218</v>
       </c>
       <c r="K5" t="n">
-        <v>7.67685851522262</v>
+        <v>7.444734868016036</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9744921240317677</v>
+        <v>0.9548896116090244</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04445132206083951</v>
+        <v>0.05051545553617923</v>
       </c>
     </row>
     <row r="6">
@@ -11146,19 +8686,19 @@
         <v>1.341814173178011</v>
       </c>
       <c r="I6" t="n">
-        <v>5.246417145293371</v>
+        <v>6.995222860391161</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0708034148302933</v>
+        <v>0.09440455310705773</v>
       </c>
       <c r="K6" t="n">
-        <v>7.514165865814244</v>
+        <v>7.284784155374551</v>
       </c>
       <c r="L6" t="n">
-        <v>1.238096543083271</v>
+        <v>1.212107717875817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09024299943625642</v>
+        <v>0.1009091627407277</v>
       </c>
     </row>
     <row r="7">
@@ -11187,19 +8727,19 @@
         <v>1.376536057921476</v>
       </c>
       <c r="I7" t="n">
-        <v>5.208128474969122</v>
+        <v>6.94417129995883</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1147509919946103</v>
+        <v>0.1530013226594805</v>
       </c>
       <c r="K7" t="n">
-        <v>7.211326396234309</v>
+        <v>6.998453021464356</v>
       </c>
       <c r="L7" t="n">
-        <v>1.794193206943729</v>
+        <v>1.738375708695784</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1814867490693216</v>
+        <v>0.1996356800020133</v>
       </c>
     </row>
     <row r="8">
@@ -11228,19 +8768,19 @@
         <v>1.411650279653294</v>
       </c>
       <c r="I8" t="n">
-        <v>5.145579152702557</v>
+        <v>6.860772203603409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1842678803579663</v>
+        <v>0.2456905071439551</v>
       </c>
       <c r="K8" t="n">
-        <v>6.680352768237005</v>
+        <v>6.511108179785204</v>
       </c>
       <c r="L8" t="n">
-        <v>2.110563834700435</v>
+        <v>2.036526781285315</v>
       </c>
       <c r="M8" t="n">
-        <v>0.358282265459095</v>
+        <v>0.3876463793100527</v>
       </c>
     </row>
     <row r="9">
@@ -11269,19 +8809,19 @@
         <v>1.447135680811233</v>
       </c>
       <c r="I9" t="n">
-        <v>5.04565426899736</v>
+        <v>6.727539025329813</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2916593284029598</v>
+        <v>0.3888791045372796</v>
       </c>
       <c r="K9" t="n">
-        <v>5.840210065527832</v>
+        <v>5.748783696674725</v>
       </c>
       <c r="L9" t="n">
-        <v>2.242531452345143</v>
+        <v>2.161534067533111</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6829962281858897</v>
+        <v>0.7271025208964988</v>
       </c>
     </row>
     <row r="10">
@@ -11310,19 +8850,19 @@
         <v>1.482970069407474</v>
       </c>
       <c r="I10" t="n">
-        <v>4.891580641899585</v>
+        <v>6.52210752253278</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4516427907693842</v>
+        <v>0.6021903876925123</v>
       </c>
       <c r="K10" t="n">
-        <v>4.705047294805792</v>
+        <v>4.70073728632982</v>
       </c>
       <c r="L10" t="n">
-        <v>2.290324844321164</v>
+        <v>2.207218801444423</v>
       </c>
       <c r="M10" t="n">
-        <v>1.224699649232642</v>
+        <v>1.28486445675653</v>
       </c>
     </row>
     <row r="11">
@@ -11351,19 +8891,19 @@
         <v>1.519130265415255</v>
       </c>
       <c r="I11" t="n">
-        <v>4.666537433456677</v>
+        <v>6.222049911275569</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6775269267358724</v>
+        <v>0.9033692356478298</v>
       </c>
       <c r="K11" t="n">
-        <v>3.663207371736119</v>
+        <v>3.600645093539055</v>
       </c>
       <c r="L11" t="n">
-        <v>2.306731811211431</v>
+        <v>2.223061935194908</v>
       </c>
       <c r="M11" t="n">
-        <v>1.998136205161487</v>
+        <v>2.073278892284045</v>
       </c>
     </row>
     <row r="12">
@@ -11392,19 +8932,19 @@
         <v>1.55559215287226</v>
       </c>
       <c r="I12" t="n">
-        <v>4.362541307983622</v>
+        <v>5.816721743978162</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9734357273465921</v>
+        <v>1.297914303128789</v>
       </c>
       <c r="K12" t="n">
-        <v>2.826132631366707</v>
+        <v>2.816569310786108</v>
       </c>
       <c r="L12" t="n">
-        <v>2.312259832896917</v>
+        <v>2.22845555325526</v>
       </c>
       <c r="M12" t="n">
-        <v>3.101959381513185</v>
+        <v>3.179218863254405</v>
       </c>
     </row>
     <row r="13">
@@ -11433,19 +8973,19 @@
         <v>1.592330737513594</v>
       </c>
       <c r="I13" t="n">
-        <v>3.992516658108572</v>
+        <v>5.323355544144762</v>
       </c>
       <c r="J13" t="n">
-        <v>1.325223126276703</v>
+        <v>1.766964168368938</v>
       </c>
       <c r="K13" t="n">
-        <v>2.127835217983891</v>
+        <v>2.113668950580056</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3141106292534</v>
+        <v>2.230280156986295</v>
       </c>
       <c r="M13" t="n">
-        <v>4.188448828298459</v>
+        <v>4.298427755945936</v>
       </c>
     </row>
     <row r="14">
@@ -11474,19 +9014,19 @@
         <v>1.62932020969318</v>
       </c>
       <c r="I14" t="n">
-        <v>3.643068418490514</v>
+        <v>4.857424557987352</v>
       </c>
       <c r="J14" t="n">
-        <v>1.80644406051197</v>
+        <v>2.408592080682626</v>
       </c>
       <c r="K14" t="n">
-        <v>1.597379279203575</v>
+        <v>1.530411186677361</v>
       </c>
       <c r="L14" t="n">
-        <v>2.314728964541942</v>
+        <v>2.230896077165734</v>
       </c>
       <c r="M14" t="n">
-        <v>4.71949485734629</v>
+        <v>4.873213505769142</v>
       </c>
     </row>
     <row r="15">
@@ -11515,19 +9055,19 @@
         <v>1.666534012299394</v>
       </c>
       <c r="I15" t="n">
-        <v>3.357766061368388</v>
+        <v>4.477021415157851</v>
       </c>
       <c r="J15" t="n">
-        <v>2.30893481275286</v>
+        <v>3.078579750337146</v>
       </c>
       <c r="K15" t="n">
-        <v>1.222385891701648</v>
+        <v>1.076686872585816</v>
       </c>
       <c r="L15" t="n">
-        <v>2.314935398279999</v>
+        <v>2.231103838778244</v>
       </c>
       <c r="M15" t="n">
-        <v>4.919887304852202</v>
+        <v>5.101782946736544</v>
       </c>
     </row>
     <row r="16">
@@ -11556,19 +9096,19 @@
         <v>1.70394491331952</v>
       </c>
       <c r="I16" t="n">
-        <v>3.101486322828746</v>
+        <v>4.135315097104995</v>
       </c>
       <c r="J16" t="n">
-        <v>2.644624131610191</v>
+        <v>3.526165508813588</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9705677765142531</v>
+        <v>0.7411346533914215</v>
       </c>
       <c r="L16" t="n">
-        <v>2.315004300659198</v>
+        <v>2.231173903580459</v>
       </c>
       <c r="M16" t="n">
-        <v>4.987925539534945</v>
+        <v>5.183235270120951</v>
       </c>
     </row>
     <row r="17">
@@ -11597,19 +9137,19 @@
         <v>1.741525082658936</v>
       </c>
       <c r="I17" t="n">
-        <v>2.885787154991273</v>
+        <v>3.847716206655031</v>
       </c>
       <c r="J17" t="n">
-        <v>2.832543919643506</v>
+        <v>3.776725226191341</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8072466832857302</v>
+        <v>0.5021450690905971</v>
       </c>
       <c r="L17" t="n">
-        <v>2.315027296714489</v>
+        <v>2.231197530040097</v>
       </c>
       <c r="M17" t="n">
-        <v>5.01018418934956</v>
+        <v>5.211110058071347</v>
       </c>
     </row>
     <row r="18">
@@ -11638,19 +9178,19 @@
         <v>1.779246172775601</v>
       </c>
       <c r="I18" t="n">
-        <v>2.713970898723689</v>
+        <v>3.618627864964918</v>
       </c>
       <c r="J18" t="n">
-        <v>2.927466718289304</v>
+        <v>3.903288957719072</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7036992574649953</v>
+        <v>0.3364571893674339</v>
       </c>
       <c r="L18" t="n">
-        <v>2.315034971406985</v>
+        <v>2.231205496865681</v>
       </c>
       <c r="M18" t="n">
-        <v>5.017377069745582</v>
+        <v>5.220516469012673</v>
       </c>
     </row>
     <row r="19">
@@ -11679,19 +9219,19 @@
         <v>1.817079402649112</v>
       </c>
       <c r="I19" t="n">
-        <v>2.583015886592972</v>
+        <v>3.444021182123962</v>
       </c>
       <c r="J19" t="n">
-        <v>2.972928702424105</v>
+        <v>3.963904936565473</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6389909316233814</v>
+        <v>0.2237237594549185</v>
       </c>
       <c r="L19" t="n">
-        <v>2.31503753273258</v>
+        <v>2.231208183248456</v>
       </c>
       <c r="M19" t="n">
-        <v>5.019692189583409</v>
+        <v>5.223675615251223</v>
       </c>
     </row>
     <row r="20">
@@ -11720,19 +9260,19 @@
         <v>1.85499564456705</v>
       </c>
       <c r="I20" t="n">
-        <v>2.486521464101821</v>
+        <v>3.315361952135762</v>
       </c>
       <c r="J20" t="n">
-        <v>2.994146459373229</v>
+        <v>3.992195279164306</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5989182569429449</v>
+        <v>0.1479963631278771</v>
       </c>
       <c r="L20" t="n">
-        <v>2.315038387538095</v>
+        <v>2.231209089083471</v>
       </c>
       <c r="M20" t="n">
-        <v>5.020436382353911</v>
+        <v>5.224734918608488</v>
       </c>
     </row>
     <row r="21">
@@ -11761,19 +9301,19 @@
         <v>1.892965513180089</v>
       </c>
       <c r="I21" t="n">
-        <v>2.417175832376644</v>
+        <v>3.222901109835525</v>
       </c>
       <c r="J21" t="n">
-        <v>3.003929519559784</v>
+        <v>4.005239359413046</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5742410013026455</v>
+        <v>0.09756397936883482</v>
       </c>
       <c r="L21" t="n">
-        <v>2.31503867281684</v>
+        <v>2.231209394526243</v>
       </c>
       <c r="M21" t="n">
-        <v>5.020675503374559</v>
+        <v>5.225089926286378</v>
       </c>
     </row>
     <row r="22">
@@ -11802,19 +9342,19 @@
         <v>1.956822766549234</v>
       </c>
       <c r="I22" t="n">
-        <v>2.368231566864957</v>
+        <v>3.157642089153275</v>
       </c>
       <c r="J22" t="n">
-        <v>3.008415004901106</v>
+        <v>4.011220006534808</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5590969731026962</v>
+        <v>0.06416992960908106</v>
       </c>
       <c r="L22" t="n">
-        <v>2.315038768024386</v>
+        <v>2.231209497519891</v>
       </c>
       <c r="M22" t="n">
-        <v>5.020752326563106</v>
+        <v>5.225208879716203</v>
       </c>
     </row>
     <row r="23">
@@ -11843,19 +9383,19 @@
         <v>2.132052266760199</v>
       </c>
       <c r="I23" t="n">
-        <v>2.334124804037896</v>
+        <v>3.112166405383861</v>
       </c>
       <c r="J23" t="n">
-        <v>3.010466277979281</v>
+        <v>4.013955037305707</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5498230738388916</v>
+        <v>0.04214199596794534</v>
       </c>
       <c r="L23" t="n">
-        <v>2.315038799798488</v>
+        <v>2.231209532248787</v>
       </c>
       <c r="M23" t="n">
-        <v>5.020777006744738</v>
+        <v>5.225248735375345</v>
       </c>
     </row>
     <row r="24">
@@ -11884,19 +9424,19 @@
         <v>2.30385447202422</v>
       </c>
       <c r="I24" t="n">
-        <v>2.310568433431596</v>
+        <v>3.080757911242129</v>
       </c>
       <c r="J24" t="n">
-        <v>3.011403245763131</v>
+        <v>4.015204327684174</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5441513180818383</v>
+        <v>0.02764806885516313</v>
       </c>
       <c r="L24" t="n">
-        <v>2.31503881040262</v>
+        <v>2.231209543959181</v>
       </c>
       <c r="M24" t="n">
-        <v>5.020784935379552</v>
+        <v>5.225262088848762</v>
       </c>
     </row>
     <row r="25">
@@ -11925,19 +9465,19 @@
         <v>2.469572856989366</v>
       </c>
       <c r="I25" t="n">
-        <v>2.294398838526915</v>
+        <v>3.05919845136922</v>
       </c>
       <c r="J25" t="n">
-        <v>3.011830997223465</v>
+        <v>4.01577466296462</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5406853342306377</v>
+        <v>0.01812713978717344</v>
       </c>
       <c r="L25" t="n">
-        <v>2.315038813941592</v>
+        <v>2.231209547907862</v>
       </c>
       <c r="M25" t="n">
-        <v>5.020787482482884</v>
+        <v>5.225266562844392</v>
       </c>
     </row>
     <row r="26">
@@ -11966,19 +9506,19 @@
         <v>2.626928323451403</v>
       </c>
       <c r="I26" t="n">
-        <v>2.283346593692835</v>
+        <v>3.04446212492378</v>
       </c>
       <c r="J26" t="n">
-        <v>3.012026229377783</v>
+        <v>4.01603497250371</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5385683189304306</v>
+        <v>0.01187972832324908</v>
       </c>
       <c r="L26" t="n">
-        <v>2.315038815122672</v>
+        <v>2.231209549239335</v>
       </c>
       <c r="M26" t="n">
-        <v>5.020788300748116</v>
+        <v>5.225268061824536</v>
       </c>
     </row>
     <row r="27">
@@ -12007,19 +9547,19 @@
         <v>2.774127138669171</v>
       </c>
       <c r="I27" t="n">
-        <v>2.275814013874472</v>
+        <v>3.034418685165962</v>
       </c>
       <c r="J27" t="n">
-        <v>3.01211532622866</v>
+        <v>4.01615376830488</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5372756353554698</v>
+        <v>0.007783248642932148</v>
       </c>
       <c r="L27" t="n">
-        <v>2.315038815516839</v>
+        <v>2.2312095496883</v>
       </c>
       <c r="M27" t="n">
-        <v>5.020788563618363</v>
+        <v>5.225268564046698</v>
       </c>
     </row>
     <row r="28">
@@ -12048,19 +9588,19 @@
         <v>2.909912838156835</v>
       </c>
       <c r="I28" t="n">
-        <v>2.270690367653044</v>
+        <v>3.027587156870725</v>
       </c>
       <c r="J28" t="n">
-        <v>3.012155984702529</v>
+        <v>4.016207979603371</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5364864453961583</v>
+        <v>0.005098410253560711</v>
       </c>
       <c r="L28" t="n">
-        <v>2.315038815648386</v>
+        <v>2.23120954983969</v>
       </c>
       <c r="M28" t="n">
-        <v>5.020788648066235</v>
+        <v>5.22526873231246</v>
       </c>
     </row>
     <row r="29">
@@ -12089,19 +9629,19 @@
         <v>3.033564176671181</v>
       </c>
       <c r="I29" t="n">
-        <v>2.267209954243142</v>
+        <v>3.022946605657522</v>
       </c>
       <c r="J29" t="n">
-        <v>3.012174538363685</v>
+        <v>4.016232717818245</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5360046943204573</v>
+        <v>0.003339303459898278</v>
       </c>
       <c r="L29" t="n">
-        <v>2.315038815692288</v>
+        <v>2.231209549890737</v>
       </c>
       <c r="M29" t="n">
-        <v>5.02078867519537</v>
+        <v>5.225268788688635</v>
       </c>
     </row>
     <row r="30">
@@ -12130,19 +9670,19 @@
         <v>3.144849175384876</v>
       </c>
       <c r="I30" t="n">
-        <v>2.264847921291318</v>
+        <v>3.019797228388424</v>
       </c>
       <c r="J30" t="n">
-        <v>3.012183004856166</v>
+        <v>4.016244006474887</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5357106353555026</v>
+        <v>0.002186967994577496</v>
       </c>
       <c r="L30" t="n">
-        <v>2.31503881570694</v>
+        <v>2.23120954990795</v>
       </c>
       <c r="M30" t="n">
-        <v>5.020788683910688</v>
+        <v>5.225268807577047</v>
       </c>
     </row>
     <row r="31">
@@ -12171,19 +9711,19 @@
         <v>3.243949595940529</v>
       </c>
       <c r="I31" t="n">
-        <v>2.263245886709526</v>
+        <v>3.017661182279368</v>
       </c>
       <c r="J31" t="n">
-        <v>3.012186868306335</v>
+        <v>4.01624915774178</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5355311503374697</v>
+        <v>0.001432208754022336</v>
       </c>
       <c r="L31" t="n">
-        <v>2.31503881571183</v>
+        <v>2.231209549913754</v>
       </c>
       <c r="M31" t="n">
-        <v>5.020788686710509</v>
+        <v>5.225268813905466</v>
       </c>
     </row>
     <row r="32">
@@ -12212,19 +9752,19 @@
         <v>3.331370764567809</v>
       </c>
       <c r="I32" t="n">
-        <v>2.262159773162817</v>
+        <v>3.016213030883756</v>
       </c>
       <c r="J32" t="n">
-        <v>3.012188631281266</v>
+        <v>4.01625150837502</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5354216006799799</v>
+        <v>0.0009378975256958787</v>
       </c>
       <c r="L32" t="n">
-        <v>2.315038815713462</v>
+        <v>2.231209549915711</v>
       </c>
       <c r="M32" t="n">
-        <v>5.020788687609961</v>
+        <v>5.225268816025756</v>
       </c>
     </row>
     <row r="33">
@@ -12253,19 +9793,19 @@
         <v>3.407849532544668</v>
       </c>
       <c r="I33" t="n">
-        <v>2.261423642722256</v>
+        <v>3.015231523629674</v>
       </c>
       <c r="J33" t="n">
-        <v>3.01218943576361</v>
+        <v>4.016252581018146</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5353547374800776</v>
+        <v>0.00061417869011564</v>
       </c>
       <c r="L33" t="n">
-        <v>2.315038815714006</v>
+        <v>2.231209549916371</v>
       </c>
       <c r="M33" t="n">
-        <v>5.020788687898913</v>
+        <v>5.225268816736143</v>
       </c>
     </row>
     <row r="34">
@@ -12294,19 +9834,19 @@
         <v>3.47426961229278</v>
       </c>
       <c r="I34" t="n">
-        <v>2.260924815191901</v>
+        <v>3.014566420255868</v>
       </c>
       <c r="J34" t="n">
-        <v>3.012189802865564</v>
+        <v>4.016253070487419</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5353139281742137</v>
+        <v>0.0004021867299607584</v>
       </c>
       <c r="L34" t="n">
-        <v>2.315038815714188</v>
+        <v>2.231209549916593</v>
       </c>
       <c r="M34" t="n">
-        <v>5.02078868799174</v>
+        <v>5.225268816974152</v>
       </c>
     </row>
     <row r="35">
@@ -12335,19 +9875,19 @@
         <v>3.531589745463112</v>
       </c>
       <c r="I35" t="n">
-        <v>2.260586836602027</v>
+        <v>3.014115782136036</v>
       </c>
       <c r="J35" t="n">
-        <v>3.012189970381753</v>
+        <v>4.016253293842337</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5352890207528901</v>
+        <v>0.0002633640942352442</v>
       </c>
       <c r="L35" t="n">
-        <v>2.315038815714249</v>
+        <v>2.231209549916668</v>
       </c>
       <c r="M35" t="n">
-        <v>5.02078868802156</v>
+        <v>5.225268817053895</v>
       </c>
     </row>
     <row r="36">
@@ -12376,19 +9916,19 @@
         <v>3.580786914481928</v>
       </c>
       <c r="I36" t="n">
-        <v>2.260357860879652</v>
+        <v>3.01381048117287</v>
       </c>
       <c r="J36" t="n">
-        <v>3.012190046822836</v>
+        <v>4.016253395763782</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5352738188901855</v>
+        <v>0.0001724577300831277</v>
       </c>
       <c r="L36" t="n">
-        <v>2.315038815714269</v>
+        <v>2.231209549916694</v>
       </c>
       <c r="M36" t="n">
-        <v>5.02078868803114</v>
+        <v>5.225268817080614</v>
       </c>
     </row>
     <row r="37">
@@ -12417,19 +9957,19 @@
         <v>3.622814449500913</v>
       </c>
       <c r="I37" t="n">
-        <v>2.260202742384123</v>
+        <v>3.013603656512164</v>
       </c>
       <c r="J37" t="n">
-        <v>3.012190081704473</v>
+        <v>4.016253442272631</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5352645406861987</v>
+        <v>0.0001129293893877862</v>
       </c>
       <c r="L37" t="n">
-        <v>2.315038815714276</v>
+        <v>2.231209549916702</v>
       </c>
       <c r="M37" t="n">
-        <v>5.020788688034217</v>
+        <v>5.225268817089565</v>
       </c>
     </row>
     <row r="38">
@@ -12458,511 +9998,19 @@
         <v>3.658573434196658</v>
       </c>
       <c r="I38" t="n">
-        <v>2.260097662388217</v>
+        <v>3.013463549850956</v>
       </c>
       <c r="J38" t="n">
-        <v>3.01219009762168</v>
+        <v>4.016253463495573</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5352588778961436</v>
+        <v>7.394862866625705e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.315038815714278</v>
+        <v>2.231209549916705</v>
       </c>
       <c r="M38" t="n">
-        <v>5.020788688035206</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>4.266434291561147</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7.131829002913256</v>
-      </c>
-      <c r="D39" t="n">
-        <v>13.33251102539591</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14.6951003778649</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4.353179146264979</v>
-      </c>
-      <c r="G39" t="n">
-        <v>6.373151953430289</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.688895121034645</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.260026481315002</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.012190104885029</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.535255421713705</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5.020788688035524</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.967002622457341</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7.163802838384018</v>
-      </c>
-      <c r="D40" t="n">
-        <v>13.34059151838062</v>
-      </c>
-      <c r="E40" t="n">
-        <v>14.69692266128296</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4.401911672712234</v>
-      </c>
-      <c r="G40" t="n">
-        <v>6.423239154809251</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.71453191050933</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.259978264235498</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.012190108199444</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.5352533122957099</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.020788688035626</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.691715544638821</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7.18855887405317</v>
-      </c>
-      <c r="D41" t="n">
-        <v>13.34684310317339</v>
-      </c>
-      <c r="E41" t="n">
-        <v>14.69826333437669</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4.444347552870046</v>
-      </c>
-      <c r="G41" t="n">
-        <v>6.463969515730148</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.736154620935</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.259945603062713</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.01219010971188</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5352520248512426</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5.020788688035658</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.439169517571249</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7.207691700352302</v>
-      </c>
-      <c r="D42" t="n">
-        <v>13.35167854955822</v>
-      </c>
-      <c r="E42" t="n">
-        <v>14.69924962556514</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4.481194242219974</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.497000654212314</v>
-      </c>
-      <c r="H42" t="n">
-        <v>3.754354111584628</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.25992347930339</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.012190110402035</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.5352512390833386</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.02078868803567</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.207942325473516</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7.222457866931327</v>
-      </c>
-      <c r="D43" t="n">
-        <v>13.35541794302674</v>
-      </c>
-      <c r="E43" t="n">
-        <v>14.69997517871832</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4.513108078015665</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6.523728662579425</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3.769645710178644</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.259908493378438</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.012190110716967</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5352507595044936</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5.020788688035673</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2.996616222845748</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7.233841634240627</v>
-      </c>
-      <c r="D44" t="n">
-        <v>13.3583093049482</v>
-      </c>
-      <c r="E44" t="n">
-        <v>14.70050890666224</v>
-      </c>
-      <c r="F44" t="n">
-        <v>4.540689704622843</v>
-      </c>
-      <c r="G44" t="n">
-        <v>6.545317580622061</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.782475268794627</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.259898342433476</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.012190110860677</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.5352504668024732</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2.803796840398784</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7.242610462660307</v>
-      </c>
-      <c r="D45" t="n">
-        <v>13.36054470266541</v>
-      </c>
-      <c r="E45" t="n">
-        <v>14.70090151616882</v>
-      </c>
-      <c r="F45" t="n">
-        <v>4.564482666916007</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.56273027629186</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.793225996459046</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.259891466554317</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.012190110926255</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.5352502881572513</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2.628128194401074</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7.249360679670638</v>
-      </c>
-      <c r="D46" t="n">
-        <v>13.36227280440286</v>
-      </c>
-      <c r="E46" t="n">
-        <v>14.70119031434403</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4.584974292397583</v>
-      </c>
-      <c r="G46" t="n">
-        <v>6.576758207508492</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.802225480128305</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.259886809093453</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.012190110956179</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5352501791244728</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2.468304203101943</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7.254554402879794</v>
-      </c>
-      <c r="D47" t="n">
-        <v>13.36360864474808</v>
-      </c>
-      <c r="E47" t="n">
-        <v>14.70140274772207</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4.602598139581894</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.588048685754799</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.809752509325137</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.259883654309217</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.012190110969835</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.5352501125783516</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M47" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2.323077140914302</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7.2585490126364</v>
-      </c>
-      <c r="D48" t="n">
-        <v>13.36464120925041</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14.70155900748099</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4.617737441937063</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6.59712902149669</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.816043470544924</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.259881517381904</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.012190110976066</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.5352500719631691</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M48" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2.191263462475286</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7.261620456725675</v>
-      </c>
-      <c r="D49" t="n">
-        <v>13.36543931850217</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14.70167394681188</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4.630729112359639</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.604427406066923</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.821298185158402</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.259880069911827</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.012190110978909</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.5352500471744508</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5.020788688035674</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2.071747411748782</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7.263981549132032</v>
-      </c>
-      <c r="D50" t="n">
-        <v>13.36605618898306</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14.70175849183762</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4.641867988049681</v>
-      </c>
-      <c r="G50" t="n">
-        <v>6.61029066114375</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3.825685138411879</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.259879089453196</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.012190110980207</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.5352500320451197</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.315038815714279</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5.020788688035674</v>
+        <v>5.225268817092564</v>
       </c>
     </row>
   </sheetData>

--- a/data/uptakes.xlsx
+++ b/data/uptakes.xlsx
@@ -544,7 +544,7 @@
         <v>0.05159361221166886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006573295889452173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>0.09843164894235569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001612252480658237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -626,7 +626,7 @@
         <v>0.175759711862756</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003952061796184617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +667,7 @@
         <v>0.2792605061759645</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009673400559349494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +708,7 @@
         <v>0.3697265156458711</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02359286053139645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.3857847696200987</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05704226244127971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +790,7 @@
         <v>0.3141803754628556</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1350482696155207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +831,7 @@
         <v>0.2086303895871706</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3043221726535026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -872,7 +872,7 @@
         <v>0.1207037208524175</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6145740304934383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -913,7 +913,7 @@
         <v>0.06440702801798656</v>
       </c>
       <c r="M11" t="n">
-        <v>1.00051682365437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -954,7 +954,7 @@
         <v>0.03290210905026766</v>
       </c>
       <c r="M12" t="n">
-        <v>1.159526521161041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -995,7 +995,7 @@
         <v>0.0164360108619216</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9108241701490067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1036,7 @@
         <v>0.008118972245859071</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5239003640057052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>0.00398838976752208</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2504161971499638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1118,7 +1118,7 @@
         <v>0.001953935991325996</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1093242666070963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1159,7 +1159,7 @@
         <v>0.0009559670445448767</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04585300019625549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1200,7 +1200,7 @@
         <v>0.0004674031347621447</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01890937846201263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1241,7 +1241,7 @@
         <v>0.0002284554415043049</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00774375457972369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1282,7 +1282,7 @@
         <v>0.0001116460959573984</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003162144148255606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1323,7 +1323,7 @@
         <v>5.455724305267145e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001289743795956567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1364,7 +1364,7 @@
         <v>2.665907562098284e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0005257967233833913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1405,7 @@
         <v>1.302656284873353e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0002143126287747129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1446,7 +1446,7 @@
         <v>6.365180485672044e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>8.734603439927653e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1487,7 +1487,7 @@
         <v>3.110210016001996e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>3.559791623855959e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1528,7 +1528,7 @@
         <v>1.519734717572345e-06</v>
       </c>
       <c r="M26" t="n">
-        <v>1.450775582376418e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1569,7 +1569,7 @@
         <v>7.42583683883736e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>5.912532832208355e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1610,7 +1610,7 @@
         <v>3.628463844047954e-07</v>
       </c>
       <c r="M28" t="n">
-        <v>2.409605482205227e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1651,7 +1651,7 @@
         <v>1.772964702325013e-07</v>
       </c>
       <c r="M29" t="n">
-        <v>9.820145722292925e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1692,7 +1692,7 @@
         <v>8.663179763250323e-08</v>
       </c>
       <c r="M30" t="n">
-        <v>4.002116846821377e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1733,7 +1733,7 @@
         <v>4.233061101860551e-08</v>
       </c>
       <c r="M31" t="n">
-        <v>1.631028432293692e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1774,7 +1774,7 @@
         <v>2.068386696689717e-08</v>
       </c>
       <c r="M32" t="n">
-        <v>6.647116234047633e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1815,7 +1815,7 @@
         <v>1.010668961202642e-08</v>
       </c>
       <c r="M33" t="n">
-        <v>2.708975040945588e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1856,7 +1856,7 @@
         <v>4.938398335828383e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>1.104019463549301e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1897,7 +1897,7 @@
         <v>2.413033246012233e-09</v>
       </c>
       <c r="M35" t="n">
-        <v>4.499336289522084e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1938,7 +1938,7 @@
         <v>1.179072452399597e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>1.833665771380981e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1979,7 +1979,7 @@
         <v>5.761262714403269e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>7.47294699149656e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2020,7 +2020,7 @@
         <v>2.815106737821253e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>3.045535211152917e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2142,7 @@
         <v>0.005882054895873327</v>
       </c>
       <c r="M2" t="n">
-        <v>8.468768259260699e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2183,7 +2183,7 @@
         <v>0.01727131074173271</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002527519208173551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2224,7 +2224,7 @@
         <v>0.04974490539728069</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007542532140802791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2265,7 +2265,7 @@
         <v>0.135603679730536</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002250018898140651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2306,7 +2306,7 @@
         <v>0.172670768974483</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006704968064361631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2347,7 +2347,7 @@
         <v>0.1772322377556019</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0199178205962091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2388,7 +2388,7 @@
         <v>0.1610011272920217</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05861880830596534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2429,7 +2429,7 @@
         <v>0.07027827857901407</v>
       </c>
       <c r="M9" t="n">
-        <v>0.167867510412803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2470,7 +2470,7 @@
         <v>0.02470974312477874</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4449798620389108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2511,7 +2511,7 @@
         <v>0.008452031227589554</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7691505482389439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2552,7 +2552,7 @@
         <v>0.002863824711341644</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8845407423743781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2593,7 +2593,7 @@
         <v>0.0009672479798648304</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7146996057674614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2634,7 +2634,7 @@
         <v>0.0003263308869167818</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3534210547088106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2675,7 +2675,7 @@
         <v>0.000110057483865974</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1297792689955607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2716,7 +2716,7 @@
         <v>3.711311158521396e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04488105323693255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2757,7 +2757,7 @@
         <v>1.25146029761277e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01519922746461532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +2798,7 @@
         <v>4.219885710235141e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005110787118535922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2839,7 +2839,7 @@
         <v>1.422925773519243e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001714403634255814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2880,7 +2880,7 @@
         <v>4.79803166352366e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0005746309699166063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2921,7 +2921,7 @@
         <v>1.617870438724059e-07</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001925519286086693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2962,7 +2962,7 @@
         <v>5.455371004316187e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>6.451600613364492e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3003,7 +3003,7 @@
         <v>1.83952127817484e-08</v>
       </c>
       <c r="M23" t="n">
-        <v>2.161593010813046e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3044,7 +3044,7 @@
         <v>6.202765055504645e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>7.242291064123006e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3085,7 +3085,7 @@
         <v>2.091538408529968e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>2.426479051883883e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3126,7 +3126,7 @@
         <v>7.052552958154143e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>8.129739377551924e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3167,7 +3167,7 @@
         <v>2.378082228151912e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>2.723808271919313e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3208,7 +3208,7 @@
         <v>8.018763015178613e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>9.125914385794052e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3249,7 +3249,7 @@
         <v>2.703882966140446e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>3.057568723494666e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3290,7 +3290,7 @@
         <v>9.117345257022674e-12</v>
       </c>
       <c r="M30" t="n">
-        <v>1.024415304542418e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3331,7 +3331,7 @@
         <v>3.074318880508294e-12</v>
       </c>
       <c r="M31" t="n">
-        <v>3.432226079079811e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3372,7 +3372,7 @@
         <v>1.036643486955504e-12</v>
       </c>
       <c r="M32" t="n">
-        <v>1.149941414063834e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3413,7 +3413,7 @@
         <v>3.495505055963286e-13</v>
       </c>
       <c r="M33" t="n">
-        <v>3.852791816732683e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3454,7 +3454,7 @@
         <v>1.178665158273898e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>1.290848785760355e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3495,7 +3495,7 @@
         <v>3.974394352422979e-14</v>
       </c>
       <c r="M35" t="n">
-        <v>4.324891317411283e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3536,7 +3536,7 @@
         <v>1.340144005928135e-14</v>
       </c>
       <c r="M36" t="n">
-        <v>1.449022156070912e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3577,7 +3577,7 @@
         <v>4.518892181723649e-15</v>
       </c>
       <c r="M37" t="n">
-        <v>4.854839242589099e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3618,7 +3618,7 @@
         <v>1.523745691486376e-15</v>
       </c>
       <c r="M38" t="n">
-        <v>1.626577203984172e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3740,7 @@
         <v>0.1277206362255108</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004350210495728315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3781,7 +3781,7 @@
         <v>0.1527950557820937</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008754226544311922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3822,7 +3822,7 @@
         <v>0.2545201374423601</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0175736587385673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3863,7 +3863,7 @@
         <v>0.4955661493418175</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03510538883945627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3904,7 +3904,7 @@
         <v>0.6018469384617805</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06944325427851344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3945,7 +3945,7 @@
         <v>0.5645132134376956</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1347375992401202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3986,7 +3986,7 @@
         <v>0.5629057840928421</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2518416526421299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4027,7 +4027,7 @@
         <v>0.3309310402409434</v>
       </c>
       <c r="M9" t="n">
-        <v>0.43922900980694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4068,7 +4068,7 @@
         <v>0.1606175731103808</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7225724156589195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4109,7 +4109,7 @@
         <v>0.1362897013486298</v>
       </c>
       <c r="M11" t="n">
-        <v>1.286473368896692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4150,7 +4150,7 @@
         <v>0.1108737286208036</v>
       </c>
       <c r="M12" t="n">
-        <v>1.418344709692299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4191,7 +4191,7 @@
         <v>0.0871513774369447</v>
       </c>
       <c r="M13" t="n">
-        <v>1.161805184850521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4232,7 +4232,7 @@
         <v>0.06667616722718166</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6187879577141261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4273,7 +4273,7 @@
         <v>0.04996476680346228</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3858769002268741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4314,7 +4314,7 @@
         <v>0.03686393767829002</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2166149651350917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4355,7 +4355,7 @@
         <v>0.02688749831688018</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1145506427982277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4396,7 +4396,7 @@
         <v>0.01944720869001992</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05868100721921393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4437,7 +4437,7 @@
         <v>0.01398068936735707</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02957305489131765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4478,7 +4478,7 @@
         <v>0.01000701081307795</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01478116687498121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4519,7 +4519,7 @@
         <v>0.007140406903044611</v>
       </c>
       <c r="M21" t="n">
-        <v>0.007357444598352474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4560,7 +4560,7 @@
         <v>0.005083618204451218</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003654699848675552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4601,7 +4601,7 @@
         <v>0.003613542490247898</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00181356217690455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4642,7 +4642,7 @@
         <v>0.002565683478962862</v>
       </c>
       <c r="M24" t="n">
-        <v>0.000899482753389505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4683,7 +4683,7 @@
         <v>0.001820223928089461</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0004460093256888349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4724,7 +4724,7 @@
         <v>0.001290623405587207</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0002211265266074442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4765,7 +4765,7 @@
         <v>0.0009147430022407753</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0001096253213655506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4806,7 +4806,7 @@
         <v>0.0006481484781694</v>
       </c>
       <c r="M28" t="n">
-        <v>5.434600119594123e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4847,7 +4847,7 @@
         <v>0.0004591577792896623</v>
       </c>
       <c r="M29" t="n">
-        <v>2.694124769608746e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4888,7 +4888,7 @@
         <v>0.0003252273561049774</v>
       </c>
       <c r="M30" t="n">
-        <v>1.335563500837488e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4929,7 +4929,7 @@
         <v>0.000230339303075796</v>
       </c>
       <c r="M31" t="n">
-        <v>6.620789131286261e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4970,7 +4970,7 @@
         <v>0.0001631239634285663</v>
       </c>
       <c r="M32" t="n">
-        <v>3.282117809551309e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5011,7 +5011,7 @@
         <v>0.0001155168508505868</v>
       </c>
       <c r="M33" t="n">
-        <v>1.627039799906823e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5052,7 +5052,7 @@
         <v>8.180074102289337e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>8.065698609749874e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5093,7 +5093,7 @@
         <v>5.792393161774177e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>3.998395084480819e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5134,7 +5134,7 @@
         <v>4.10157790041045e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>1.982117388287631e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5175,7 +5175,7 @@
         <v>2.904278966894773e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>9.825915248636866e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5216,7 +5216,7 @@
         <v>2.056467038312246e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>4.870983342841127e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5239,6 +5239,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>beta-D-glucose</t>
@@ -5338,7 +5343,7 @@
         <v>0.07458808396181245</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000732412127009931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5379,7 +5384,7 @@
         <v>0.147383976717571</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001796778742537915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5420,7 +5425,7 @@
         <v>0.2817435373323971</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004406604521313042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5461,7 +5466,7 @@
         <v>0.5080546892093486</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01079930822106122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5502,7 +5507,7 @@
         <v>0.8362909738268464</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0264186602180378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5543,7 +5548,7 @@
         <v>1.222083994615706</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06434769559100743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5584,7 +5589,7 @@
         <v>1.577718257005246</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1550933860555758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5625,7 +5630,7 @@
         <v>1.839247249292606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3646949101066467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5666,7 +5671,7 @@
         <v>2.001350096227184</v>
       </c>
       <c r="M10" t="n">
-        <v>0.811828222102748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5707,7 +5712,7 @@
         <v>2.091417674890456</v>
       </c>
       <c r="M11" t="n">
-        <v>1.622569763837895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5748,7 +5753,7 @@
         <v>2.138441724536833</v>
       </c>
       <c r="M12" t="n">
-        <v>2.736186290175676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5789,7 +5794,7 @@
         <v>2.162196537058602</v>
       </c>
       <c r="M13" t="n">
-        <v>3.7987151694498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5830,7 +5835,7 @@
         <v>2.173996761477989</v>
       </c>
       <c r="M14" t="n">
-        <v>4.512923234018645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5871,7 +5876,7 @@
         <v>2.179809634735202</v>
       </c>
       <c r="M15" t="n">
-        <v>4.887411905360474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5912,7 +5917,7 @@
         <v>2.182661279947155</v>
       </c>
       <c r="M16" t="n">
-        <v>5.058481418973509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5953,7 +5958,7 @@
         <v>2.184057385181816</v>
       </c>
       <c r="M17" t="n">
-        <v>5.131683814114278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5994,7 +5999,7 @@
         <v>2.184740209216697</v>
       </c>
       <c r="M18" t="n">
-        <v>5.162128088812764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6035,7 +6040,7 @@
         <v>2.185074010569562</v>
       </c>
       <c r="M19" t="n">
-        <v>5.174639247818685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6076,7 +6081,7 @@
         <v>2.18523715191992</v>
       </c>
       <c r="M20" t="n">
-        <v>5.179755474148301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6117,7 +6122,7 @@
         <v>2.185316875998273</v>
       </c>
       <c r="M21" t="n">
-        <v>5.181843451010908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6158,7 +6163,7 @@
         <v>2.185355833426566</v>
       </c>
       <c r="M22" t="n">
-        <v>5.182694870893471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6199,7 +6204,7 @@
         <v>2.185374869571012</v>
       </c>
       <c r="M23" t="n">
-        <v>5.183041939990335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6240,7 +6245,7 @@
         <v>2.185384171259899</v>
       </c>
       <c r="M24" t="n">
-        <v>5.183183398345576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6281,7 +6286,7 @@
         <v>2.185388716342159</v>
       </c>
       <c r="M25" t="n">
-        <v>5.183241050695093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6322,7 +6327,7 @@
         <v>2.185390937197541</v>
       </c>
       <c r="M26" t="n">
-        <v>5.183264546781652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6363,7 +6368,7 @@
         <v>2.185392022368398</v>
       </c>
       <c r="M27" t="n">
-        <v>5.183274122470544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6404,7 +6409,7 @@
         <v>2.185392552612237</v>
       </c>
       <c r="M28" t="n">
-        <v>5.183278024970261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6450,7 @@
         <v>2.185392811703622</v>
       </c>
       <c r="M29" t="n">
-        <v>5.183279615402109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6486,7 +6491,7 @@
         <v>2.18539293830261</v>
       </c>
       <c r="M30" t="n">
-        <v>5.183280263569197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6527,7 +6532,7 @@
         <v>2.185393000162261</v>
       </c>
       <c r="M31" t="n">
-        <v>5.18328052772416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6568,7 +6573,7 @@
         <v>2.185393030388538</v>
       </c>
       <c r="M32" t="n">
-        <v>5.183280635378249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6609,7 +6614,7 @@
         <v>2.185393045157905</v>
       </c>
       <c r="M33" t="n">
-        <v>5.183280679251746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6650,7 +6655,7 @@
         <v>2.185393052374611</v>
       </c>
       <c r="M34" t="n">
-        <v>5.183280697132013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6691,7 +6696,7 @@
         <v>2.185393055900887</v>
       </c>
       <c r="M35" t="n">
-        <v>5.183280704418962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6732,7 +6737,7 @@
         <v>2.185393057623919</v>
       </c>
       <c r="M36" t="n">
-        <v>5.183280707388696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6773,7 +6778,7 @@
         <v>2.185393058465839</v>
       </c>
       <c r="M37" t="n">
-        <v>5.183280708598985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6814,7 +6819,7 @@
         <v>2.185393058877223</v>
       </c>
       <c r="M38" t="n">
-        <v>5.183280709092228</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6936,7 +6941,7 @@
         <v>0.005424569833019715</v>
       </c>
       <c r="M2" t="n">
-        <v>7.744774414585056e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6977,7 +6982,7 @@
         <v>0.01600748712381185</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0002311511010363574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7018,7 +7023,7 @@
         <v>0.04678369947929498</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0006898543465007535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7059,7 +7064,7 @@
         <v>0.1330196308619941</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002058457900497745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7100,7 +7105,7 @@
         <v>0.3514828747699265</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006138995984508637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7141,7 +7146,7 @@
         <v>0.7877028928491706</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01827973884075625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7182,7 +7187,7 @@
         <v>1.161359935473802</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05417733739586762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7223,7 +7228,7 @@
         <v>1.33994338589372</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1583917567595826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7264,7 +7269,7 @@
         <v>1.503662167844612</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4455223704024848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7305,7 +7310,7 @@
         <v>1.646070122745192</v>
       </c>
       <c r="M11" t="n">
-        <v>1.134686396039275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7346,7 +7351,7 @@
         <v>1.764388456859284</v>
       </c>
       <c r="M12" t="n">
-        <v>2.355422158100922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7387,7 +7392,7 @@
         <v>1.859002947167723</v>
       </c>
       <c r="M13" t="n">
-        <v>3.313319740315942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7428,7 +7433,7 @@
         <v>1.93237465724313</v>
       </c>
       <c r="M14" t="n">
-        <v>4.037860983354689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7469,7 +7474,7 @@
         <v>1.987929694849857</v>
       </c>
       <c r="M15" t="n">
-        <v>4.528798701908944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7510,7 +7515,7 @@
         <v>2.029238153839269</v>
       </c>
       <c r="M16" t="n">
-        <v>4.819267643332864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7551,7 +7556,7 @@
         <v>2.05954091896375</v>
       </c>
       <c r="M17" t="n">
-        <v>4.977528705696469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7592,7 +7597,7 @@
         <v>2.081550411807368</v>
       </c>
       <c r="M18" t="n">
-        <v>5.059900519273241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7633,7 +7638,7 @@
         <v>2.097421223196581</v>
       </c>
       <c r="M19" t="n">
-        <v>5.101753650713426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7674,7 +7679,7 @@
         <v>2.108805951683935</v>
       </c>
       <c r="M20" t="n">
-        <v>5.122759175571459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7715,7 +7720,7 @@
         <v>2.116942118887792</v>
       </c>
       <c r="M21" t="n">
-        <v>5.133236465047511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7756,7 +7761,7 @@
         <v>2.122741132706489</v>
       </c>
       <c r="M22" t="n">
-        <v>5.138446257721967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7797,7 +7802,7 @@
         <v>2.126866467939416</v>
       </c>
       <c r="M23" t="n">
-        <v>5.141032821344282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7838,7 +7843,7 @@
         <v>2.129797187896207</v>
       </c>
       <c r="M24" t="n">
-        <v>5.142316019503745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7879,7 +7884,7 @@
         <v>2.131877220528391</v>
       </c>
       <c r="M25" t="n">
-        <v>5.142952374521504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7920,7 +7925,7 @@
         <v>2.13335247988556</v>
       </c>
       <c r="M26" t="n">
-        <v>5.143267892037905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7961,7 +7966,7 @@
         <v>2.134398296450066</v>
       </c>
       <c r="M27" t="n">
-        <v>5.143424317319226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8002,7 +8007,7 @@
         <v>2.135139424073532</v>
       </c>
       <c r="M28" t="n">
-        <v>5.143501865268867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8043,7 +8048,7 @@
         <v>2.135664502803528</v>
       </c>
       <c r="M29" t="n">
-        <v>5.143540308840755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8084,7 +8089,7 @@
         <v>2.136036449501582</v>
       </c>
       <c r="M30" t="n">
-        <v>5.143559366616231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8125,7 +8130,7 @@
         <v>2.13629989073951</v>
       </c>
       <c r="M31" t="n">
-        <v>5.143568814145191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8166,7 +8171,7 @@
         <v>2.136486463873476</v>
       </c>
       <c r="M32" t="n">
-        <v>5.143573497564518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8207,7 +8212,7 @@
         <v>2.136618589710889</v>
       </c>
       <c r="M33" t="n">
-        <v>5.143575819270678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8248,7 +8253,7 @@
         <v>2.136712153432776</v>
       </c>
       <c r="M34" t="n">
-        <v>5.143576970206657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8289,7 +8294,7 @@
         <v>2.136778407696941</v>
       </c>
       <c r="M35" t="n">
-        <v>5.14357754075826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8330,7 +8335,7 @@
         <v>2.136825322586493</v>
       </c>
       <c r="M36" t="n">
-        <v>5.143577823596821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -8371,7 +8376,7 @@
         <v>2.136858542679726</v>
       </c>
       <c r="M37" t="n">
-        <v>5.143577963807883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8412,7 +8417,7 @@
         <v>2.136882065329432</v>
       </c>
       <c r="M38" t="n">
-        <v>5.143578033314462</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8534,7 +8539,7 @@
         <v>0.468232759305293</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006206659835575347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8575,7 +8580,7 @@
         <v>0.6086238660607807</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01250517832557893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8616,7 +8621,7 @@
         <v>0.7726602727987711</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0251646146010669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8657,7 +8662,7 @@
         <v>0.9548896116090244</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05051545553617923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8698,7 +8703,7 @@
         <v>1.212107717875817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1009091627407277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8739,7 +8744,7 @@
         <v>1.738375708695784</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1996356800020133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8780,7 +8785,7 @@
         <v>2.036526781285315</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3876463793100527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8821,7 +8826,7 @@
         <v>2.161534067533111</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7271025208964988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8862,7 +8867,7 @@
         <v>2.207218801444423</v>
       </c>
       <c r="M10" t="n">
-        <v>1.28486445675653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8903,7 +8908,7 @@
         <v>2.223061935194908</v>
       </c>
       <c r="M11" t="n">
-        <v>2.073278892284045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8944,7 +8949,7 @@
         <v>2.22845555325526</v>
       </c>
       <c r="M12" t="n">
-        <v>3.179218863254405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8985,7 +8990,7 @@
         <v>2.230280156986295</v>
       </c>
       <c r="M13" t="n">
-        <v>4.298427755945936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -9026,7 +9031,7 @@
         <v>2.230896077165734</v>
       </c>
       <c r="M14" t="n">
-        <v>4.873213505769142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9067,7 +9072,7 @@
         <v>2.231103838778244</v>
       </c>
       <c r="M15" t="n">
-        <v>5.101782946736544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9108,7 +9113,7 @@
         <v>2.231173903580459</v>
       </c>
       <c r="M16" t="n">
-        <v>5.183235270120951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9149,7 +9154,7 @@
         <v>2.231197530040097</v>
       </c>
       <c r="M17" t="n">
-        <v>5.211110058071347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -9190,7 +9195,7 @@
         <v>2.231205496865681</v>
       </c>
       <c r="M18" t="n">
-        <v>5.220516469012673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -9231,7 +9236,7 @@
         <v>2.231208183248456</v>
       </c>
       <c r="M19" t="n">
-        <v>5.223675615251223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -9272,7 +9277,7 @@
         <v>2.231209089083471</v>
       </c>
       <c r="M20" t="n">
-        <v>5.224734918608488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9313,7 +9318,7 @@
         <v>2.231209394526243</v>
       </c>
       <c r="M21" t="n">
-        <v>5.225089926286378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9354,7 +9359,7 @@
         <v>2.231209497519891</v>
       </c>
       <c r="M22" t="n">
-        <v>5.225208879716203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -9395,7 +9400,7 @@
         <v>2.231209532248787</v>
       </c>
       <c r="M23" t="n">
-        <v>5.225248735375345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -9436,7 +9441,7 @@
         <v>2.231209543959181</v>
       </c>
       <c r="M24" t="n">
-        <v>5.225262088848762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -9477,7 +9482,7 @@
         <v>2.231209547907862</v>
       </c>
       <c r="M25" t="n">
-        <v>5.225266562844392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -9518,7 +9523,7 @@
         <v>2.231209549239335</v>
       </c>
       <c r="M26" t="n">
-        <v>5.225268061824536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -9559,7 +9564,7 @@
         <v>2.2312095496883</v>
       </c>
       <c r="M27" t="n">
-        <v>5.225268564046698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9600,7 +9605,7 @@
         <v>2.23120954983969</v>
       </c>
       <c r="M28" t="n">
-        <v>5.22526873231246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -9641,7 +9646,7 @@
         <v>2.231209549890737</v>
       </c>
       <c r="M29" t="n">
-        <v>5.225268788688635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -9682,7 +9687,7 @@
         <v>2.23120954990795</v>
       </c>
       <c r="M30" t="n">
-        <v>5.225268807577047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -9723,7 +9728,7 @@
         <v>2.231209549913754</v>
       </c>
       <c r="M31" t="n">
-        <v>5.225268813905466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -9764,7 +9769,7 @@
         <v>2.231209549915711</v>
       </c>
       <c r="M32" t="n">
-        <v>5.225268816025756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -9805,7 +9810,7 @@
         <v>2.231209549916371</v>
       </c>
       <c r="M33" t="n">
-        <v>5.225268816736143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -9846,7 +9851,7 @@
         <v>2.231209549916593</v>
       </c>
       <c r="M34" t="n">
-        <v>5.225268816974152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9887,7 +9892,7 @@
         <v>2.231209549916668</v>
       </c>
       <c r="M35" t="n">
-        <v>5.225268817053895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9928,7 +9933,7 @@
         <v>2.231209549916694</v>
       </c>
       <c r="M36" t="n">
-        <v>5.225268817080614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9969,7 +9974,7 @@
         <v>2.231209549916702</v>
       </c>
       <c r="M37" t="n">
-        <v>5.225268817089565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -10010,7 +10015,7 @@
         <v>2.231209549916705</v>
       </c>
       <c r="M38" t="n">
-        <v>5.225268817092564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/uptakes.xlsx
+++ b/data/uptakes.xlsx
@@ -544,7 +544,7 @@
         <v>0.05159361221166886</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0006573295889452173</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>0.09843164894235569</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.001612252480658237</v>
       </c>
     </row>
     <row r="4">
@@ -626,7 +626,7 @@
         <v>0.175759711862756</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.003952061796184617</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +667,7 @@
         <v>0.2792605061759645</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.009673400559349494</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +708,7 @@
         <v>0.3697265156458711</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.02359286053139645</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.3857847696200987</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.05704226244127971</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +790,7 @@
         <v>0.3141803754628556</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.1350482696155207</v>
       </c>
     </row>
     <row r="9">
@@ -831,7 +831,7 @@
         <v>0.2086303895871706</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.3043221726535026</v>
       </c>
     </row>
     <row r="10">
@@ -872,7 +872,7 @@
         <v>0.1207037208524175</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.6145740304934383</v>
       </c>
     </row>
     <row r="11">
@@ -913,7 +913,7 @@
         <v>0.06440702801798656</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.00051682365437</v>
       </c>
     </row>
     <row r="12">
@@ -954,7 +954,7 @@
         <v>0.03290210905026766</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.159526521161041</v>
       </c>
     </row>
     <row r="13">
@@ -995,7 +995,7 @@
         <v>0.0164360108619216</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.9108241701490067</v>
       </c>
     </row>
     <row r="14">
@@ -1036,7 +1036,7 @@
         <v>0.008118972245859071</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.5239003640057052</v>
       </c>
     </row>
     <row r="15">
@@ -1077,7 +1077,7 @@
         <v>0.00398838976752208</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.2504161971499638</v>
       </c>
     </row>
     <row r="16">
@@ -1118,7 +1118,7 @@
         <v>0.001953935991325996</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.1093242666070963</v>
       </c>
     </row>
     <row r="17">
@@ -1159,7 +1159,7 @@
         <v>0.0009559670445448767</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.04585300019625549</v>
       </c>
     </row>
     <row r="18">
@@ -1200,7 +1200,7 @@
         <v>0.0004674031347621447</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.01890937846201263</v>
       </c>
     </row>
     <row r="19">
@@ -1241,7 +1241,7 @@
         <v>0.0002284554415043049</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.00774375457972369</v>
       </c>
     </row>
     <row r="20">
@@ -1282,7 +1282,7 @@
         <v>0.0001116460959573984</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.003162144148255606</v>
       </c>
     </row>
     <row r="21">
@@ -1323,7 +1323,7 @@
         <v>5.455724305267145e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.001289743795956567</v>
       </c>
     </row>
     <row r="22">
@@ -1364,7 +1364,7 @@
         <v>2.665907562098284e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0005257967233833913</v>
       </c>
     </row>
     <row r="23">
@@ -1405,7 +1405,7 @@
         <v>1.302656284873353e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.0002143126287747129</v>
       </c>
     </row>
     <row r="24">
@@ -1446,7 +1446,7 @@
         <v>6.365180485672044e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>8.734603439927653e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1487,7 +1487,7 @@
         <v>3.110210016001996e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.559791623855959e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1528,7 +1528,7 @@
         <v>1.519734717572345e-06</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.450775582376418e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1569,7 +1569,7 @@
         <v>7.42583683883736e-07</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.912532832208355e-06</v>
       </c>
     </row>
     <row r="28">
@@ -1610,7 +1610,7 @@
         <v>3.628463844047954e-07</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2.409605482205227e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1651,7 +1651,7 @@
         <v>1.772964702325013e-07</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>9.820145722292925e-07</v>
       </c>
     </row>
     <row r="30">
@@ -1692,7 +1692,7 @@
         <v>8.663179763250323e-08</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4.002116846821377e-07</v>
       </c>
     </row>
     <row r="31">
@@ -1733,7 +1733,7 @@
         <v>4.233061101860551e-08</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.631028432293692e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1774,7 +1774,7 @@
         <v>2.068386696689717e-08</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>6.647116234047633e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1815,7 +1815,7 @@
         <v>1.010668961202642e-08</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.708975040945588e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1856,7 +1856,7 @@
         <v>4.938398335828383e-09</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.104019463549301e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1897,7 +1897,7 @@
         <v>2.413033246012233e-09</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.499336289522084e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1938,7 +1938,7 @@
         <v>1.179072452399597e-09</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.833665771380981e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1979,7 +1979,7 @@
         <v>5.761262714403269e-10</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>7.47294699149656e-10</v>
       </c>
     </row>
     <row r="38">
@@ -2020,7 +2020,7 @@
         <v>2.815106737821253e-10</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.045535211152917e-10</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2142,7 @@
         <v>0.005882054895873327</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.468768259260699e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2183,7 +2183,7 @@
         <v>0.01727131074173271</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.0002527519208173551</v>
       </c>
     </row>
     <row r="4">
@@ -2224,7 +2224,7 @@
         <v>0.04974490539728069</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0007542532140802791</v>
       </c>
     </row>
     <row r="5">
@@ -2265,7 +2265,7 @@
         <v>0.135603679730536</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.002250018898140651</v>
       </c>
     </row>
     <row r="6">
@@ -2306,7 +2306,7 @@
         <v>0.172670768974483</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.006704968064361631</v>
       </c>
     </row>
     <row r="7">
@@ -2347,7 +2347,7 @@
         <v>0.1772322377556019</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0199178205962091</v>
       </c>
     </row>
     <row r="8">
@@ -2388,7 +2388,7 @@
         <v>0.1610011272920217</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.05861880830596534</v>
       </c>
     </row>
     <row r="9">
@@ -2429,7 +2429,7 @@
         <v>0.07027827857901407</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.167867510412803</v>
       </c>
     </row>
     <row r="10">
@@ -2470,7 +2470,7 @@
         <v>0.02470974312477874</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.4449798620389108</v>
       </c>
     </row>
     <row r="11">
@@ -2511,7 +2511,7 @@
         <v>0.008452031227589554</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.7691505482389439</v>
       </c>
     </row>
     <row r="12">
@@ -2552,7 +2552,7 @@
         <v>0.002863824711341644</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.8845407423743781</v>
       </c>
     </row>
     <row r="13">
@@ -2593,7 +2593,7 @@
         <v>0.0009672479798648304</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.7146996057674614</v>
       </c>
     </row>
     <row r="14">
@@ -2634,7 +2634,7 @@
         <v>0.0003263308869167818</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.3534210547088106</v>
       </c>
     </row>
     <row r="15">
@@ -2675,7 +2675,7 @@
         <v>0.000110057483865974</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.1297792689955607</v>
       </c>
     </row>
     <row r="16">
@@ -2716,7 +2716,7 @@
         <v>3.711311158521396e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.04488105323693255</v>
       </c>
     </row>
     <row r="17">
@@ -2757,7 +2757,7 @@
         <v>1.25146029761277e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.01519922746461532</v>
       </c>
     </row>
     <row r="18">
@@ -2798,7 +2798,7 @@
         <v>4.219885710235141e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.005110787118535922</v>
       </c>
     </row>
     <row r="19">
@@ -2839,7 +2839,7 @@
         <v>1.422925773519243e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.001714403634255814</v>
       </c>
     </row>
     <row r="20">
@@ -2880,7 +2880,7 @@
         <v>4.79803166352366e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0005746309699166063</v>
       </c>
     </row>
     <row r="21">
@@ -2921,7 +2921,7 @@
         <v>1.617870438724059e-07</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0001925519286086693</v>
       </c>
     </row>
     <row r="22">
@@ -2962,7 +2962,7 @@
         <v>5.455371004316187e-08</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>6.451600613364492e-05</v>
       </c>
     </row>
     <row r="23">
@@ -3003,7 +3003,7 @@
         <v>1.83952127817484e-08</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2.161593010813046e-05</v>
       </c>
     </row>
     <row r="24">
@@ -3044,7 +3044,7 @@
         <v>6.202765055504645e-09</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>7.242291064123006e-06</v>
       </c>
     </row>
     <row r="25">
@@ -3085,7 +3085,7 @@
         <v>2.091538408529968e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2.426479051883883e-06</v>
       </c>
     </row>
     <row r="26">
@@ -3126,7 +3126,7 @@
         <v>7.052552958154143e-10</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>8.129739377551924e-07</v>
       </c>
     </row>
     <row r="27">
@@ -3167,7 +3167,7 @@
         <v>2.378082228151912e-10</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2.723808271919313e-07</v>
       </c>
     </row>
     <row r="28">
@@ -3208,7 +3208,7 @@
         <v>8.018763015178613e-11</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>9.125914385794052e-08</v>
       </c>
     </row>
     <row r="29">
@@ -3249,7 +3249,7 @@
         <v>2.703882966140446e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3.057568723494666e-08</v>
       </c>
     </row>
     <row r="30">
@@ -3290,7 +3290,7 @@
         <v>9.117345257022674e-12</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.024415304542418e-08</v>
       </c>
     </row>
     <row r="31">
@@ -3331,7 +3331,7 @@
         <v>3.074318880508294e-12</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.432226079079811e-09</v>
       </c>
     </row>
     <row r="32">
@@ -3372,7 +3372,7 @@
         <v>1.036643486955504e-12</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.149941414063834e-09</v>
       </c>
     </row>
     <row r="33">
@@ -3413,7 +3413,7 @@
         <v>3.495505055963286e-13</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3.852791816732683e-10</v>
       </c>
     </row>
     <row r="34">
@@ -3454,7 +3454,7 @@
         <v>1.178665158273898e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.290848785760355e-10</v>
       </c>
     </row>
     <row r="35">
@@ -3495,7 +3495,7 @@
         <v>3.974394352422979e-14</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.324891317411283e-11</v>
       </c>
     </row>
     <row r="36">
@@ -3536,7 +3536,7 @@
         <v>1.340144005928135e-14</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.449022156070912e-11</v>
       </c>
     </row>
     <row r="37">
@@ -3577,7 +3577,7 @@
         <v>4.518892181723649e-15</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>4.854839242589099e-12</v>
       </c>
     </row>
     <row r="38">
@@ -3618,7 +3618,7 @@
         <v>1.523745691486376e-15</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.626577203984172e-12</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3740,7 @@
         <v>0.1277206362255108</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.004350210495728315</v>
       </c>
     </row>
     <row r="3">
@@ -3781,7 +3781,7 @@
         <v>0.1527950557820937</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.008754226544311922</v>
       </c>
     </row>
     <row r="4">
@@ -3822,7 +3822,7 @@
         <v>0.2545201374423601</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0175736587385673</v>
       </c>
     </row>
     <row r="5">
@@ -3863,7 +3863,7 @@
         <v>0.4955661493418175</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.03510538883945627</v>
       </c>
     </row>
     <row r="6">
@@ -3904,7 +3904,7 @@
         <v>0.6018469384617805</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.06944325427851344</v>
       </c>
     </row>
     <row r="7">
@@ -3945,7 +3945,7 @@
         <v>0.5645132134376956</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.1347375992401202</v>
       </c>
     </row>
     <row r="8">
@@ -3986,7 +3986,7 @@
         <v>0.5629057840928421</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.2518416526421299</v>
       </c>
     </row>
     <row r="9">
@@ -4027,7 +4027,7 @@
         <v>0.3309310402409434</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.43922900980694</v>
       </c>
     </row>
     <row r="10">
@@ -4068,7 +4068,7 @@
         <v>0.1606175731103808</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.7225724156589195</v>
       </c>
     </row>
     <row r="11">
@@ -4109,7 +4109,7 @@
         <v>0.1362897013486298</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.286473368896692</v>
       </c>
     </row>
     <row r="12">
@@ -4150,7 +4150,7 @@
         <v>0.1108737286208036</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.418344709692299</v>
       </c>
     </row>
     <row r="13">
@@ -4191,7 +4191,7 @@
         <v>0.0871513774369447</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.161805184850521</v>
       </c>
     </row>
     <row r="14">
@@ -4232,7 +4232,7 @@
         <v>0.06667616722718166</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.6187879577141261</v>
       </c>
     </row>
     <row r="15">
@@ -4273,7 +4273,7 @@
         <v>0.04996476680346228</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.3858769002268741</v>
       </c>
     </row>
     <row r="16">
@@ -4314,7 +4314,7 @@
         <v>0.03686393767829002</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.2166149651350917</v>
       </c>
     </row>
     <row r="17">
@@ -4355,7 +4355,7 @@
         <v>0.02688749831688018</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.1145506427982277</v>
       </c>
     </row>
     <row r="18">
@@ -4396,7 +4396,7 @@
         <v>0.01944720869001992</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.05868100721921393</v>
       </c>
     </row>
     <row r="19">
@@ -4437,7 +4437,7 @@
         <v>0.01398068936735707</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.02957305489131765</v>
       </c>
     </row>
     <row r="20">
@@ -4478,7 +4478,7 @@
         <v>0.01000701081307795</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.01478116687498121</v>
       </c>
     </row>
     <row r="21">
@@ -4519,7 +4519,7 @@
         <v>0.007140406903044611</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.007357444598352474</v>
       </c>
     </row>
     <row r="22">
@@ -4560,7 +4560,7 @@
         <v>0.005083618204451218</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.003654699848675552</v>
       </c>
     </row>
     <row r="23">
@@ -4601,7 +4601,7 @@
         <v>0.003613542490247898</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.00181356217690455</v>
       </c>
     </row>
     <row r="24">
@@ -4642,7 +4642,7 @@
         <v>0.002565683478962862</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.000899482753389505</v>
       </c>
     </row>
     <row r="25">
@@ -4683,7 +4683,7 @@
         <v>0.001820223928089461</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.0004460093256888349</v>
       </c>
     </row>
     <row r="26">
@@ -4724,7 +4724,7 @@
         <v>0.001290623405587207</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0002211265266074442</v>
       </c>
     </row>
     <row r="27">
@@ -4765,7 +4765,7 @@
         <v>0.0009147430022407753</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.0001096253213655506</v>
       </c>
     </row>
     <row r="28">
@@ -4806,7 +4806,7 @@
         <v>0.0006481484781694</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.434600119594123e-05</v>
       </c>
     </row>
     <row r="29">
@@ -4847,7 +4847,7 @@
         <v>0.0004591577792896623</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2.694124769608746e-05</v>
       </c>
     </row>
     <row r="30">
@@ -4888,7 +4888,7 @@
         <v>0.0003252273561049774</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.335563500837488e-05</v>
       </c>
     </row>
     <row r="31">
@@ -4929,7 +4929,7 @@
         <v>0.000230339303075796</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>6.620789131286261e-06</v>
       </c>
     </row>
     <row r="32">
@@ -4970,7 +4970,7 @@
         <v>0.0001631239634285663</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3.282117809551309e-06</v>
       </c>
     </row>
     <row r="33">
@@ -5011,7 +5011,7 @@
         <v>0.0001155168508505868</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.627039799906823e-06</v>
       </c>
     </row>
     <row r="34">
@@ -5052,7 +5052,7 @@
         <v>8.180074102289337e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>8.065698609749874e-07</v>
       </c>
     </row>
     <row r="35">
@@ -5093,7 +5093,7 @@
         <v>5.792393161774177e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3.998395084480819e-07</v>
       </c>
     </row>
     <row r="36">
@@ -5134,7 +5134,7 @@
         <v>4.10157790041045e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.982117388287631e-07</v>
       </c>
     </row>
     <row r="37">
@@ -5175,7 +5175,7 @@
         <v>2.904278966894773e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>9.825915248636866e-08</v>
       </c>
     </row>
     <row r="38">
@@ -5216,7 +5216,7 @@
         <v>2.056467038312246e-05</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.870983342841127e-08</v>
       </c>
     </row>
   </sheetData>
@@ -5343,7 +5343,7 @@
         <v>0.07458808396181245</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.000732412127009931</v>
       </c>
     </row>
     <row r="3">
@@ -5384,7 +5384,7 @@
         <v>0.147383976717571</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.001796778742537915</v>
       </c>
     </row>
     <row r="4">
@@ -5425,7 +5425,7 @@
         <v>0.2817435373323971</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.004406604521313042</v>
       </c>
     </row>
     <row r="5">
@@ -5466,7 +5466,7 @@
         <v>0.5080546892093486</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.01079930822106122</v>
       </c>
     </row>
     <row r="6">
@@ -5507,7 +5507,7 @@
         <v>0.8362909738268464</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0264186602180378</v>
       </c>
     </row>
     <row r="7">
@@ -5548,7 +5548,7 @@
         <v>1.222083994615706</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.06434769559100743</v>
       </c>
     </row>
     <row r="8">
@@ -5589,7 +5589,7 @@
         <v>1.577718257005246</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.1550933860555758</v>
       </c>
     </row>
     <row r="9">
@@ -5630,7 +5630,7 @@
         <v>1.839247249292606</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.3646949101066467</v>
       </c>
     </row>
     <row r="10">
@@ -5671,7 +5671,7 @@
         <v>2.001350096227184</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.811828222102748</v>
       </c>
     </row>
     <row r="11">
@@ -5712,7 +5712,7 @@
         <v>2.091417674890456</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.622569763837895</v>
       </c>
     </row>
     <row r="12">
@@ -5753,7 +5753,7 @@
         <v>2.138441724536833</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.736186290175676</v>
       </c>
     </row>
     <row r="13">
@@ -5794,7 +5794,7 @@
         <v>2.162196537058602</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.7987151694498</v>
       </c>
     </row>
     <row r="14">
@@ -5835,7 +5835,7 @@
         <v>2.173996761477989</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.512923234018645</v>
       </c>
     </row>
     <row r="15">
@@ -5876,7 +5876,7 @@
         <v>2.179809634735202</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.887411905360474</v>
       </c>
     </row>
     <row r="16">
@@ -5917,7 +5917,7 @@
         <v>2.182661279947155</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5.058481418973509</v>
       </c>
     </row>
     <row r="17">
@@ -5958,7 +5958,7 @@
         <v>2.184057385181816</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.131683814114278</v>
       </c>
     </row>
     <row r="18">
@@ -5999,7 +5999,7 @@
         <v>2.184740209216697</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5.162128088812764</v>
       </c>
     </row>
     <row r="19">
@@ -6040,7 +6040,7 @@
         <v>2.185074010569562</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.174639247818685</v>
       </c>
     </row>
     <row r="20">
@@ -6081,7 +6081,7 @@
         <v>2.18523715191992</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.179755474148301</v>
       </c>
     </row>
     <row r="21">
@@ -6122,7 +6122,7 @@
         <v>2.185316875998273</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5.181843451010908</v>
       </c>
     </row>
     <row r="22">
@@ -6163,7 +6163,7 @@
         <v>2.185355833426566</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.182694870893471</v>
       </c>
     </row>
     <row r="23">
@@ -6204,7 +6204,7 @@
         <v>2.185374869571012</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.183041939990335</v>
       </c>
     </row>
     <row r="24">
@@ -6245,7 +6245,7 @@
         <v>2.185384171259899</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.183183398345576</v>
       </c>
     </row>
     <row r="25">
@@ -6286,7 +6286,7 @@
         <v>2.185388716342159</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.183241050695093</v>
       </c>
     </row>
     <row r="26">
@@ -6327,7 +6327,7 @@
         <v>2.185390937197541</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>5.183264546781652</v>
       </c>
     </row>
     <row r="27">
@@ -6368,7 +6368,7 @@
         <v>2.185392022368398</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.183274122470544</v>
       </c>
     </row>
     <row r="28">
@@ -6409,7 +6409,7 @@
         <v>2.185392552612237</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.183278024970261</v>
       </c>
     </row>
     <row r="29">
@@ -6450,7 +6450,7 @@
         <v>2.185392811703622</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.183279615402109</v>
       </c>
     </row>
     <row r="30">
@@ -6491,7 +6491,7 @@
         <v>2.18539293830261</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.183280263569197</v>
       </c>
     </row>
     <row r="31">
@@ -6532,7 +6532,7 @@
         <v>2.185393000162261</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.18328052772416</v>
       </c>
     </row>
     <row r="32">
@@ -6573,7 +6573,7 @@
         <v>2.185393030388538</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.183280635378249</v>
       </c>
     </row>
     <row r="33">
@@ -6614,7 +6614,7 @@
         <v>2.185393045157905</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>5.183280679251746</v>
       </c>
     </row>
     <row r="34">
@@ -6655,7 +6655,7 @@
         <v>2.185393052374611</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.183280697132013</v>
       </c>
     </row>
     <row r="35">
@@ -6696,7 +6696,7 @@
         <v>2.185393055900887</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.183280704418962</v>
       </c>
     </row>
     <row r="36">
@@ -6737,7 +6737,7 @@
         <v>2.185393057623919</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.183280707388696</v>
       </c>
     </row>
     <row r="37">
@@ -6778,7 +6778,7 @@
         <v>2.185393058465839</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.183280708598985</v>
       </c>
     </row>
     <row r="38">
@@ -6819,7 +6819,7 @@
         <v>2.185393058877223</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.183280709092228</v>
       </c>
     </row>
   </sheetData>
@@ -6941,7 +6941,7 @@
         <v>0.005424569833019715</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.744774414585056e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6982,7 +6982,7 @@
         <v>0.01600748712381185</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.0002311511010363574</v>
       </c>
     </row>
     <row r="4">
@@ -7023,7 +7023,7 @@
         <v>0.04678369947929498</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0006898543465007535</v>
       </c>
     </row>
     <row r="5">
@@ -7064,7 +7064,7 @@
         <v>0.1330196308619941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.002058457900497745</v>
       </c>
     </row>
     <row r="6">
@@ -7105,7 +7105,7 @@
         <v>0.3514828747699265</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.006138995984508637</v>
       </c>
     </row>
     <row r="7">
@@ -7146,7 +7146,7 @@
         <v>0.7877028928491706</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.01827973884075625</v>
       </c>
     </row>
     <row r="8">
@@ -7187,7 +7187,7 @@
         <v>1.161359935473802</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.05417733739586762</v>
       </c>
     </row>
     <row r="9">
@@ -7228,7 +7228,7 @@
         <v>1.33994338589372</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.1583917567595826</v>
       </c>
     </row>
     <row r="10">
@@ -7269,7 +7269,7 @@
         <v>1.503662167844612</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.4455223704024848</v>
       </c>
     </row>
     <row r="11">
@@ -7310,7 +7310,7 @@
         <v>1.646070122745192</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.134686396039275</v>
       </c>
     </row>
     <row r="12">
@@ -7351,7 +7351,7 @@
         <v>1.764388456859284</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.355422158100922</v>
       </c>
     </row>
     <row r="13">
@@ -7392,7 +7392,7 @@
         <v>1.859002947167723</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.313319740315942</v>
       </c>
     </row>
     <row r="14">
@@ -7433,7 +7433,7 @@
         <v>1.93237465724313</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.037860983354689</v>
       </c>
     </row>
     <row r="15">
@@ -7474,7 +7474,7 @@
         <v>1.987929694849857</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.528798701908944</v>
       </c>
     </row>
     <row r="16">
@@ -7515,7 +7515,7 @@
         <v>2.029238153839269</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.819267643332864</v>
       </c>
     </row>
     <row r="17">
@@ -7556,7 +7556,7 @@
         <v>2.05954091896375</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.977528705696469</v>
       </c>
     </row>
     <row r="18">
@@ -7597,7 +7597,7 @@
         <v>2.081550411807368</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5.059900519273241</v>
       </c>
     </row>
     <row r="19">
@@ -7638,7 +7638,7 @@
         <v>2.097421223196581</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.101753650713426</v>
       </c>
     </row>
     <row r="20">
@@ -7679,7 +7679,7 @@
         <v>2.108805951683935</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.122759175571459</v>
       </c>
     </row>
     <row r="21">
@@ -7720,7 +7720,7 @@
         <v>2.116942118887792</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5.133236465047511</v>
       </c>
     </row>
     <row r="22">
@@ -7761,7 +7761,7 @@
         <v>2.122741132706489</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.138446257721967</v>
       </c>
     </row>
     <row r="23">
@@ -7802,7 +7802,7 @@
         <v>2.126866467939416</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.141032821344282</v>
       </c>
     </row>
     <row r="24">
@@ -7843,7 +7843,7 @@
         <v>2.129797187896207</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.142316019503745</v>
       </c>
     </row>
     <row r="25">
@@ -7884,7 +7884,7 @@
         <v>2.131877220528391</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.142952374521504</v>
       </c>
     </row>
     <row r="26">
@@ -7925,7 +7925,7 @@
         <v>2.13335247988556</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>5.143267892037905</v>
       </c>
     </row>
     <row r="27">
@@ -7966,7 +7966,7 @@
         <v>2.134398296450066</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.143424317319226</v>
       </c>
     </row>
     <row r="28">
@@ -8007,7 +8007,7 @@
         <v>2.135139424073532</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.143501865268867</v>
       </c>
     </row>
     <row r="29">
@@ -8048,7 +8048,7 @@
         <v>2.135664502803528</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.143540308840755</v>
       </c>
     </row>
     <row r="30">
@@ -8089,7 +8089,7 @@
         <v>2.136036449501582</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.143559366616231</v>
       </c>
     </row>
     <row r="31">
@@ -8130,7 +8130,7 @@
         <v>2.13629989073951</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.143568814145191</v>
       </c>
     </row>
     <row r="32">
@@ -8171,7 +8171,7 @@
         <v>2.136486463873476</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.143573497564518</v>
       </c>
     </row>
     <row r="33">
@@ -8212,7 +8212,7 @@
         <v>2.136618589710889</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>5.143575819270678</v>
       </c>
     </row>
     <row r="34">
@@ -8253,7 +8253,7 @@
         <v>2.136712153432776</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.143576970206657</v>
       </c>
     </row>
     <row r="35">
@@ -8294,7 +8294,7 @@
         <v>2.136778407696941</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.14357754075826</v>
       </c>
     </row>
     <row r="36">
@@ -8335,7 +8335,7 @@
         <v>2.136825322586493</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.143577823596821</v>
       </c>
     </row>
     <row r="37">
@@ -8376,7 +8376,7 @@
         <v>2.136858542679726</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.143577963807883</v>
       </c>
     </row>
     <row r="38">
@@ -8417,7 +8417,7 @@
         <v>2.136882065329432</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.143578033314462</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +8539,7 @@
         <v>0.468232759305293</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.006206659835575347</v>
       </c>
     </row>
     <row r="3">
@@ -8580,7 +8580,7 @@
         <v>0.6086238660607807</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.01250517832557893</v>
       </c>
     </row>
     <row r="4">
@@ -8621,7 +8621,7 @@
         <v>0.7726602727987711</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.0251646146010669</v>
       </c>
     </row>
     <row r="5">
@@ -8662,7 +8662,7 @@
         <v>0.9548896116090244</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.05051545553617923</v>
       </c>
     </row>
     <row r="6">
@@ -8703,7 +8703,7 @@
         <v>1.212107717875817</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.1009091627407277</v>
       </c>
     </row>
     <row r="7">
@@ -8744,7 +8744,7 @@
         <v>1.738375708695784</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.1996356800020133</v>
       </c>
     </row>
     <row r="8">
@@ -8785,7 +8785,7 @@
         <v>2.036526781285315</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.3876463793100527</v>
       </c>
     </row>
     <row r="9">
@@ -8826,7 +8826,7 @@
         <v>2.161534067533111</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.7271025208964988</v>
       </c>
     </row>
     <row r="10">
@@ -8867,7 +8867,7 @@
         <v>2.207218801444423</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.28486445675653</v>
       </c>
     </row>
     <row r="11">
@@ -8908,7 +8908,7 @@
         <v>2.223061935194908</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.073278892284045</v>
       </c>
     </row>
     <row r="12">
@@ -8949,7 +8949,7 @@
         <v>2.22845555325526</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3.179218863254405</v>
       </c>
     </row>
     <row r="13">
@@ -8990,7 +8990,7 @@
         <v>2.230280156986295</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.298427755945936</v>
       </c>
     </row>
     <row r="14">
@@ -9031,7 +9031,7 @@
         <v>2.230896077165734</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.873213505769142</v>
       </c>
     </row>
     <row r="15">
@@ -9072,7 +9072,7 @@
         <v>2.231103838778244</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>5.101782946736544</v>
       </c>
     </row>
     <row r="16">
@@ -9113,7 +9113,7 @@
         <v>2.231173903580459</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5.183235270120951</v>
       </c>
     </row>
     <row r="17">
@@ -9154,7 +9154,7 @@
         <v>2.231197530040097</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.211110058071347</v>
       </c>
     </row>
     <row r="18">
@@ -9195,7 +9195,7 @@
         <v>2.231205496865681</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5.220516469012673</v>
       </c>
     </row>
     <row r="19">
@@ -9236,7 +9236,7 @@
         <v>2.231208183248456</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.223675615251223</v>
       </c>
     </row>
     <row r="20">
@@ -9277,7 +9277,7 @@
         <v>2.231209089083471</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.224734918608488</v>
       </c>
     </row>
     <row r="21">
@@ -9318,7 +9318,7 @@
         <v>2.231209394526243</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5.225089926286378</v>
       </c>
     </row>
     <row r="22">
@@ -9359,7 +9359,7 @@
         <v>2.231209497519891</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>5.225208879716203</v>
       </c>
     </row>
     <row r="23">
@@ -9400,7 +9400,7 @@
         <v>2.231209532248787</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.225248735375345</v>
       </c>
     </row>
     <row r="24">
@@ -9441,7 +9441,7 @@
         <v>2.231209543959181</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.225262088848762</v>
       </c>
     </row>
     <row r="25">
@@ -9482,7 +9482,7 @@
         <v>2.231209547907862</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>5.225266562844392</v>
       </c>
     </row>
     <row r="26">
@@ -9523,7 +9523,7 @@
         <v>2.231209549239335</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>5.225268061824536</v>
       </c>
     </row>
     <row r="27">
@@ -9564,7 +9564,7 @@
         <v>2.2312095496883</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.225268564046698</v>
       </c>
     </row>
     <row r="28">
@@ -9605,7 +9605,7 @@
         <v>2.23120954983969</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>5.22526873231246</v>
       </c>
     </row>
     <row r="29">
@@ -9646,7 +9646,7 @@
         <v>2.231209549890737</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.225268788688635</v>
       </c>
     </row>
     <row r="30">
@@ -9687,7 +9687,7 @@
         <v>2.23120954990795</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.225268807577047</v>
       </c>
     </row>
     <row r="31">
@@ -9728,7 +9728,7 @@
         <v>2.231209549913754</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.225268813905466</v>
       </c>
     </row>
     <row r="32">
@@ -9769,7 +9769,7 @@
         <v>2.231209549915711</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.225268816025756</v>
       </c>
     </row>
     <row r="33">
@@ -9810,7 +9810,7 @@
         <v>2.231209549916371</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>5.225268816736143</v>
       </c>
     </row>
     <row r="34">
@@ -9851,7 +9851,7 @@
         <v>2.231209549916593</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>5.225268816974152</v>
       </c>
     </row>
     <row r="35">
@@ -9892,7 +9892,7 @@
         <v>2.231209549916668</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.225268817053895</v>
       </c>
     </row>
     <row r="36">
@@ -9933,7 +9933,7 @@
         <v>2.231209549916694</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.225268817080614</v>
       </c>
     </row>
     <row r="37">
@@ -9974,7 +9974,7 @@
         <v>2.231209549916702</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.225268817089565</v>
       </c>
     </row>
     <row r="38">
@@ -10015,7 +10015,7 @@
         <v>2.231209549916705</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.225268817092564</v>
       </c>
     </row>
   </sheetData>
